--- a/two_stage_prediction_result.xlsx
+++ b/two_stage_prediction_result.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C666"/>
+  <dimension ref="A1:C669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,1624 +456,1624 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45344</v>
+        <v>45341</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.077019691467285</v>
+        <v>0.9597731838181601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2</v>
+        <v>2.1968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5119067430496216</v>
+        <v>0.7665948191808386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B4" t="n">
-        <v>3.022599999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.140054821968079</v>
+        <v>0.4240404820734175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45347</v>
+        <v>45344</v>
       </c>
       <c r="B5" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.007438659667969</v>
+        <v>0.9120790616537224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45345</v>
       </c>
       <c r="B6" t="n">
-        <v>20.8</v>
+        <v>3.2</v>
       </c>
       <c r="C6" t="n">
-        <v>7.975192546844482</v>
+        <v>0.6291707942896722</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45349</v>
+        <v>45346</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.022599999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>2.194247245788574</v>
+        <v>1.210039012622246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45350</v>
+        <v>45347</v>
       </c>
       <c r="B8" t="n">
-        <v>38.5</v>
+        <v>5.7</v>
       </c>
       <c r="C8" t="n">
-        <v>16.50749206542969</v>
+        <v>4.310381036533287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45351</v>
+        <v>45348</v>
       </c>
       <c r="B9" t="n">
-        <v>75.5</v>
+        <v>20.8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.250202178955078</v>
+        <v>11.0634698206122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45352</v>
+        <v>45349</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>8.134151458740234</v>
+        <v>0.7333768581014291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45353</v>
+        <v>45350</v>
       </c>
       <c r="B11" t="n">
-        <v>10.02960000000001</v>
+        <v>38.5</v>
       </c>
       <c r="C11" t="n">
-        <v>4.909289836883545</v>
+        <v>45.08799105158627</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45354</v>
+        <v>45351</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7</v>
+        <v>75.5</v>
       </c>
       <c r="C12" t="n">
-        <v>6.850716114044189</v>
+        <v>49.81230746659443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45355</v>
+        <v>45352</v>
       </c>
       <c r="B13" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>5.579394340515137</v>
+        <v>10.88034705753816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45356</v>
+        <v>45353</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>10.02960000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>1.887959361076355</v>
+        <v>9.670616352433221</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45357</v>
+        <v>45354</v>
       </c>
       <c r="B15" t="n">
-        <v>1.9234</v>
+        <v>17.7</v>
       </c>
       <c r="C15" t="n">
-        <v>1.064498066902161</v>
+        <v>9.429298243795447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45358</v>
+        <v>45355</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="C16" t="n">
-        <v>2.558866024017334</v>
+        <v>5.805839676645167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45359</v>
+        <v>45356</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6.899477005004883</v>
+        <v>1.223294453350873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45360</v>
+        <v>45357</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2</v>
+        <v>1.9234</v>
       </c>
       <c r="C18" t="n">
-        <v>5.450344085693359</v>
+        <v>0.2991096969859921</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45361</v>
+        <v>45358</v>
       </c>
       <c r="B19" t="n">
-        <v>47.7</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>27.12410545349121</v>
+        <v>1.690520864381722</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45362</v>
+        <v>45359</v>
       </c>
       <c r="B20" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.217342376708984</v>
+        <v>1.465498859390077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45363</v>
+        <v>45360</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>4.2</v>
       </c>
       <c r="C21" t="n">
-        <v>6.886684417724609</v>
+        <v>5.00556097959158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45364</v>
+        <v>45361</v>
       </c>
       <c r="B22" t="n">
-        <v>4.3</v>
+        <v>47.7</v>
       </c>
       <c r="C22" t="n">
-        <v>2.96052098274231</v>
+        <v>49.58215159728288</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45365</v>
+        <v>45362</v>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>10.4</v>
       </c>
       <c r="C23" t="n">
-        <v>5.381019592285156</v>
+        <v>5.017092710709849</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45366</v>
+        <v>45363</v>
       </c>
       <c r="B24" t="n">
-        <v>31.8</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>18.86531066894531</v>
+        <v>11.54739473417643</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45367</v>
+        <v>45364</v>
       </c>
       <c r="B25" t="n">
-        <v>6.5</v>
+        <v>4.3</v>
       </c>
       <c r="C25" t="n">
-        <v>23.76034164428711</v>
+        <v>4.360127832889985</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45368</v>
+        <v>45365</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8.555231094360352</v>
+        <v>8.684099658925431</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45369</v>
+        <v>45366</v>
       </c>
       <c r="B27" t="n">
-        <v>21.7</v>
+        <v>31.8</v>
       </c>
       <c r="C27" t="n">
-        <v>5.898168087005615</v>
+        <v>29.72094903581839</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45370</v>
+        <v>45367</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3</v>
+        <v>6.5</v>
       </c>
       <c r="C28" t="n">
-        <v>1.647456169128418</v>
+        <v>14.02557190015472</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45371</v>
+        <v>45368</v>
       </c>
       <c r="B29" t="n">
-        <v>7.212600000000005</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>4.644485950469971</v>
+        <v>8.066042931143478</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45372</v>
+        <v>45369</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="C30" t="n">
-        <v>2.900394916534424</v>
+        <v>5.18805711321823</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45373</v>
+        <v>45370</v>
       </c>
       <c r="B31" t="n">
-        <v>63.3</v>
+        <v>0.3</v>
       </c>
       <c r="C31" t="n">
-        <v>11.89566993713379</v>
+        <v>0.5278623160726795</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45374</v>
+        <v>45371</v>
       </c>
       <c r="B32" t="n">
-        <v>3.8</v>
+        <v>7.212600000000005</v>
       </c>
       <c r="C32" t="n">
-        <v>6.441516876220703</v>
+        <v>4.025594443866991</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45375</v>
+        <v>45372</v>
       </c>
       <c r="B33" t="n">
-        <v>4.066399999999999</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.058829307556152</v>
+        <v>0.7895990271154398</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45376</v>
+        <v>45373</v>
       </c>
       <c r="B34" t="n">
-        <v>1.1342</v>
+        <v>63.3</v>
       </c>
       <c r="C34" t="n">
-        <v>1.233667492866516</v>
+        <v>25.86796231631752</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45377</v>
+        <v>45374</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07680000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="C35" t="n">
-        <v>1.559139013290405</v>
+        <v>4.193495995815288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45378</v>
+        <v>45375</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4</v>
+        <v>4.066399999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>2.071549415588379</v>
+        <v>3.373678467166601</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45379</v>
+        <v>45376</v>
       </c>
       <c r="B37" t="n">
-        <v>2.816200000000001</v>
+        <v>1.1342</v>
       </c>
       <c r="C37" t="n">
-        <v>4.240627765655518</v>
+        <v>0.8764770797297803</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45380</v>
+        <v>45377</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.07680000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.844515860080719</v>
+        <v>1.018428012474928</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45381</v>
+        <v>45378</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2765999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5015282034873962</v>
+        <v>0.7354483238237854</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45382</v>
+        <v>45379</v>
       </c>
       <c r="B40" t="n">
-        <v>1.4278</v>
+        <v>2.8162</v>
       </c>
       <c r="C40" t="n">
-        <v>2.794380664825439</v>
+        <v>1.356109032471009</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45383</v>
+        <v>45380</v>
       </c>
       <c r="B41" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.146354198455811</v>
+        <v>0.3766594941405244</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45384</v>
+        <v>45381</v>
       </c>
       <c r="B42" t="n">
-        <v>1.2</v>
+        <v>0.2765999999999997</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7535865306854248</v>
+        <v>0.4664311856832135</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45385</v>
+        <v>45382</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.4278</v>
       </c>
       <c r="C43" t="n">
-        <v>1.442604780197144</v>
+        <v>0.6899770782900324</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45386</v>
+        <v>45383</v>
       </c>
       <c r="B44" t="n">
-        <v>5.6</v>
+        <v>18.2</v>
       </c>
       <c r="C44" t="n">
-        <v>4.346355438232422</v>
+        <v>7.445612842456457</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45387</v>
+        <v>45384</v>
       </c>
       <c r="B45" t="n">
-        <v>10.91919999999999</v>
+        <v>1.2</v>
       </c>
       <c r="C45" t="n">
-        <v>4.790585041046143</v>
+        <v>0.6572527595056729</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45388</v>
+        <v>45385</v>
       </c>
       <c r="B46" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.922876596450806</v>
+        <v>2.283580136267924</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45389</v>
+        <v>45386</v>
       </c>
       <c r="B47" t="n">
-        <v>2.420400000000003</v>
+        <v>5.6</v>
       </c>
       <c r="C47" t="n">
-        <v>2.931170225143433</v>
+        <v>4.042160856450833</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45390</v>
+        <v>45387</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2008</v>
+        <v>10.91919999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>1.542120933532715</v>
+        <v>5.935162013519681</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45391</v>
+        <v>45388</v>
       </c>
       <c r="B49" t="n">
-        <v>1.898000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="C49" t="n">
-        <v>1.219331979751587</v>
+        <v>2.033349030325672</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45392</v>
+        <v>45389</v>
       </c>
       <c r="B50" t="n">
-        <v>8.699999999999999</v>
+        <v>2.420400000000003</v>
       </c>
       <c r="C50" t="n">
-        <v>1.669564366340637</v>
+        <v>3.566255001374885</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45393</v>
+        <v>45390</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7</v>
+        <v>0.2008</v>
       </c>
       <c r="C51" t="n">
-        <v>2.968981742858887</v>
+        <v>0.4184058485904023</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45394</v>
+        <v>45391</v>
       </c>
       <c r="B52" t="n">
-        <v>39</v>
+        <v>1.898000000000002</v>
       </c>
       <c r="C52" t="n">
-        <v>16.42856979370117</v>
+        <v>0.9176174486598112</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45395</v>
+        <v>45392</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>3.300418853759766</v>
+        <v>3.600793550334446</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45396</v>
+        <v>45393</v>
       </c>
       <c r="B54" t="n">
-        <v>2.357000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="C54" t="n">
-        <v>1.052599191665649</v>
+        <v>0.6936740091189124</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45397</v>
+        <v>45394</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C55" t="n">
-        <v>2.09494423866272</v>
+        <v>25.45092048306055</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45398</v>
+        <v>45395</v>
       </c>
       <c r="B56" t="n">
-        <v>2.695000000000002</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1.239429235458374</v>
+        <v>1.446688643723609</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45399</v>
+        <v>45396</v>
       </c>
       <c r="B57" t="n">
-        <v>8.909000000000002</v>
+        <v>2.357000000000002</v>
       </c>
       <c r="C57" t="n">
-        <v>5.477688789367676</v>
+        <v>3.155633474967271</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45400</v>
+        <v>45397</v>
       </c>
       <c r="B58" t="n">
-        <v>27.2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>8.860452651977539</v>
+        <v>0.7270041415238014</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45401</v>
+        <v>45398</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>2.695000000000002</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.8694979978536634</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45402</v>
+        <v>45399</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9968000000000005</v>
+        <v>8.909000000000002</v>
       </c>
       <c r="C60" t="n">
-        <v>1.359771609306335</v>
+        <v>4.859472962882008</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45403</v>
+        <v>45400</v>
       </c>
       <c r="B61" t="n">
-        <v>1.358000000000001</v>
+        <v>27.2</v>
       </c>
       <c r="C61" t="n">
-        <v>3.475691795349121</v>
+        <v>6.013373404905764</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5019839406013489</v>
+        <v>0.8291740532662087</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45405</v>
+        <v>45402</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>0.9968000000000005</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3680514991283417</v>
+        <v>3.142624379987219</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45406</v>
+        <v>45403</v>
       </c>
       <c r="B64" t="n">
-        <v>4.856399999999991</v>
+        <v>1.358000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>1.278825044631958</v>
+        <v>0.9961856420598273</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45407</v>
+        <v>45404</v>
       </c>
       <c r="B65" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>10.13721942901611</v>
+        <v>0.2343810285317287</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45408</v>
+        <v>45405</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1.936937928199768</v>
+        <v>0.4625200003611582</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45409</v>
+        <v>45406</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>4.856399999999991</v>
       </c>
       <c r="C67" t="n">
-        <v>1.403177380561829</v>
+        <v>1.620800732343401</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45410</v>
+        <v>45407</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>3.402700424194336</v>
+        <v>8.74947426562133</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="B69" t="n">
-        <v>2.414200000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C69" t="n">
-        <v>0.975854754447937</v>
+        <v>1.143298414894214</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45412</v>
+        <v>45409</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1.083986401557922</v>
+        <v>1.715726223530489</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45413</v>
+        <v>45410</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7099999999999986</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5918062925338745</v>
+        <v>1.124407459361635</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45414</v>
+        <v>45411</v>
       </c>
       <c r="B72" t="n">
-        <v>3.5744</v>
+        <v>2.414200000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>1.603408813476562</v>
+        <v>0.4802975398246653</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45415</v>
+        <v>45412</v>
       </c>
       <c r="B73" t="n">
-        <v>1.3502</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.760222852230072</v>
+        <v>0.2107473856147688</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45416</v>
+        <v>45413</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.7099999999999985</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2741110920906067</v>
+        <v>0.642123723163266</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45417</v>
+        <v>45414</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>3.5744</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1.183550647463945</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1792000000000001</v>
+        <v>1.3502</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7437118887901306</v>
+        <v>0.8521766325631768</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45419</v>
+        <v>45416</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6275790333747864</v>
+        <v>0.4217379523848849</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45420</v>
+        <v>45417</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03199999999999999</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>0.4793086797575151</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45421</v>
+        <v>45418</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7907999999999989</v>
+        <v>0.1792000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4570625722408295</v>
+        <v>0.02537208242429147</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45422</v>
+        <v>45419</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1442000000000001</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3934707939624786</v>
+        <v>0.05668033687584275</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45423</v>
+        <v>45420</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8599999999999992</v>
+        <v>0.03199999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5340956449508667</v>
+        <v>0.05175552817075819</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45424</v>
+        <v>45421</v>
       </c>
       <c r="B82" t="n">
-        <v>1.612999999999999</v>
+        <v>0.7907999999999988</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4786097407341003</v>
+        <v>0.2662161294027066</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45425</v>
+        <v>45422</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>0.1442000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5880371928215027</v>
+        <v>0.1239084922384352</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45426</v>
+        <v>45423</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>0.8599999999999993</v>
       </c>
       <c r="C84" t="n">
-        <v>2.435210704803467</v>
+        <v>0.3253710968393279</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45427</v>
+        <v>45424</v>
       </c>
       <c r="B85" t="n">
-        <v>28.5</v>
+        <v>1.612999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>2.347511053085327</v>
+        <v>0.3109254400521005</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45428</v>
+        <v>45425</v>
       </c>
       <c r="B86" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.608172595500946</v>
+        <v>0.2916934189224574</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45429</v>
+        <v>45426</v>
       </c>
       <c r="B87" t="n">
-        <v>1.184199999999999</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1.320840954780579</v>
+        <v>0.7572467454348973</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45430</v>
+        <v>45427</v>
       </c>
       <c r="B88" t="n">
-        <v>1.3106</v>
+        <v>28.5</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3837063312530518</v>
+        <v>5.048387032451814</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45431</v>
+        <v>45428</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5383999999999998</v>
+        <v>2.19</v>
       </c>
       <c r="C89" t="n">
-        <v>0.630756139755249</v>
+        <v>2.082281381922831</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45432</v>
+        <v>45429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.07239999999999995</v>
+        <v>1.184199999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7677808403968811</v>
+        <v>3.051807040128437</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45433</v>
+        <v>45430</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1.3106</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.8997307124424334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45434</v>
+        <v>45431</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.5383999999999998</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8176094889640808</v>
+        <v>0.2356739443691588</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45435</v>
+        <v>45432</v>
       </c>
       <c r="B93" t="n">
-        <v>1.0882</v>
+        <v>0.07239999999999995</v>
       </c>
       <c r="C93" t="n">
-        <v>1.40161120891571</v>
+        <v>0.3276098826254624</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45436</v>
+        <v>45433</v>
       </c>
       <c r="B94" t="n">
-        <v>11.27319999999998</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>3.825153112411499</v>
+        <v>0.1388807180667412</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45437</v>
+        <v>45434</v>
       </c>
       <c r="B95" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>3.634321212768555</v>
+        <v>0.09196713150741566</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45438</v>
+        <v>45435</v>
       </c>
       <c r="B96" t="n">
-        <v>2.1</v>
+        <v>1.0882</v>
       </c>
       <c r="C96" t="n">
-        <v>3.358298540115356</v>
+        <v>0.5843130488819438</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45439</v>
+        <v>45436</v>
       </c>
       <c r="B97" t="n">
-        <v>5.031000000000001</v>
+        <v>11.27319999999998</v>
       </c>
       <c r="C97" t="n">
-        <v>1.279655814170837</v>
+        <v>4.809467430680956</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45440</v>
+        <v>45437</v>
       </c>
       <c r="B98" t="n">
-        <v>1.053999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4636215269565582</v>
+        <v>2.422138221765584</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45441</v>
+        <v>45438</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="C99" t="n">
-        <v>1.395920157432556</v>
+        <v>3.689647045405515</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45442</v>
+        <v>45439</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>5.031000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>1.172271966934204</v>
+        <v>1.163350672002168</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45443</v>
+        <v>45440</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2232</v>
+        <v>1.053999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>1.478447318077087</v>
+        <v>0.2103140334744414</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45444</v>
+        <v>45441</v>
       </c>
       <c r="B102" t="n">
-        <v>1.674200000000001</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>2.68007230758667</v>
+        <v>0.6758026208703172</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45445</v>
+        <v>45442</v>
       </c>
       <c r="B103" t="n">
-        <v>10.18079999999998</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>4.224135875701904</v>
+        <v>0.2770271369623827</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45446</v>
+        <v>45443</v>
       </c>
       <c r="B104" t="n">
-        <v>1.5</v>
+        <v>0.2232</v>
       </c>
       <c r="C104" t="n">
-        <v>4.622549533843994</v>
+        <v>0.1985836487149498</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45447</v>
+        <v>45444</v>
       </c>
       <c r="B105" t="n">
-        <v>1.596400000000001</v>
+        <v>1.674200000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>3.46565580368042</v>
+        <v>0.9110221038442685</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45448</v>
+        <v>45445</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1066</v>
+        <v>10.18079999999998</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4979876577854156</v>
+        <v>5.24699016213326</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45449</v>
+        <v>45446</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1414</v>
+        <v>1.5</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8991250991821289</v>
+        <v>1.709855307192767</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45450</v>
+        <v>45447</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6435999999999999</v>
+        <v>1.596400000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>2.0606071961488</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45451</v>
+        <v>45448</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5381999999999992</v>
+        <v>0.1066</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5122417807579041</v>
+        <v>0.1672280617020442</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45452</v>
+        <v>45449</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>0.1414</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4891982674598694</v>
+        <v>0.3319968391760686</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45453</v>
+        <v>45450</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.6435999999999998</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7807581424713135</v>
+        <v>0.0958606096241008</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45454</v>
+        <v>45451</v>
       </c>
       <c r="B112" t="n">
-        <v>5.196000000000002</v>
+        <v>0.5381999999999992</v>
       </c>
       <c r="C112" t="n">
-        <v>2.077728271484375</v>
+        <v>0.2743697265333752</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45455</v>
+        <v>45452</v>
       </c>
       <c r="B113" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>4.798027038574219</v>
+        <v>0.2177787644710463</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45456</v>
+        <v>45453</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>3.159977197647095</v>
+        <v>0.3446270411906698</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45457</v>
+        <v>45454</v>
       </c>
       <c r="B115" t="n">
-        <v>5.380999999999999</v>
+        <v>5.196000000000002</v>
       </c>
       <c r="C115" t="n">
-        <v>2.942520141601562</v>
+        <v>2.05372014160446</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45458</v>
+        <v>45455</v>
       </c>
       <c r="B116" t="n">
-        <v>5.127000000000002</v>
+        <v>12.9</v>
       </c>
       <c r="C116" t="n">
-        <v>2.814826011657715</v>
+        <v>7.453148839006899</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45459</v>
+        <v>45456</v>
       </c>
       <c r="B117" t="n">
-        <v>65.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>12.74654483795166</v>
+        <v>1.915444891360396</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45460</v>
+        <v>45457</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>5.380999999999998</v>
       </c>
       <c r="C118" t="n">
-        <v>2.97807765007019</v>
+        <v>3.297352611946641</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45461</v>
+        <v>45458</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>5.127000000000002</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9751242995262146</v>
+        <v>2.042408965368204</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45462</v>
+        <v>45459</v>
       </c>
       <c r="B120" t="n">
-        <v>2.395600000000005</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>2.027044296264648</v>
+        <v>40.66589733570515</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="B121" t="n">
-        <v>1.668</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1.639618873596191</v>
+        <v>2.103732354788192</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45464</v>
+        <v>45461</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2048</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1.019699215888977</v>
+        <v>1.244199638190111</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45465</v>
+        <v>45462</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>2.395600000000005</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>0.9299635946347303</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45466</v>
+        <v>45463</v>
       </c>
       <c r="B124" t="n">
-        <v>2.615800000000005</v>
+        <v>1.668</v>
       </c>
       <c r="C124" t="n">
-        <v>2.177279710769653</v>
+        <v>0.8542818811927466</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45467</v>
+        <v>45464</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3514</v>
+        <v>0.2048</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5829712748527527</v>
+        <v>0.7025959676516351</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45468</v>
+        <v>45465</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1.408185243606567</v>
+        <v>0.3359767216534603</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45469</v>
+        <v>45466</v>
       </c>
       <c r="B127" t="n">
-        <v>24</v>
+        <v>2.615800000000005</v>
       </c>
       <c r="C127" t="n">
-        <v>6.808752536773682</v>
+        <v>1.722293634672665</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45470</v>
+        <v>45467</v>
       </c>
       <c r="B128" t="n">
-        <v>4.645199999999999</v>
+        <v>0.3514</v>
       </c>
       <c r="C128" t="n">
-        <v>2.422791242599487</v>
+        <v>0.3277734400680309</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45471</v>
+        <v>45468</v>
       </c>
       <c r="B129" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>0.7901398296418463</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45472</v>
+        <v>45469</v>
       </c>
       <c r="B130" t="n">
-        <v>9.608399999999973</v>
+        <v>24</v>
       </c>
       <c r="C130" t="n">
-        <v>4.370014190673828</v>
+        <v>22.14558657132844</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45473</v>
+        <v>45470</v>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>4.645199999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>5.392292499542236</v>
+        <v>1.833729621554565</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45474</v>
+        <v>45471</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6424000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="C132" t="n">
-        <v>2.52264666557312</v>
+        <v>1.149501247360364</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45475</v>
+        <v>45472</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6</v>
+        <v>9.608399999999973</v>
       </c>
       <c r="C133" t="n">
-        <v>10.68382930755615</v>
+        <v>9.85219512606268</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45476</v>
+        <v>45473</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>2.641331672668457</v>
+        <v>2.61043949103659</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45477</v>
+        <v>45474</v>
       </c>
       <c r="B135" t="n">
-        <v>2.5</v>
+        <v>0.6424000000000003</v>
       </c>
       <c r="C135" t="n">
-        <v>9.452611923217773</v>
+        <v>2.514129120130964</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45478</v>
+        <v>45475</v>
       </c>
       <c r="B136" t="n">
-        <v>14.5</v>
+        <v>0.6</v>
       </c>
       <c r="C136" t="n">
-        <v>13.42952346801758</v>
+        <v>2.502796784877015</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45479</v>
+        <v>45476</v>
       </c>
       <c r="B137" t="n">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>12.81728935241699</v>
+        <v>0.3632696987266563</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45480</v>
+        <v>45477</v>
       </c>
       <c r="B138" t="n">
-        <v>49.3</v>
+        <v>2.5</v>
       </c>
       <c r="C138" t="n">
-        <v>17.51969528198242</v>
+        <v>2.690850402194903</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45481</v>
+        <v>45478</v>
       </c>
       <c r="B139" t="n">
-        <v>3.752999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="C139" t="n">
-        <v>1.341906070709229</v>
+        <v>11.28008531164706</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45482</v>
+        <v>45479</v>
       </c>
       <c r="B140" t="n">
-        <v>54</v>
+        <v>15.3</v>
       </c>
       <c r="C140" t="n">
-        <v>13.1820240020752</v>
+        <v>8.528875526695233</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45483</v>
+        <v>45480</v>
       </c>
       <c r="B141" t="n">
-        <v>1.6</v>
+        <v>49.3</v>
       </c>
       <c r="C141" t="n">
-        <v>7.152412414550781</v>
+        <v>32.47235016886366</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45484</v>
+        <v>45481</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>3.752999999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>1.063920021057129</v>
+        <v>0.8343383124379684</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45485</v>
+        <v>45482</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7529034018516541</v>
+        <v>24.25916217473617</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45486</v>
+        <v>45483</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C144" t="n">
-        <v>3.920279502868652</v>
+        <v>5.146368424195721</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45487</v>
+        <v>45484</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1.377760887145996</v>
+        <v>1.923603520827742</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45488</v>
+        <v>45485</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>2.054774522781372</v>
+        <v>0.6069873291067932</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45489</v>
+        <v>45486</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>4.808361053466797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45490</v>
+        <v>45487</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>2.231130838394165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45491</v>
+        <v>45488</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45492</v>
+        <v>45489</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -2095,40 +2095,40 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45493</v>
+        <v>45490</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1.089080452919006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45494</v>
+        <v>45491</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1878634244203568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45495</v>
+        <v>45492</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>2.075658559799194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45496</v>
+        <v>45493</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45497</v>
+        <v>45494</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -2150,18 +2150,18 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45498</v>
+        <v>45495</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1.108736991882324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45499</v>
+        <v>45496</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45500</v>
+        <v>45497</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45501</v>
+        <v>45498</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45502</v>
+        <v>45499</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45503</v>
+        <v>45500</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45504</v>
+        <v>45501</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45505</v>
+        <v>45502</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -2238,29 +2238,29 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45506</v>
+        <v>45503</v>
       </c>
       <c r="B164" t="n">
-        <v>2.324199999999997</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1.928167700767517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45507</v>
+        <v>45504</v>
       </c>
       <c r="B165" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>5.13846492767334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45508</v>
+        <v>45505</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -2271,73 +2271,73 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45509</v>
+        <v>45506</v>
       </c>
       <c r="B167" t="n">
-        <v>5</v>
+        <v>2.324199999999996</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1.58554267688252</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45510</v>
+        <v>45507</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>0.8353993163959567</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45511</v>
+        <v>45508</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6055192351341248</v>
+        <v>0.2184058825148193</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45512</v>
+        <v>45509</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1.757070067400078</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45513</v>
+        <v>45510</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>0.3584605954923598</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45514</v>
+        <v>45511</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.5953738689422607</v>
+        <v>2.523795818286679</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45515</v>
+        <v>45512</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45516</v>
+        <v>45513</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -2359,18 +2359,18 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45517</v>
+        <v>45514</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.8932467103004456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45518</v>
+        <v>45515</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45519</v>
+        <v>45516</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45520</v>
+        <v>45517</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45521</v>
+        <v>45518</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45522</v>
+        <v>45519</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45523</v>
+        <v>45520</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45524</v>
+        <v>45521</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45525</v>
+        <v>45522</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -2458,18 +2458,18 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45526</v>
+        <v>45523</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1.315371990203857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45527</v>
+        <v>45524</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45528</v>
+        <v>45525</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45529</v>
+        <v>45526</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45530</v>
+        <v>45527</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45531</v>
+        <v>45528</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45532</v>
+        <v>45529</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45533</v>
+        <v>45530</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45534</v>
+        <v>45531</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45535</v>
+        <v>45532</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45536</v>
+        <v>45533</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45537</v>
+        <v>45534</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45538</v>
+        <v>45535</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45539</v>
+        <v>45536</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45540</v>
+        <v>45537</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45541</v>
+        <v>45538</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45542</v>
+        <v>45539</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45543</v>
+        <v>45540</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45544</v>
+        <v>45541</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -2667,29 +2667,29 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45545</v>
+        <v>45542</v>
       </c>
       <c r="B203" t="n">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>5.832530498504639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45546</v>
+        <v>45543</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0.8463793992996216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45547</v>
+        <v>45544</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -2700,73 +2700,73 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45548</v>
+        <v>45545</v>
       </c>
       <c r="B206" t="n">
-        <v>48.7</v>
+        <v>22.4</v>
       </c>
       <c r="C206" t="n">
-        <v>13.31125354766846</v>
+        <v>22.97066523854319</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45549</v>
+        <v>45546</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1.224460124969482</v>
+        <v>2.011548882363381</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45550</v>
+        <v>45547</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.9598519802093506</v>
+        <v>0.5378900845841563</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45551</v>
+        <v>45548</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>24.88444797586554</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45552</v>
+        <v>45549</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>2.163581160890435</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45553</v>
+        <v>45550</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.5682151317596436</v>
+        <v>10.11949641956977</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45554</v>
+        <v>45551</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45555</v>
+        <v>45552</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45556</v>
+        <v>45553</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45557</v>
+        <v>45554</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -2821,109 +2821,109 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45559</v>
+        <v>45556</v>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>3.372613191604614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45560</v>
+        <v>45557</v>
       </c>
       <c r="B218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>4.482669830322266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45561</v>
+        <v>45558</v>
       </c>
       <c r="B219" t="n">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>17.5910530090332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45562</v>
+        <v>45559</v>
       </c>
       <c r="B220" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>9.919143676757812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45563</v>
+        <v>45560</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1.113076943546414</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45564</v>
+        <v>45561</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>41.45762372048979</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45565</v>
+        <v>45562</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>7.167702270138951</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45566</v>
+        <v>45563</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>3.925880599375077</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45567</v>
+        <v>45564</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>0.4398099943111549</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45568</v>
+        <v>45565</v>
       </c>
       <c r="B226" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45569</v>
+        <v>45566</v>
       </c>
       <c r="B227" t="n">
         <v>0</v>
@@ -2942,21 +2942,21 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45570</v>
+        <v>45567</v>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>0.3454338312149048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45571</v>
+        <v>45568</v>
       </c>
       <c r="B229" t="n">
-        <v>0.05840000000000001</v>
+        <v>0.0032</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45572</v>
+        <v>45569</v>
       </c>
       <c r="B230" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45573</v>
+        <v>45570</v>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -2986,29 +2986,29 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45574</v>
+        <v>45571</v>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>0.05840000000000001</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>0.02220816800792577</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45575</v>
+        <v>45572</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>0.03831905940134667</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45576</v>
+        <v>45573</v>
       </c>
       <c r="B234" t="n">
         <v>0</v>
@@ -3019,43 +3019,43 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45577</v>
+        <v>45574</v>
       </c>
       <c r="B235" t="n">
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0.2514275312423706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45578</v>
+        <v>45575</v>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>2.744504928588867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45579</v>
+        <v>45576</v>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0.8335502147674561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45580</v>
+        <v>45577</v>
       </c>
       <c r="B238" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45581</v>
+        <v>45578</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -3074,62 +3074,62 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45582</v>
+        <v>45579</v>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1.323833703994751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>0.5986398304204746</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45584</v>
+        <v>45581</v>
       </c>
       <c r="B242" t="n">
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>0.1680903525568975</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45585</v>
+        <v>45582</v>
       </c>
       <c r="B243" t="n">
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0.25251704454422</v>
+        <v>1.047090631969563</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45586</v>
+        <v>45583</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>2.77532434463501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45587</v>
+        <v>45584</v>
       </c>
       <c r="B245" t="n">
         <v>0</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45588</v>
+        <v>45585</v>
       </c>
       <c r="B246" t="n">
         <v>0</v>
@@ -3151,406 +3151,406 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45589</v>
+        <v>45586</v>
       </c>
       <c r="B247" t="n">
-        <v>46.6</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0.6016232967376709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45590</v>
+        <v>45587</v>
       </c>
       <c r="B248" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>14.69930267333984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45591</v>
+        <v>45588</v>
       </c>
       <c r="B249" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1.433488726615906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45592</v>
+        <v>45589</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>11.78401251992964</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45593</v>
+        <v>45590</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>7.758010166339344</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45594</v>
+        <v>45591</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="C252" t="n">
-        <v>1.005319118499756</v>
+        <v>10.14343872043569</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45595</v>
+        <v>45592</v>
       </c>
       <c r="B253" t="n">
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>0.3587814999368072</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45596</v>
+        <v>45593</v>
       </c>
       <c r="B254" t="n">
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>0.4419483566762901</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45597</v>
+        <v>45594</v>
       </c>
       <c r="B255" t="n">
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>0.8579005599021912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45598</v>
+        <v>45595</v>
       </c>
       <c r="B256" t="n">
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>3.623118877410889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45599</v>
+        <v>45596</v>
       </c>
       <c r="B257" t="n">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>18.17780876159668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45600</v>
+        <v>45597</v>
       </c>
       <c r="B258" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>11.63571929931641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45601</v>
+        <v>45598</v>
       </c>
       <c r="B259" t="n">
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>11.0874490737915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45602</v>
+        <v>45599</v>
       </c>
       <c r="B260" t="n">
-        <v>14.5</v>
+        <v>24.5</v>
       </c>
       <c r="C260" t="n">
-        <v>3.689991235733032</v>
+        <v>15.8688679623584</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45603</v>
+        <v>45600</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>7.209233119016365</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45604</v>
+        <v>45601</v>
       </c>
       <c r="B262" t="n">
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>0.2003889530897141</v>
+        <v>6.442807638218063</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45605</v>
+        <v>45602</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>3.919901781702348</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="B264" t="n">
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>7.99163818359375</v>
+        <v>0.04088062913249524</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45607</v>
+        <v>45604</v>
       </c>
       <c r="B265" t="n">
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9625774025917053</v>
+        <v>0.8508630644414179</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45608</v>
+        <v>45605</v>
       </c>
       <c r="B266" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>10.7391939163208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45609</v>
+        <v>45606</v>
       </c>
       <c r="B267" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1.057787656784058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45610</v>
+        <v>45607</v>
       </c>
       <c r="B268" t="n">
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1.565986156463623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45611</v>
+        <v>45608</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>4.454947030492884</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45612</v>
+        <v>45609</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C270" t="n">
-        <v>0.7618556618690491</v>
+        <v>0.5597131597032537</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45613</v>
+        <v>45610</v>
       </c>
       <c r="B271" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>4.546552181243896</v>
+        <v>1.417489491292026</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45614</v>
+        <v>45611</v>
       </c>
       <c r="B272" t="n">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>3.990309953689575</v>
+        <v>0.08112640258979059</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>2.222748994827271</v>
+        <v>0.3797074379308051</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45616</v>
+        <v>45613</v>
       </c>
       <c r="B274" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="C274" t="n">
-        <v>1.455328822135925</v>
+        <v>4.127432926386441</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45617</v>
+        <v>45614</v>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="C275" t="n">
-        <v>0.3663108646869659</v>
+        <v>8.869842068347392</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45618</v>
+        <v>45615</v>
       </c>
       <c r="B276" t="n">
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>4.143653869628906</v>
+        <v>1.110774922170269</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45619</v>
+        <v>45616</v>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9093809127807617</v>
+        <v>5.63910700177123</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45620</v>
+        <v>45617</v>
       </c>
       <c r="B278" t="n">
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>1.193218588829041</v>
+        <v>0.2242902962752099</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45621</v>
+        <v>45618</v>
       </c>
       <c r="B279" t="n">
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>5.242726187545312</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45622</v>
+        <v>45619</v>
       </c>
       <c r="B280" t="n">
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1.205737471580505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45623</v>
+        <v>45620</v>
       </c>
       <c r="B281" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>0.835764467716217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45624</v>
+        <v>45621</v>
       </c>
       <c r="B282" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>3.210204601287842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45625</v>
+        <v>45622</v>
       </c>
       <c r="B283" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -3558,425 +3558,425 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45626</v>
+        <v>45623</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C284" t="n">
-        <v>1.022285223007202</v>
+        <v>0.6852157004078012</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45627</v>
+        <v>45624</v>
       </c>
       <c r="B285" t="n">
-        <v>0.6</v>
+        <v>50</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>21.03126095326689</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45628</v>
+        <v>45625</v>
       </c>
       <c r="B286" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="C286" t="n">
-        <v>0.254838228225708</v>
+        <v>0.9316965829230044</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45629</v>
+        <v>45626</v>
       </c>
       <c r="B287" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>3.290389537811279</v>
+        <v>9.398917448759878</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="B288" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="C288" t="n">
-        <v>7.437695026397705</v>
+        <v>0.524050040493888</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="B289" t="n">
-        <v>10.4</v>
+        <v>5</v>
       </c>
       <c r="C289" t="n">
-        <v>8.403402328491211</v>
+        <v>0.8877044381782697</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="B290" t="n">
-        <v>48.2</v>
+        <v>26</v>
       </c>
       <c r="C290" t="n">
-        <v>10.50718307495117</v>
+        <v>11.34207733082885</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45633</v>
+        <v>45630</v>
       </c>
       <c r="B291" t="n">
-        <v>22.86099999999998</v>
+        <v>4</v>
       </c>
       <c r="C291" t="n">
-        <v>9.801267623901367</v>
+        <v>10.15602758427233</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45634</v>
+        <v>45631</v>
       </c>
       <c r="B292" t="n">
-        <v>30.4</v>
+        <v>10.4</v>
       </c>
       <c r="C292" t="n">
-        <v>13.41412830352783</v>
+        <v>18.27678356031254</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45635</v>
+        <v>45632</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="C293" t="n">
-        <v>4.416600704193115</v>
+        <v>20.15715084803223</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45636</v>
+        <v>45633</v>
       </c>
       <c r="B294" t="n">
-        <v>26</v>
+        <v>22.86099999999998</v>
       </c>
       <c r="C294" t="n">
-        <v>9.205020904541016</v>
+        <v>15.92227780536076</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45637</v>
+        <v>45634</v>
       </c>
       <c r="B295" t="n">
-        <v>0.7</v>
+        <v>30.4</v>
       </c>
       <c r="C295" t="n">
-        <v>1.472411632537842</v>
+        <v>24.14227854760929</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>2.141515254974365</v>
+        <v>3.410448401396694</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45639</v>
+        <v>45636</v>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>19.03334673710103</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45640</v>
+        <v>45637</v>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C298" t="n">
-        <v>0.5382964611053467</v>
+        <v>1.013777024937841</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45641</v>
+        <v>45638</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>1.185977458953857</v>
+        <v>4.481988004099417</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45642</v>
+        <v>45639</v>
       </c>
       <c r="B300" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>6.097717761993408</v>
+        <v>0.06791674287158372</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45643</v>
+        <v>45640</v>
       </c>
       <c r="B301" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>8.818435668945312</v>
+        <v>0.4653873064862454</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45644</v>
+        <v>45641</v>
       </c>
       <c r="B302" t="n">
-        <v>10.02500000000002</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>3.063438653945923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45645</v>
+        <v>45642</v>
       </c>
       <c r="B303" t="n">
-        <v>1.2</v>
+        <v>18.5</v>
       </c>
       <c r="C303" t="n">
-        <v>2.56757640838623</v>
+        <v>14.94236651461536</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="B304" t="n">
-        <v>56</v>
+        <v>6.5</v>
       </c>
       <c r="C304" t="n">
-        <v>10.37292766571045</v>
+        <v>4.057458187364852</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45647</v>
+        <v>45644</v>
       </c>
       <c r="B305" t="n">
-        <v>10.2</v>
+        <v>10.02500000000002</v>
       </c>
       <c r="C305" t="n">
-        <v>9.637843132019043</v>
+        <v>6.360988741517287</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45648</v>
+        <v>45645</v>
       </c>
       <c r="B306" t="n">
-        <v>19</v>
+        <v>1.2</v>
       </c>
       <c r="C306" t="n">
-        <v>12.08797931671143</v>
+        <v>2.91046024874109</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45649</v>
+        <v>45646</v>
       </c>
       <c r="B307" t="n">
-        <v>43.8</v>
+        <v>56</v>
       </c>
       <c r="C307" t="n">
-        <v>8.021642684936523</v>
+        <v>31.4447739271141</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45650</v>
+        <v>45647</v>
       </c>
       <c r="B308" t="n">
-        <v>17</v>
+        <v>10.2</v>
       </c>
       <c r="C308" t="n">
-        <v>16.67992973327637</v>
+        <v>5.778889933375178</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45651</v>
+        <v>45648</v>
       </c>
       <c r="B309" t="n">
-        <v>3.4</v>
+        <v>19</v>
       </c>
       <c r="C309" t="n">
-        <v>5.05748176574707</v>
+        <v>27.43139571511345</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45652</v>
+        <v>45649</v>
       </c>
       <c r="B310" t="n">
-        <v>8.199999999999999</v>
+        <v>43.8</v>
       </c>
       <c r="C310" t="n">
-        <v>5.145798206329346</v>
+        <v>11.97952319188435</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45653</v>
+        <v>45650</v>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C311" t="n">
-        <v>8.111531257629395</v>
+        <v>12.11020938015925</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45654</v>
+        <v>45651</v>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="C312" t="n">
-        <v>0.3307705223560333</v>
+        <v>10.78731771261802</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45655</v>
+        <v>45652</v>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C313" t="n">
-        <v>0.3944230675697327</v>
+        <v>2.344927157188761</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45656</v>
+        <v>45653</v>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>4.457632064819336</v>
+        <v>0.8234156736365442</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45657</v>
+        <v>45654</v>
       </c>
       <c r="B315" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>3.565539121627808</v>
+        <v>0.3511211922597572</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45658</v>
+        <v>45655</v>
       </c>
       <c r="B316" t="n">
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>0.8834649920463562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45659</v>
+        <v>45656</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>0.8014498477034668</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45660</v>
+        <v>45657</v>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C318" t="n">
-        <v>4.058611392974854</v>
+        <v>0.7570141349059963</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45661</v>
+        <v>45658</v>
       </c>
       <c r="B319" t="n">
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>0.450049102306366</v>
+        <v>0.3205951638875386</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45662</v>
+        <v>45659</v>
       </c>
       <c r="B320" t="n">
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>2.330167770385742</v>
+        <v>0.5311106456483553</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45663</v>
+        <v>45660</v>
       </c>
       <c r="B321" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>7.415188789367676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45664</v>
+        <v>45661</v>
       </c>
       <c r="B322" t="n">
         <v>0</v>
@@ -3987,755 +3987,755 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45665</v>
+        <v>45662</v>
       </c>
       <c r="B323" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>9.922760963439941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45666</v>
+        <v>45663</v>
       </c>
       <c r="B324" t="n">
-        <v>71</v>
+        <v>18.4</v>
       </c>
       <c r="C324" t="n">
-        <v>29.45095252990723</v>
+        <v>9.254528869081108</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45667</v>
+        <v>45664</v>
       </c>
       <c r="B325" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>7.240941047668457</v>
+        <v>0.8328460174736591</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45668</v>
+        <v>45665</v>
       </c>
       <c r="B326" t="n">
-        <v>23.2</v>
+        <v>9</v>
       </c>
       <c r="C326" t="n">
-        <v>11.89160060882568</v>
+        <v>17.96083573690013</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45669</v>
+        <v>45666</v>
       </c>
       <c r="B327" t="n">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C327" t="n">
-        <v>4.021730899810791</v>
+        <v>66.92887172402273</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45670</v>
+        <v>45667</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C328" t="n">
-        <v>0.4158820807933807</v>
+        <v>7.780575630675219</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45671</v>
+        <v>45668</v>
       </c>
       <c r="B329" t="n">
-        <v>29.2</v>
+        <v>23.2</v>
       </c>
       <c r="C329" t="n">
-        <v>5.922557830810547</v>
+        <v>30.0919369392696</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45672</v>
+        <v>45669</v>
       </c>
       <c r="B330" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C330" t="n">
-        <v>13.16763877868652</v>
+        <v>2.118319403717637</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45673</v>
+        <v>45670</v>
       </c>
       <c r="B331" t="n">
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>6.561648845672607</v>
+        <v>1.6593202321689</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45674</v>
+        <v>45671</v>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>8.40368540532933</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45675</v>
+        <v>45672</v>
       </c>
       <c r="B333" t="n">
-        <v>38.5</v>
+        <v>18</v>
       </c>
       <c r="C333" t="n">
-        <v>17.77790832519531</v>
+        <v>10.45878065735219</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45676</v>
+        <v>45673</v>
       </c>
       <c r="B334" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>5.110857963562012</v>
+        <v>7.491940531674524</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45677</v>
+        <v>45674</v>
       </c>
       <c r="B335" t="n">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>17.66854286193848</v>
+        <v>0.9877319178080354</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45678</v>
+        <v>45675</v>
       </c>
       <c r="B336" t="n">
-        <v>60</v>
+        <v>38.5</v>
       </c>
       <c r="C336" t="n">
-        <v>32.8211555480957</v>
+        <v>31.84152807266544</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45679</v>
+        <v>45676</v>
       </c>
       <c r="B337" t="n">
-        <v>22.1</v>
+        <v>6.4</v>
       </c>
       <c r="C337" t="n">
-        <v>11.47405242919922</v>
+        <v>3.851970295099828</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45680</v>
+        <v>45677</v>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="C338" t="n">
-        <v>5.151791095733643</v>
+        <v>37.08051916528963</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45681</v>
+        <v>45678</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C339" t="n">
-        <v>5.9259934425354</v>
+        <v>37.28376370622225</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45682</v>
+        <v>45679</v>
       </c>
       <c r="B340" t="n">
-        <v>2</v>
+        <v>22.1</v>
       </c>
       <c r="C340" t="n">
-        <v>9.396413803100586</v>
+        <v>15.23153380877192</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45683</v>
+        <v>45680</v>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>6.78180980682373</v>
+        <v>8.352342147768413</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45684</v>
+        <v>45681</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>7.294754505157471</v>
+        <v>7.33829758108885</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45685</v>
+        <v>45682</v>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C343" t="n">
-        <v>2.672876119613647</v>
+        <v>1.596192632711392</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45686</v>
+        <v>45683</v>
       </c>
       <c r="B344" t="n">
-        <v>184.8</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>13.2531099319458</v>
+        <v>0.3598516839779606</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45687</v>
+        <v>45684</v>
       </c>
       <c r="B345" t="n">
-        <v>8.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C345" t="n">
-        <v>13.98509883880615</v>
+        <v>1.494257169891761</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45688</v>
+        <v>45685</v>
       </c>
       <c r="B346" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>8.78367805480957</v>
+        <v>0.5707796212649858</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45689</v>
+        <v>45686</v>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>184.8</v>
       </c>
       <c r="C347" t="n">
-        <v>5.903638362884521</v>
+        <v>76.59098263376993</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45690</v>
+        <v>45687</v>
       </c>
       <c r="B348" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C348" t="n">
-        <v>5.144150733947754</v>
+        <v>30.3638388837153</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45691</v>
+        <v>45688</v>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="C349" t="n">
-        <v>1.299914598464966</v>
+        <v>32.65978596760617</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9254945516586304</v>
+        <v>3.4539441332208</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45693</v>
+        <v>45690</v>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="C351" t="n">
-        <v>7.14342212677002</v>
+        <v>4.413744449883696</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45694</v>
+        <v>45691</v>
       </c>
       <c r="B352" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>0.1850971229153852</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45695</v>
+        <v>45692</v>
       </c>
       <c r="B353" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>9.576885223388672</v>
+        <v>0.4546825434030566</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45696</v>
+        <v>45693</v>
       </c>
       <c r="B354" t="n">
-        <v>75.3</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>17.07622528076172</v>
+        <v>0.8133883542472021</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45697</v>
+        <v>45694</v>
       </c>
       <c r="B355" t="n">
-        <v>0.3</v>
+        <v>13.8</v>
       </c>
       <c r="C355" t="n">
-        <v>4.062343120574951</v>
+        <v>1.772840201785547</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B356" t="n">
-        <v>1.7</v>
+        <v>8.4</v>
       </c>
       <c r="C356" t="n">
-        <v>2.211620569229126</v>
+        <v>3.834379306788433</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45699</v>
+        <v>45696</v>
       </c>
       <c r="B357" t="n">
-        <v>1.1</v>
+        <v>75.3</v>
       </c>
       <c r="C357" t="n">
-        <v>8.370453834533691</v>
+        <v>55.72542417171896</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45700</v>
+        <v>45697</v>
       </c>
       <c r="B358" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C358" t="n">
-        <v>4.631052494049072</v>
+        <v>4.692214019474197</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45701</v>
+        <v>45698</v>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C359" t="n">
-        <v>0.60005784034729</v>
+        <v>6.35998964739829</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45702</v>
+        <v>45699</v>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="C360" t="n">
-        <v>3.545000791549683</v>
+        <v>0.9949188292774063</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45703</v>
+        <v>45700</v>
       </c>
       <c r="B361" t="n">
-        <v>1.216</v>
+        <v>0.8</v>
       </c>
       <c r="C361" t="n">
-        <v>1.110426902770996</v>
+        <v>0.6712044219730169</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45704</v>
+        <v>45701</v>
       </c>
       <c r="B362" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>0.4154530167579651</v>
+        <v>0.39704743340987</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B363" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>12.2273588180542</v>
+        <v>0.4750552800635596</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45706</v>
+        <v>45703</v>
       </c>
       <c r="B364" t="n">
-        <v>27.9</v>
+        <v>1.216</v>
       </c>
       <c r="C364" t="n">
-        <v>19.13694381713867</v>
+        <v>0.2950490273205189</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45707</v>
+        <v>45704</v>
       </c>
       <c r="B365" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="C365" t="n">
-        <v>11.88954925537109</v>
+        <v>0.6031909396742453</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45708</v>
+        <v>45705</v>
       </c>
       <c r="B366" t="n">
-        <v>18.6</v>
+        <v>0.6</v>
       </c>
       <c r="C366" t="n">
-        <v>18.11210250854492</v>
+        <v>0.9877550883011303</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45709</v>
+        <v>45706</v>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="C367" t="n">
-        <v>9.673713684082031</v>
+        <v>15.39430508000572</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45710</v>
+        <v>45707</v>
       </c>
       <c r="B368" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C368" t="n">
-        <v>2.780092239379883</v>
+        <v>4.255156863069486</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45711</v>
+        <v>45708</v>
       </c>
       <c r="B369" t="n">
-        <v>5.5</v>
+        <v>18.6</v>
       </c>
       <c r="C369" t="n">
-        <v>21.37944984436035</v>
+        <v>19.56458048231059</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45712</v>
+        <v>45709</v>
       </c>
       <c r="B370" t="n">
-        <v>87.7</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>37.72520446777344</v>
+        <v>2.499295086229696</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45713</v>
+        <v>45710</v>
       </c>
       <c r="B371" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="C371" t="n">
-        <v>8.671154022216797</v>
+        <v>3.818780184646954</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45714</v>
+        <v>45711</v>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="C372" t="n">
-        <v>9.2447509765625</v>
+        <v>2.672238859059498</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45715</v>
+        <v>45712</v>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>87.7</v>
       </c>
       <c r="C373" t="n">
-        <v>3.831884622573853</v>
+        <v>53.53740316788391</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45716</v>
+        <v>45713</v>
       </c>
       <c r="B374" t="n">
-        <v>8.4</v>
+        <v>0.2</v>
       </c>
       <c r="C374" t="n">
-        <v>8.021371841430664</v>
+        <v>3.397742617303313</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45717</v>
+        <v>45714</v>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>4.482804298400879</v>
+        <v>26.53044234294072</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45718</v>
+        <v>45715</v>
       </c>
       <c r="B376" t="n">
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1.667624592781067</v>
+        <v>0.3110579229589515</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45719</v>
+        <v>45716</v>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="C377" t="n">
-        <v>5.848411560058594</v>
+        <v>4.492546675147548</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45720</v>
+        <v>45717</v>
       </c>
       <c r="B378" t="n">
-        <v>40.5</v>
+        <v>2</v>
       </c>
       <c r="C378" t="n">
-        <v>15.63644790649414</v>
+        <v>1.299894174839303</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45721</v>
+        <v>45718</v>
       </c>
       <c r="B379" t="n">
-        <v>11.31319999999999</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>3.485838890075684</v>
+        <v>1.895079655038848</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45722</v>
+        <v>45719</v>
       </c>
       <c r="B380" t="n">
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1.088278990711988</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45723</v>
+        <v>45720</v>
       </c>
       <c r="B381" t="n">
-        <v>6.252000000000001</v>
+        <v>40.5</v>
       </c>
       <c r="C381" t="n">
-        <v>4.476413726806641</v>
+        <v>22.16323570276826</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45724</v>
+        <v>45721</v>
       </c>
       <c r="B382" t="n">
-        <v>2.266599999999998</v>
+        <v>11.31319999999999</v>
       </c>
       <c r="C382" t="n">
-        <v>1.099593877792358</v>
+        <v>2.989637290012466</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45725</v>
+        <v>45722</v>
       </c>
       <c r="B383" t="n">
-        <v>1.857600000000001</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>3.652894020080566</v>
+        <v>1.624154870274979</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45726</v>
+        <v>45723</v>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>6.252000000000001</v>
       </c>
       <c r="C384" t="n">
-        <v>6.597285270690918</v>
+        <v>5.547331165092488</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45727</v>
+        <v>45724</v>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>2.266599999999998</v>
       </c>
       <c r="C385" t="n">
-        <v>0.8647914528846741</v>
+        <v>0.4525730305927085</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45728</v>
+        <v>45725</v>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1.857600000000001</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>3.509695265388075</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45729</v>
+        <v>45726</v>
       </c>
       <c r="B387" t="n">
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>5.034571647644043</v>
+        <v>1.765906954457265</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45730</v>
+        <v>45727</v>
       </c>
       <c r="B388" t="n">
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>0.7477710480053301</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45731</v>
+        <v>45728</v>
       </c>
       <c r="B389" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>0.6217020750045776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45732</v>
+        <v>45729</v>
       </c>
       <c r="B390" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>7.185431480407715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45733</v>
+        <v>45730</v>
       </c>
       <c r="B391" t="n">
         <v>0</v>
@@ -4746,901 +4746,901 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45734</v>
+        <v>45731</v>
       </c>
       <c r="B392" t="n">
-        <v>23.1</v>
+        <v>1.3</v>
       </c>
       <c r="C392" t="n">
-        <v>13.95046043395996</v>
+        <v>0.3673591037302401</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45735</v>
+        <v>45732</v>
       </c>
       <c r="B393" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="C393" t="n">
-        <v>5.047481060028076</v>
+        <v>0.5484677759966803</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45736</v>
+        <v>45733</v>
       </c>
       <c r="B394" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>7.049598693847656</v>
+        <v>0.2568950302636618</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45737</v>
+        <v>45734</v>
       </c>
       <c r="B395" t="n">
-        <v>1.4</v>
+        <v>23.1</v>
       </c>
       <c r="C395" t="n">
-        <v>0.362738162279129</v>
+        <v>18.96483644847724</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45738</v>
+        <v>45735</v>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C396" t="n">
-        <v>8.616728782653809</v>
+        <v>2.971592347639355</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45739</v>
+        <v>45736</v>
       </c>
       <c r="B397" t="n">
-        <v>20.3</v>
+        <v>6</v>
       </c>
       <c r="C397" t="n">
-        <v>3.415174722671509</v>
+        <v>5.478327956558295</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="B398" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C398" t="n">
-        <v>3.775974988937378</v>
+        <v>0.1593538275955572</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>9.52940559387207</v>
+        <v>4.961177212690977</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>20.3</v>
       </c>
       <c r="C400" t="n">
-        <v>1.779574513435364</v>
+        <v>6.663204824799036</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C401" t="n">
-        <v>3.220864534378052</v>
+        <v>2.020279679750763</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="B402" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>9.802341461181641</v>
+        <v>12.86714129667906</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="B403" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>8.233952522277832</v>
+        <v>0.8706689354337448</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45746</v>
+        <v>45743</v>
       </c>
       <c r="B404" t="n">
-        <v>8.857200000000001</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>2.043168067932129</v>
+        <v>0.2226883608472135</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="C405" t="n">
-        <v>1.183589458465576</v>
+        <v>4.076095631166361</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C406" t="n">
-        <v>1.871656775474548</v>
+        <v>0.7617395940274694</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45749</v>
+        <v>45746</v>
       </c>
       <c r="B407" t="n">
-        <v>5.8</v>
+        <v>8.857200000000001</v>
       </c>
       <c r="C407" t="n">
-        <v>6.87454891204834</v>
+        <v>2.329511891355105</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45750</v>
+        <v>45747</v>
       </c>
       <c r="B408" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>7.034964561462402</v>
+        <v>0.4396093341596908</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45751</v>
+        <v>45748</v>
       </c>
       <c r="B409" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>3.266431093215942</v>
+        <v>2.797827965579427</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45752</v>
+        <v>45749</v>
       </c>
       <c r="B410" t="n">
-        <v>6.650999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="C410" t="n">
-        <v>2.588576078414917</v>
+        <v>3.511274126409671</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45753</v>
+        <v>45750</v>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C411" t="n">
-        <v>8.86970329284668</v>
+        <v>6.164083742077201</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45754</v>
+        <v>45751</v>
       </c>
       <c r="B412" t="n">
-        <v>43</v>
+        <v>5.9</v>
       </c>
       <c r="C412" t="n">
-        <v>9.367295265197754</v>
+        <v>3.054212838700495</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45755</v>
+        <v>45752</v>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>6.650999999999996</v>
       </c>
       <c r="C413" t="n">
-        <v>2.626998424530029</v>
+        <v>6.92577512461518</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45756</v>
+        <v>45753</v>
       </c>
       <c r="B414" t="n">
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>2.153875589370728</v>
+        <v>2.889953811381241</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45757</v>
+        <v>45754</v>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>15.14386922449709</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45758</v>
+        <v>45755</v>
       </c>
       <c r="B416" t="n">
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>0.9797785878181458</v>
+        <v>2.031937415273037</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45759</v>
+        <v>45756</v>
       </c>
       <c r="B417" t="n">
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>5.808649063110352</v>
+        <v>4.074928659870229</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45760</v>
+        <v>45757</v>
       </c>
       <c r="B418" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>6.135693073272705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45761</v>
+        <v>45758</v>
       </c>
       <c r="B419" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>5.847494125366211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45762</v>
+        <v>45759</v>
       </c>
       <c r="B420" t="n">
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1.750106334686279</v>
+        <v>0.2258581617773291</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45763</v>
+        <v>45760</v>
       </c>
       <c r="B421" t="n">
-        <v>2.5</v>
+        <v>11.1</v>
       </c>
       <c r="C421" t="n">
-        <v>4.403769016265869</v>
+        <v>3.188691975244577</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45764</v>
+        <v>45761</v>
       </c>
       <c r="B422" t="n">
-        <v>25.5</v>
+        <v>8.9</v>
       </c>
       <c r="C422" t="n">
-        <v>11.35386276245117</v>
+        <v>5.717322167920005</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B423" t="n">
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>8.573508262634277</v>
+        <v>3.835706837384975</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B424" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="C424" t="n">
-        <v>2.201493263244629</v>
+        <v>2.529064349710146</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B425" t="n">
-        <v>2.1</v>
+        <v>25.5</v>
       </c>
       <c r="C425" t="n">
-        <v>2.424578428268433</v>
+        <v>13.06096463591173</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B426" t="n">
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>3.472229242324829</v>
+        <v>4.575487213493161</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B427" t="n">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="C427" t="n">
-        <v>2.980948925018311</v>
+        <v>2.88692762327854</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45770</v>
+        <v>45767</v>
       </c>
       <c r="B428" t="n">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="C428" t="n">
-        <v>1.708988904953003</v>
+        <v>0.5920819838886053</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45771</v>
+        <v>45768</v>
       </c>
       <c r="B429" t="n">
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>6.114278793334961</v>
+        <v>0.9497232741900966</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45772</v>
+        <v>45769</v>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>2.436048594163628</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45773</v>
+        <v>45770</v>
       </c>
       <c r="B431" t="n">
-        <v>1.069600000000002</v>
+        <v>9.5</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>3.619104061761611</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B432" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>13.82283782958984</v>
+        <v>4.442791265712978</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B433" t="n">
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1.745855450630188</v>
+        <v>0.3607873625346669</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1.069600000000001</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>0.5005065889038802</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45777</v>
+        <v>45774</v>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C435" t="n">
-        <v>1.412570595741272</v>
+        <v>19.10851136125349</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45778</v>
+        <v>45775</v>
       </c>
       <c r="B436" t="n">
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>0.7277424904081206</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45779</v>
+        <v>45776</v>
       </c>
       <c r="B437" t="n">
-        <v>0.0326</v>
+        <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1.277522464461907</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45780</v>
+        <v>45777</v>
       </c>
       <c r="B438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>10.06550979614258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45781</v>
+        <v>45778</v>
       </c>
       <c r="B439" t="n">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>3.428560018539429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45782</v>
+        <v>45779</v>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>0.0326</v>
       </c>
       <c r="C440" t="n">
-        <v>0.8098791837692261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45783</v>
+        <v>45780</v>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C441" t="n">
-        <v>1.375627040863037</v>
+        <v>2.918363366955756</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45784</v>
+        <v>45781</v>
       </c>
       <c r="B442" t="n">
-        <v>3</v>
+        <v>42.2</v>
       </c>
       <c r="C442" t="n">
-        <v>4.438212871551514</v>
+        <v>3.533135358212602</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45785</v>
+        <v>45782</v>
       </c>
       <c r="B443" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>2.590418100357056</v>
+        <v>1.548373584135432</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45786</v>
+        <v>45783</v>
       </c>
       <c r="B444" t="n">
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>2.25714635848999</v>
+        <v>7.009951329115797</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45787</v>
+        <v>45784</v>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1.115813537174881</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45788</v>
+        <v>45785</v>
       </c>
       <c r="B446" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="C446" t="n">
-        <v>1.877386808395386</v>
+        <v>1.466291202832871</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45789</v>
+        <v>45786</v>
       </c>
       <c r="B447" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>5.65627908706665</v>
+        <v>1.724720351776024</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45790</v>
+        <v>45787</v>
       </c>
       <c r="B448" t="n">
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1.925160884857178</v>
+        <v>0.6577805666596793</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45791</v>
+        <v>45788</v>
       </c>
       <c r="B449" t="n">
-        <v>55.2</v>
+        <v>0.8</v>
       </c>
       <c r="C449" t="n">
-        <v>9.894401550292969</v>
+        <v>0.3474331987680508</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45792</v>
+        <v>45789</v>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C450" t="n">
-        <v>1.984919667243958</v>
+        <v>9.995144450311431</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45793</v>
+        <v>45790</v>
       </c>
       <c r="B451" t="n">
-        <v>37.2</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>2.673543930053711</v>
+        <v>0.8280819151184654</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45794</v>
+        <v>45791</v>
       </c>
       <c r="B452" t="n">
-        <v>2.1</v>
+        <v>55.2</v>
       </c>
       <c r="C452" t="n">
-        <v>7.101712226867676</v>
+        <v>19.56964550568317</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45795</v>
+        <v>45792</v>
       </c>
       <c r="B453" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>8.011107444763184</v>
+        <v>2.458971138327385</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45796</v>
+        <v>45793</v>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>37.2</v>
       </c>
       <c r="C454" t="n">
-        <v>5.210524559020996</v>
+        <v>9.963905026757356</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45797</v>
+        <v>45794</v>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="C455" t="n">
-        <v>1.233617067337036</v>
+        <v>4.835400444254268</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45798</v>
+        <v>45795</v>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="C456" t="n">
-        <v>3.455946207046509</v>
+        <v>15.36591309346437</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45799</v>
+        <v>45796</v>
       </c>
       <c r="B457" t="n">
-        <v>40.4</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>7.600765705108643</v>
+        <v>1.896699451903941</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45800</v>
+        <v>45797</v>
       </c>
       <c r="B458" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>7.32225513458252</v>
+        <v>1.020333594229896</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45801</v>
+        <v>45798</v>
       </c>
       <c r="B459" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>9.097905158996582</v>
+        <v>0.8243976687784481</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45802</v>
+        <v>45799</v>
       </c>
       <c r="B460" t="n">
-        <v>0.5</v>
+        <v>40.4</v>
       </c>
       <c r="C460" t="n">
-        <v>8.774645805358887</v>
+        <v>29.96195005496757</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45803</v>
+        <v>45800</v>
       </c>
       <c r="B461" t="n">
-        <v>33</v>
+        <v>4.9</v>
       </c>
       <c r="C461" t="n">
-        <v>9.192604064941406</v>
+        <v>2.578206527476955</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45804</v>
+        <v>45801</v>
       </c>
       <c r="B462" t="n">
-        <v>21.3</v>
+        <v>7.5</v>
       </c>
       <c r="C462" t="n">
-        <v>2.084970235824585</v>
+        <v>16.07891710516978</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45805</v>
+        <v>45802</v>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1.729079601604543</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45806</v>
+        <v>45803</v>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>9.755113719881765</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45807</v>
+        <v>45804</v>
       </c>
       <c r="B465" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="C465" t="n">
-        <v>8.524371147155762</v>
+        <v>2.47428068139565</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45808</v>
+        <v>45805</v>
       </c>
       <c r="B466" t="n">
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>5.430114269256592</v>
+        <v>1.216115448266513</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45809</v>
+        <v>45806</v>
       </c>
       <c r="B467" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1.977474927902222</v>
+        <v>1.490863208657425</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45810</v>
+        <v>45807</v>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C468" t="n">
-        <v>2.923134088516235</v>
+        <v>13.02850399888714</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45811</v>
+        <v>45808</v>
       </c>
       <c r="B469" t="n">
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>2.155565771986706</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45812</v>
+        <v>45809</v>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>4.022167095906264</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45813</v>
+        <v>45810</v>
       </c>
       <c r="B471" t="n">
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>2.695588350296021</v>
+        <v>0.6055484987273358</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45814</v>
+        <v>45811</v>
       </c>
       <c r="B472" t="n">
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>0.3710111138763095</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45815</v>
+        <v>45812</v>
       </c>
       <c r="B473" t="n">
-        <v>1.283799999999998</v>
+        <v>0</v>
       </c>
       <c r="C473" t="n">
         <v>0</v>
@@ -5648,18 +5648,18 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45816</v>
+        <v>45813</v>
       </c>
       <c r="B474" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>9.713588714599609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45817</v>
+        <v>45814</v>
       </c>
       <c r="B475" t="n">
         <v>0</v>
@@ -5670,403 +5670,403 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45818</v>
+        <v>45815</v>
       </c>
       <c r="B476" t="n">
-        <v>27.3</v>
+        <v>1.283799999999998</v>
       </c>
       <c r="C476" t="n">
-        <v>5.108968734741211</v>
+        <v>0.5276322979359925</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45819</v>
+        <v>45816</v>
       </c>
       <c r="B477" t="n">
-        <v>30.5</v>
+        <v>16.5</v>
       </c>
       <c r="C477" t="n">
-        <v>10.18560886383057</v>
+        <v>11.51455981251382</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45820</v>
+        <v>45817</v>
       </c>
       <c r="B478" t="n">
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>0.7813231945037842</v>
+        <v>0.5718919998319693</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45821</v>
+        <v>45818</v>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>6.411915184428716</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45822</v>
+        <v>45819</v>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="C480" t="n">
-        <v>7.127433300018311</v>
+        <v>9.588688030490307</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45823</v>
+        <v>45820</v>
       </c>
       <c r="B481" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>4.518877506256104</v>
+        <v>0.509575172299234</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45824</v>
+        <v>45821</v>
       </c>
       <c r="B482" t="n">
-        <v>1.858200000000002</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>0.4585691094398499</v>
+        <v>1.348568660537095</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45825</v>
+        <v>45822</v>
       </c>
       <c r="B483" t="n">
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>0.2953375883763988</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45826</v>
+        <v>45823</v>
       </c>
       <c r="B484" t="n">
-        <v>41.5</v>
+        <v>10.6</v>
       </c>
       <c r="C484" t="n">
-        <v>16.17862319946289</v>
+        <v>4.040640495919842</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45827</v>
+        <v>45824</v>
       </c>
       <c r="B485" t="n">
-        <v>2</v>
+        <v>1.858200000000002</v>
       </c>
       <c r="C485" t="n">
-        <v>12.13711929321289</v>
+        <v>0.3993168561596256</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45828</v>
+        <v>45825</v>
       </c>
       <c r="B486" t="n">
-        <v>8.499200000000005</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>3.073349237442017</v>
+        <v>0.5228663944430412</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45829</v>
+        <v>45826</v>
       </c>
       <c r="B487" t="n">
-        <v>10.9</v>
+        <v>41.5</v>
       </c>
       <c r="C487" t="n">
-        <v>15.15505218505859</v>
+        <v>35.00490044484525</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45830</v>
+        <v>45827</v>
       </c>
       <c r="B488" t="n">
-        <v>6.841000000000011</v>
+        <v>2</v>
       </c>
       <c r="C488" t="n">
-        <v>5.534101486206055</v>
+        <v>3.531912699285684</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45831</v>
+        <v>45828</v>
       </c>
       <c r="B489" t="n">
-        <v>1.878199999999999</v>
+        <v>8.499200000000007</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>9.465119852855466</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45832</v>
+        <v>45829</v>
       </c>
       <c r="B490" t="n">
-        <v>0.4</v>
+        <v>10.9</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>10.27702101349586</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45833</v>
+        <v>45830</v>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>6.841000000000011</v>
       </c>
       <c r="C491" t="n">
-        <v>2.126245975494385</v>
+        <v>9.586152734706211</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1.878199999999999</v>
       </c>
       <c r="C492" t="n">
-        <v>0.4476170837879181</v>
+        <v>2.022871125264529</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45835</v>
+        <v>45832</v>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>2.417602648548778</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45836</v>
+        <v>45833</v>
       </c>
       <c r="B494" t="n">
         <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>0.7943121514838924</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45837</v>
+        <v>45834</v>
       </c>
       <c r="B495" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>10.58553504943848</v>
+        <v>0.1584644505445608</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45838</v>
+        <v>45835</v>
       </c>
       <c r="B496" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>8.959007263183594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45839</v>
+        <v>45836</v>
       </c>
       <c r="B497" t="n">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>7.032382488250732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45840</v>
+        <v>45837</v>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="C498" t="n">
-        <v>3.623212099075317</v>
+        <v>3.585721718564016</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45841</v>
+        <v>45838</v>
       </c>
       <c r="B499" t="n">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="C499" t="n">
-        <v>6.443035125732422</v>
+        <v>1.934731535556961</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45842</v>
+        <v>45839</v>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="C500" t="n">
-        <v>2.694965124130249</v>
+        <v>7.40552129354149</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45843</v>
+        <v>45840</v>
       </c>
       <c r="B501" t="n">
         <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>3.024254205781754</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45844</v>
+        <v>45841</v>
       </c>
       <c r="B502" t="n">
-        <v>35.2</v>
+        <v>13</v>
       </c>
       <c r="C502" t="n">
-        <v>20.40628051757812</v>
+        <v>16.71916041100208</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45845</v>
+        <v>45842</v>
       </c>
       <c r="B503" t="n">
-        <v>26.4</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>8.348127365112305</v>
+        <v>0.8610211984203829</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45846</v>
+        <v>45843</v>
       </c>
       <c r="B504" t="n">
-        <v>72.7</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>6.68278980255127</v>
+        <v>0.4787847556888875</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45847</v>
+        <v>45844</v>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>35.2</v>
       </c>
       <c r="C505" t="n">
-        <v>5.403486251831055</v>
+        <v>16.62651136696395</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B506" t="n">
-        <v>2.2</v>
+        <v>26.4</v>
       </c>
       <c r="C506" t="n">
-        <v>1.277928709983826</v>
+        <v>8.642104884565287</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45849</v>
+        <v>45846</v>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>72.7</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>16.97833787831615</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45850</v>
+        <v>45847</v>
       </c>
       <c r="B508" t="n">
         <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>5.141050491512725</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45851</v>
+        <v>45848</v>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>2.910393287268142</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="B510" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>6.01625919342041</v>
+        <v>0.1395898560212492</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45853</v>
+        <v>45850</v>
       </c>
       <c r="B511" t="n">
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>2.361566543579102</v>
+        <v>0.5270211451917746</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45854</v>
+        <v>45851</v>
       </c>
       <c r="B512" t="n">
         <v>0</v>
@@ -6077,95 +6077,95 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B513" t="n">
-        <v>80</v>
+        <v>5.4</v>
       </c>
       <c r="C513" t="n">
-        <v>8.025320053100586</v>
+        <v>3.133665725722509</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45856</v>
+        <v>45853</v>
       </c>
       <c r="B514" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>7.750557899475098</v>
+        <v>1.147539713579464</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45857</v>
+        <v>45854</v>
       </c>
       <c r="B515" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>3.846431493759155</v>
+        <v>0.9733120438338431</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45858</v>
+        <v>45855</v>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>41.84311538913187</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45859</v>
+        <v>45856</v>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>8.266021719949306</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45860</v>
+        <v>45857</v>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>18.73201800640901</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45861</v>
+        <v>45858</v>
       </c>
       <c r="B519" t="n">
         <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>0.3499586587521959</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45862</v>
+        <v>45859</v>
       </c>
       <c r="B520" t="n">
         <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>0.05093410738216705</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45863</v>
+        <v>45860</v>
       </c>
       <c r="B521" t="n">
         <v>0</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45864</v>
+        <v>45861</v>
       </c>
       <c r="B522" t="n">
         <v>0</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45865</v>
+        <v>45862</v>
       </c>
       <c r="B523" t="n">
         <v>0</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45866</v>
+        <v>45863</v>
       </c>
       <c r="B524" t="n">
         <v>0</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45867</v>
+        <v>45864</v>
       </c>
       <c r="B525" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
         <v>0</v>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45868</v>
+        <v>45865</v>
       </c>
       <c r="B526" t="n">
         <v>0</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="B527" t="n">
         <v>0</v>
@@ -6242,40 +6242,40 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45870</v>
+        <v>45867</v>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>12.44053976136353</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45871</v>
+        <v>45868</v>
       </c>
       <c r="B529" t="n">
         <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>0.887862201108216</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45872</v>
+        <v>45869</v>
       </c>
       <c r="B530" t="n">
         <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>2.274627478979044</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45873</v>
+        <v>45870</v>
       </c>
       <c r="B531" t="n">
         <v>0</v>
@@ -6286,10 +6286,10 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45874</v>
+        <v>45871</v>
       </c>
       <c r="B532" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
         <v>0</v>
@@ -6297,18 +6297,18 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45875</v>
+        <v>45872</v>
       </c>
       <c r="B533" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1.523056030273438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45876</v>
+        <v>45873</v>
       </c>
       <c r="B534" t="n">
         <v>0</v>
@@ -6319,216 +6319,216 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45877</v>
+        <v>45874</v>
       </c>
       <c r="B535" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="C535" t="n">
-        <v>1.432614326477051</v>
+        <v>0.19324783891928</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45878</v>
+        <v>45875</v>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1.537248476973745</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45879</v>
+        <v>45876</v>
       </c>
       <c r="B537" t="n">
         <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>0.308710876883186</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45880</v>
+        <v>45877</v>
       </c>
       <c r="B538" t="n">
-        <v>34.5</v>
+        <v>3.6</v>
       </c>
       <c r="C538" t="n">
-        <v>7.60500431060791</v>
+        <v>2.637033148935441</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45881</v>
+        <v>45878</v>
       </c>
       <c r="B539" t="n">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>11.35183143615723</v>
+        <v>0.3963102461400406</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45882</v>
+        <v>45879</v>
       </c>
       <c r="B540" t="n">
-        <v>60.8</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>17.33528137207031</v>
+        <v>1.350323159962575</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45883</v>
+        <v>45880</v>
       </c>
       <c r="B541" t="n">
-        <v>0.9495999999999994</v>
+        <v>34.5</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>26.86737096025129</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45884</v>
+        <v>45881</v>
       </c>
       <c r="B542" t="n">
-        <v>1.2</v>
+        <v>29.1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>9.982529252458221</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45885</v>
+        <v>45882</v>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>60.8</v>
       </c>
       <c r="C543" t="n">
-        <v>0.9203023314476013</v>
+        <v>35.28448793123517</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45886</v>
+        <v>45883</v>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>0.9495999999999994</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>3.566859170585842</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45887</v>
+        <v>45884</v>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>5.556398763023507</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45888</v>
+        <v>45885</v>
       </c>
       <c r="B546" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>7.289642333984375</v>
+        <v>0.2802966118853848</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45889</v>
+        <v>45886</v>
       </c>
       <c r="B547" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>5.733426094055176</v>
+        <v>0.5969312483662492</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45890</v>
+        <v>45887</v>
       </c>
       <c r="B548" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>11.28810596466064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45891</v>
+        <v>45888</v>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="C549" t="n">
-        <v>1.369583129882812</v>
+        <v>7.085864256681499</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45892</v>
+        <v>45889</v>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="C550" t="n">
-        <v>0.5518420338630676</v>
+        <v>3.146913455677281</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45893</v>
+        <v>45890</v>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>7.181676425594659</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45894</v>
+        <v>45891</v>
       </c>
       <c r="B552" t="n">
         <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>0.7010616373649633</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45895</v>
+        <v>45892</v>
       </c>
       <c r="B553" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>2.601337432861328</v>
+        <v>0.5641593039067695</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45896</v>
+        <v>45893</v>
       </c>
       <c r="B554" t="n">
         <v>0</v>
@@ -6539,10 +6539,10 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
       <c r="B555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -6550,109 +6550,109 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="B556" t="n">
-        <v>57.4</v>
+        <v>10.4</v>
       </c>
       <c r="C556" t="n">
-        <v>8.31434440612793</v>
+        <v>6.126589645811142</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="B557" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>1.128732323646545</v>
+        <v>0.9367392522286098</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45900</v>
+        <v>45897</v>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C558" t="n">
-        <v>1.555235981941223</v>
+        <v>2.364753140560685</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="B559" t="n">
-        <v>7.3</v>
+        <v>57.4</v>
       </c>
       <c r="C559" t="n">
-        <v>0.5132805109024048</v>
+        <v>22.17682777020919</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45902</v>
+        <v>45899</v>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>2.261332185843976</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45903</v>
+        <v>45900</v>
       </c>
       <c r="B561" t="n">
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>7.281261080426753</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>0.6875401710335755</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="B563" t="n">
         <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>0.2657304024552833</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45906</v>
+        <v>45903</v>
       </c>
       <c r="B564" t="n">
         <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>0.6841101389243901</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45907</v>
+        <v>45904</v>
       </c>
       <c r="B565" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
         <v>0</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="B566" t="n">
         <v>0</v>
@@ -6671,227 +6671,227 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45909</v>
+        <v>45906</v>
       </c>
       <c r="B567" t="n">
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>0.8190400004386902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45910</v>
+        <v>45907</v>
       </c>
       <c r="B568" t="n">
-        <v>27.7</v>
+        <v>0.4</v>
       </c>
       <c r="C568" t="n">
-        <v>14.09178733825684</v>
+        <v>0.2686786429676431</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
       <c r="B569" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>1.435982346534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="B570" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>3.795537948608398</v>
+        <v>0.1815330202301498</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45913</v>
+        <v>45910</v>
       </c>
       <c r="B571" t="n">
-        <v>2.4</v>
+        <v>27.7</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>21.01063805414266</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45914</v>
+        <v>45911</v>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>2.011133488682085</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45915</v>
+        <v>45912</v>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>5.252607497618691</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45916</v>
+        <v>45913</v>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1.078309198307547</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45917</v>
+        <v>45914</v>
       </c>
       <c r="B575" t="n">
-        <v>0.0458</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>0.1789579329902606</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
       <c r="B576" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>12.35593414306641</v>
+        <v>0.1404320950943382</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="B577" t="n">
         <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>3.902271032333374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45920</v>
+        <v>45917</v>
       </c>
       <c r="B578" t="n">
-        <v>8.800000000000001</v>
+        <v>0.0458</v>
       </c>
       <c r="C578" t="n">
-        <v>11.56830787658691</v>
+        <v>0.032483000773174</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45921</v>
+        <v>45918</v>
       </c>
       <c r="B579" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="C579" t="n">
-        <v>5.550641536712646</v>
+        <v>6.956542783343576</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="B580" t="n">
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>0.489899754524231</v>
+        <v>0.8958971766740114</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45923</v>
+        <v>45920</v>
       </c>
       <c r="B581" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C581" t="n">
-        <v>4.322330474853516</v>
+        <v>9.761062754218129</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45924</v>
+        <v>45921</v>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>0.4264405518325203</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45925</v>
+        <v>45922</v>
       </c>
       <c r="B583" t="n">
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1.277231138466005</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45926</v>
+        <v>45923</v>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1.469635599150778</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45927</v>
+        <v>45924</v>
       </c>
       <c r="B585" t="n">
         <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>0.01515332358090792</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45928</v>
+        <v>45925</v>
       </c>
       <c r="B586" t="n">
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1.10621845970502</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="B587" t="n">
         <v>0</v>
@@ -6902,84 +6902,84 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="B588" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>6.985161304473877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45931</v>
+        <v>45928</v>
       </c>
       <c r="B589" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>8.850199699401855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45932</v>
+        <v>45929</v>
       </c>
       <c r="B590" t="n">
         <v>0</v>
       </c>
       <c r="C590" t="n">
-        <v>1.16152822971344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45933</v>
+        <v>45930</v>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>5.970785026850058</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45934</v>
+        <v>45931</v>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>13.67058720962353</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45935</v>
+        <v>45932</v>
       </c>
       <c r="B593" t="n">
         <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1.745774101164816</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45936</v>
+        <v>45933</v>
       </c>
       <c r="B594" t="n">
         <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>0.8653633644122866</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45937</v>
+        <v>45934</v>
       </c>
       <c r="B595" t="n">
         <v>0</v>
@@ -6990,18 +6990,18 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45938</v>
+        <v>45935</v>
       </c>
       <c r="B596" t="n">
         <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>0.5330806970596313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45939</v>
+        <v>45936</v>
       </c>
       <c r="B597" t="n">
         <v>0</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45940</v>
+        <v>45937</v>
       </c>
       <c r="B598" t="n">
         <v>0</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45941</v>
+        <v>45938</v>
       </c>
       <c r="B599" t="n">
         <v>0</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45942</v>
+        <v>45939</v>
       </c>
       <c r="B600" t="n">
         <v>0</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45943</v>
+        <v>45940</v>
       </c>
       <c r="B601" t="n">
         <v>0</v>
@@ -7056,10 +7056,10 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45944</v>
+        <v>45941</v>
       </c>
       <c r="B602" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
         <v>0</v>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45945</v>
+        <v>45942</v>
       </c>
       <c r="B603" t="n">
         <v>0</v>
@@ -7078,10 +7078,10 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45946</v>
+        <v>45943</v>
       </c>
       <c r="B604" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
         <v>0</v>
@@ -7089,249 +7089,249 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45947</v>
+        <v>45944</v>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>0.4979981200103051</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45948</v>
+        <v>45945</v>
       </c>
       <c r="B606" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>0.2452081250102816</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45949</v>
+        <v>45946</v>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>0.6347012604821394</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45950</v>
+        <v>45947</v>
       </c>
       <c r="B608" t="n">
         <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>0.06002395328621631</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45951</v>
+        <v>45948</v>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>0.5155483455496792</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45952</v>
+        <v>45949</v>
       </c>
       <c r="B610" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>3.754922389984131</v>
+        <v>0.2692024224721867</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45953</v>
+        <v>45950</v>
       </c>
       <c r="B611" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>13.35597991943359</v>
+        <v>0.4097788322419756</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45954</v>
+        <v>45951</v>
       </c>
       <c r="B612" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>3.183502197265625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45955</v>
+        <v>45952</v>
       </c>
       <c r="B613" t="n">
-        <v>4.5</v>
+        <v>13.6</v>
       </c>
       <c r="C613" t="n">
-        <v>2.541885852813721</v>
+        <v>7.489418137037872</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45956</v>
+        <v>45953</v>
       </c>
       <c r="B614" t="n">
-        <v>0.7</v>
+        <v>68</v>
       </c>
       <c r="C614" t="n">
-        <v>1.152145147323608</v>
+        <v>42.04102776030599</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45957</v>
+        <v>45954</v>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="C615" t="n">
-        <v>4.086196422576904</v>
+        <v>3.343285393575805</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45958</v>
+        <v>45955</v>
       </c>
       <c r="B616" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="C616" t="n">
-        <v>9.076886177062988</v>
+        <v>9.722954587192389</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45959</v>
+        <v>45956</v>
       </c>
       <c r="B617" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="C617" t="n">
-        <v>6.296731948852539</v>
+        <v>2.623471583156118</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45960</v>
+        <v>45957</v>
       </c>
       <c r="B618" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>8.775420188903809</v>
+        <v>1.446733682291871</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45961</v>
+        <v>45958</v>
       </c>
       <c r="B619" t="n">
-        <v>16</v>
+        <v>2.4</v>
       </c>
       <c r="C619" t="n">
-        <v>7.04350471496582</v>
+        <v>2.296768015799917</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45962</v>
+        <v>45959</v>
       </c>
       <c r="B620" t="n">
-        <v>43.6</v>
+        <v>1.5</v>
       </c>
       <c r="C620" t="n">
-        <v>4.38946008682251</v>
+        <v>0.8652847918704898</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45962</v>
+        <v>45960</v>
       </c>
       <c r="B621" t="n">
-        <v>43.6</v>
+        <v>67</v>
       </c>
       <c r="C621" t="n">
-        <v>1.852217316627502</v>
+        <v>23.97931452111332</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45963</v>
+        <v>45961</v>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C622" t="n">
-        <v>3.636926412582397</v>
+        <v>8.805038001585395</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45963</v>
+        <v>45962</v>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="C623" t="n">
-        <v>4.57756519317627</v>
+        <v>10.21749417389058</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45964</v>
+        <v>45962</v>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>4.877200514730711</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45964</v>
+        <v>45963</v>
       </c>
       <c r="B625" t="n">
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>4.797793454903374</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45965</v>
+        <v>45963</v>
       </c>
       <c r="B626" t="n">
         <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>0.4826810359954834</v>
+        <v>13.55248509225672</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="B627" t="n">
         <v>0</v>
@@ -7342,21 +7342,21 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45966</v>
+        <v>45964</v>
       </c>
       <c r="B628" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>0.2675069868564606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45966</v>
+        <v>45965</v>
       </c>
       <c r="B629" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="C629" t="n">
         <v>0</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45967</v>
+        <v>45965</v>
       </c>
       <c r="B630" t="n">
         <v>0</v>
@@ -7375,318 +7375,318 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45967</v>
+        <v>45966</v>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>0.789751957517049</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45968</v>
+        <v>45966</v>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>0.6962421023721718</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45968</v>
+        <v>45967</v>
       </c>
       <c r="B633" t="n">
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>0.6333499549866729</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45969</v>
+        <v>45967</v>
       </c>
       <c r="B634" t="n">
         <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>4.620913505554199</v>
+        <v>0.7478861896487516</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45969</v>
+        <v>45968</v>
       </c>
       <c r="B635" t="n">
         <v>0</v>
       </c>
       <c r="C635" t="n">
-        <v>3.910871505737305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45970</v>
+        <v>45968</v>
       </c>
       <c r="B636" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>1.307466149330139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45970</v>
+        <v>45969</v>
       </c>
       <c r="B637" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>0.7484433650970459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45971</v>
+        <v>45969</v>
       </c>
       <c r="B638" t="n">
         <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>0</v>
+        <v>0.1382531789301114</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45971</v>
+        <v>45970</v>
       </c>
       <c r="B639" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>2.057917632534195</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45972</v>
+        <v>45970</v>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="C640" t="n">
-        <v>1.21505081653595</v>
+        <v>1.372058627330642</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45973</v>
+        <v>45971</v>
       </c>
       <c r="B641" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>7.646636486053467</v>
+        <v>0.7670027695021475</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45974</v>
+        <v>45971</v>
       </c>
       <c r="B642" t="n">
-        <v>1.679</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>0.5855498313903809</v>
+        <v>1.287582493249355</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45975</v>
+        <v>45972</v>
       </c>
       <c r="B643" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1.906946182250977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45976</v>
+        <v>45973</v>
       </c>
       <c r="B644" t="n">
-        <v>26.7</v>
+        <v>0.9</v>
       </c>
       <c r="C644" t="n">
-        <v>11.79302024841309</v>
+        <v>0.7077246823730492</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45977</v>
+        <v>45974</v>
       </c>
       <c r="B645" t="n">
-        <v>3.2</v>
+        <v>1.679</v>
       </c>
       <c r="C645" t="n">
-        <v>2.276715755462646</v>
+        <v>0.5136900476588019</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45978</v>
+        <v>45975</v>
       </c>
       <c r="B646" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C646" t="n">
-        <v>0</v>
+        <v>1.538811509492799</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45979</v>
+        <v>45976</v>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>18.49959328237584</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45980</v>
+        <v>45977</v>
       </c>
       <c r="B648" t="n">
-        <v>41</v>
+        <v>3.2</v>
       </c>
       <c r="C648" t="n">
-        <v>7.549746990203857</v>
+        <v>2.733741300932263</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45981</v>
+        <v>45978</v>
       </c>
       <c r="B649" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>4.646594047546387</v>
+        <v>0.3523682790510598</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45982</v>
+        <v>45979</v>
       </c>
       <c r="B650" t="n">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>0.7212753295898438</v>
+        <v>0.8597399242634418</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45983</v>
+        <v>45980</v>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>30.46003218519028</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45984</v>
+        <v>45981</v>
       </c>
       <c r="B652" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="C652" t="n">
-        <v>0.4034970998764038</v>
+        <v>3.272118018786869</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45985</v>
+        <v>45982</v>
       </c>
       <c r="B653" t="n">
-        <v>0.4</v>
+        <v>15.3</v>
       </c>
       <c r="C653" t="n">
-        <v>0.3753886818885803</v>
+        <v>2.47001671126699</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45986</v>
+        <v>45983</v>
       </c>
       <c r="B654" t="n">
         <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>0.7326897419118507</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45987</v>
+        <v>45984</v>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>2.860330388247907</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45988</v>
+        <v>45985</v>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C656" t="n">
-        <v>0.5579193234443665</v>
+        <v>0.2312616213450703</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45989</v>
+        <v>45986</v>
       </c>
       <c r="B657" t="n">
         <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>0.1650881320238113</v>
+        <v>0.1470221330498077</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45990</v>
+        <v>45987</v>
       </c>
       <c r="B658" t="n">
         <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>0.09933593641009084</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45991</v>
+        <v>45988</v>
       </c>
       <c r="B659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C659" t="n">
         <v>0</v>
@@ -7694,21 +7694,21 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45992</v>
+        <v>45989</v>
       </c>
       <c r="B660" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>0.8880429267883301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45993</v>
+        <v>45990</v>
       </c>
       <c r="B661" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="C661" t="n">
         <v>0</v>
@@ -7716,57 +7716,90 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45994</v>
+        <v>45991</v>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>0.2183545269266675</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45995</v>
+        <v>45992</v>
       </c>
       <c r="B663" t="n">
-        <v>25.9</v>
+        <v>0.8</v>
       </c>
       <c r="C663" t="n">
-        <v>7.629282474517822</v>
+        <v>0.6670863889193414</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="B664" t="n">
-        <v>47.5</v>
+        <v>0.0196</v>
       </c>
       <c r="C664" t="n">
-        <v>8.443377494812012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45997</v>
+        <v>45994</v>
       </c>
       <c r="B665" t="n">
         <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>3.786676168441772</v>
+        <v>0.2490256864626399</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B666" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C666" t="n">
+        <v>11.92087455384303</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B667" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C667" t="n">
+        <v>22.90343302408991</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0</v>
+      </c>
+      <c r="C668" t="n">
+        <v>3.15751173172078</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
         <v>45998</v>
       </c>
-      <c r="B666" t="n">
-        <v>0</v>
-      </c>
-      <c r="C666" t="n">
-        <v>0</v>
+      <c r="B669" t="n">
+        <v>0</v>
+      </c>
+      <c r="C669" t="n">
+        <v>0.5229962011112061</v>
       </c>
     </row>
   </sheetData>

--- a/two_stage_prediction_result.xlsx
+++ b/two_stage_prediction_result.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9597731838181601</v>
+        <v>1.309421784956507</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>2.1968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7665948191808386</v>
+        <v>1.038467830875386</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4240404820734175</v>
+        <v>0.3497204063318428</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9120790616537224</v>
+        <v>0.4517900595967081</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>3.2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6291707942896722</v>
+        <v>1.364843063010039</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         <v>3.022599999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>1.210039012622246</v>
+        <v>1.435996104589866</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>5.7</v>
       </c>
       <c r="C8" t="n">
-        <v>4.310381036533287</v>
+        <v>3.024004218137528</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +539,7 @@
         <v>20.8</v>
       </c>
       <c r="C9" t="n">
-        <v>11.0634698206122</v>
+        <v>21.00652217157055</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7333768581014291</v>
+        <v>2.431443982988784</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         <v>38.5</v>
       </c>
       <c r="C11" t="n">
-        <v>45.08799105158627</v>
+        <v>31.89734574818322</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>75.5</v>
       </c>
       <c r="C12" t="n">
-        <v>49.81230746659443</v>
+        <v>43.99684721468915</v>
       </c>
     </row>
     <row r="13">
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>10.88034705753816</v>
+        <v>6.48246001337904</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         <v>10.02960000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>9.670616352433221</v>
+        <v>8.563705010683766</v>
       </c>
     </row>
     <row r="15">
@@ -605,7 +605,7 @@
         <v>17.7</v>
       </c>
       <c r="C15" t="n">
-        <v>9.429298243795447</v>
+        <v>10.81040197933724</v>
       </c>
     </row>
     <row r="16">
@@ -616,7 +616,7 @@
         <v>6.8</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805839676645167</v>
+        <v>3.461079019697301</v>
       </c>
     </row>
     <row r="17">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1.223294453350873</v>
+        <v>0.8719338848844361</v>
       </c>
     </row>
     <row r="18">
@@ -638,7 +638,7 @@
         <v>1.9234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2991096969859921</v>
+        <v>0.7133870665781684</v>
       </c>
     </row>
     <row r="19">
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1.690520864381722</v>
+        <v>2.489019851935357</v>
       </c>
     </row>
     <row r="20">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.465498859390077</v>
+        <v>1.213957490583738</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         <v>4.2</v>
       </c>
       <c r="C21" t="n">
-        <v>5.00556097959158</v>
+        <v>2.412514971656416</v>
       </c>
     </row>
     <row r="22">
@@ -682,7 +682,7 @@
         <v>47.7</v>
       </c>
       <c r="C22" t="n">
-        <v>49.58215159728288</v>
+        <v>40.63178587659262</v>
       </c>
     </row>
     <row r="23">
@@ -693,7 +693,7 @@
         <v>10.4</v>
       </c>
       <c r="C23" t="n">
-        <v>5.017092710709849</v>
+        <v>5.828956902024961</v>
       </c>
     </row>
     <row r="24">
@@ -704,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>11.54739473417643</v>
+        <v>5.230636960631556</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>4.3</v>
       </c>
       <c r="C25" t="n">
-        <v>4.360127832889985</v>
+        <v>2.120538232466141</v>
       </c>
     </row>
     <row r="26">
@@ -726,7 +726,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8.684099658925431</v>
+        <v>11.77134902965663</v>
       </c>
     </row>
     <row r="27">
@@ -737,7 +737,7 @@
         <v>31.8</v>
       </c>
       <c r="C27" t="n">
-        <v>29.72094903581839</v>
+        <v>33.5416770490853</v>
       </c>
     </row>
     <row r="28">
@@ -748,7 +748,7 @@
         <v>6.5</v>
       </c>
       <c r="C28" t="n">
-        <v>14.02557190015472</v>
+        <v>12.83293344019883</v>
       </c>
     </row>
     <row r="29">
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>8.066042931143478</v>
+        <v>8.551967872445221</v>
       </c>
     </row>
     <row r="30">
@@ -770,7 +770,7 @@
         <v>21.7</v>
       </c>
       <c r="C30" t="n">
-        <v>5.18805711321823</v>
+        <v>10.70317742161216</v>
       </c>
     </row>
     <row r="31">
@@ -781,7 +781,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5278623160726795</v>
+        <v>0.4974474497501312</v>
       </c>
     </row>
     <row r="32">
@@ -789,10 +789,10 @@
         <v>45371</v>
       </c>
       <c r="B32" t="n">
-        <v>7.212600000000005</v>
+        <v>7.212600000000006</v>
       </c>
       <c r="C32" t="n">
-        <v>4.025594443866991</v>
+        <v>3.269664784104267</v>
       </c>
     </row>
     <row r="33">
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7895990271154398</v>
+        <v>0.5060939286291843</v>
       </c>
     </row>
     <row r="34">
@@ -814,7 +814,7 @@
         <v>63.3</v>
       </c>
       <c r="C34" t="n">
-        <v>25.86796231631752</v>
+        <v>38.78449697165351</v>
       </c>
     </row>
     <row r="35">
@@ -825,7 +825,7 @@
         <v>3.8</v>
       </c>
       <c r="C35" t="n">
-        <v>4.193495995815288</v>
+        <v>2.289473567834897</v>
       </c>
     </row>
     <row r="36">
@@ -836,7 +836,7 @@
         <v>4.066399999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>3.373678467166601</v>
+        <v>2.529023572715279</v>
       </c>
     </row>
     <row r="37">
@@ -847,7 +847,7 @@
         <v>1.1342</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8764770797297803</v>
+        <v>0.7195001220584509</v>
       </c>
     </row>
     <row r="38">
@@ -858,7 +858,7 @@
         <v>0.07680000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1.018428012474928</v>
+        <v>0.3577426048355468</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         <v>0.4</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7354483238237854</v>
+        <v>0.4836085713472703</v>
       </c>
     </row>
     <row r="40">
@@ -877,10 +877,10 @@
         <v>45379</v>
       </c>
       <c r="B40" t="n">
-        <v>2.8162</v>
+        <v>2.816200000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>1.356109032471009</v>
+        <v>2.443940651348722</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3766594941405244</v>
+        <v>0.4401050517341972</v>
       </c>
     </row>
     <row r="42">
@@ -902,7 +902,7 @@
         <v>0.2765999999999997</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4664311856832135</v>
+        <v>0.2670888042795101</v>
       </c>
     </row>
     <row r="43">
@@ -913,7 +913,7 @@
         <v>1.4278</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6899770782900324</v>
+        <v>0.9393220470776301</v>
       </c>
     </row>
     <row r="44">
@@ -924,7 +924,7 @@
         <v>18.2</v>
       </c>
       <c r="C44" t="n">
-        <v>7.445612842456457</v>
+        <v>13.31113126958997</v>
       </c>
     </row>
     <row r="45">
@@ -935,7 +935,7 @@
         <v>1.2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6572527595056729</v>
+        <v>1.367483617385149</v>
       </c>
     </row>
     <row r="46">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.283580136267924</v>
+        <v>0.8609683811313067</v>
       </c>
     </row>
     <row r="47">
@@ -957,7 +957,7 @@
         <v>5.6</v>
       </c>
       <c r="C47" t="n">
-        <v>4.042160856450833</v>
+        <v>4.453312721137998</v>
       </c>
     </row>
     <row r="48">
@@ -968,7 +968,7 @@
         <v>10.91919999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>5.935162013519681</v>
+        <v>7.215923719052551</v>
       </c>
     </row>
     <row r="49">
@@ -979,7 +979,7 @@
         <v>2.8</v>
       </c>
       <c r="C49" t="n">
-        <v>2.033349030325672</v>
+        <v>3.291163388990731</v>
       </c>
     </row>
     <row r="50">
@@ -990,7 +990,7 @@
         <v>2.420400000000003</v>
       </c>
       <c r="C50" t="n">
-        <v>3.566255001374885</v>
+        <v>1.379133869682236</v>
       </c>
     </row>
     <row r="51">
@@ -1001,7 +1001,7 @@
         <v>0.2008</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4184058485904023</v>
+        <v>0.1793574035753956</v>
       </c>
     </row>
     <row r="52">
@@ -1012,7 +1012,7 @@
         <v>1.898000000000002</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9176174486598112</v>
+        <v>0.7735175840824573</v>
       </c>
     </row>
     <row r="53">
@@ -1023,7 +1023,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>3.600793550334446</v>
+        <v>6.456946125454845</v>
       </c>
     </row>
     <row r="54">
@@ -1034,7 +1034,7 @@
         <v>0.7</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6936740091189124</v>
+        <v>0.8255993420861545</v>
       </c>
     </row>
     <row r="55">
@@ -1045,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="C55" t="n">
-        <v>25.45092048306055</v>
+        <v>30.95778639480021</v>
       </c>
     </row>
     <row r="56">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1.446688643723609</v>
+        <v>2.227029887265597</v>
       </c>
     </row>
     <row r="57">
@@ -1067,7 +1067,7 @@
         <v>2.357000000000002</v>
       </c>
       <c r="C57" t="n">
-        <v>3.155633474967271</v>
+        <v>1.248297846212172</v>
       </c>
     </row>
     <row r="58">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7270041415238014</v>
+        <v>0.8678530298138135</v>
       </c>
     </row>
     <row r="59">
@@ -1089,7 +1089,7 @@
         <v>2.695000000000002</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8694979978536634</v>
+        <v>1.3141143893212</v>
       </c>
     </row>
     <row r="60">
@@ -1097,10 +1097,10 @@
         <v>45399</v>
       </c>
       <c r="B60" t="n">
-        <v>8.909000000000002</v>
+        <v>8.909000000000004</v>
       </c>
       <c r="C60" t="n">
-        <v>4.859472962882008</v>
+        <v>7.124500726896922</v>
       </c>
     </row>
     <row r="61">
@@ -1111,7 +1111,7 @@
         <v>27.2</v>
       </c>
       <c r="C61" t="n">
-        <v>6.013373404905764</v>
+        <v>18.52869220021261</v>
       </c>
     </row>
     <row r="62">
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8291740532662087</v>
+        <v>0.8604736231844357</v>
       </c>
     </row>
     <row r="63">
@@ -1133,7 +1133,7 @@
         <v>0.9968000000000005</v>
       </c>
       <c r="C63" t="n">
-        <v>3.142624379987219</v>
+        <v>1.727966129234114</v>
       </c>
     </row>
     <row r="64">
@@ -1144,7 +1144,7 @@
         <v>1.358000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9961856420598273</v>
+        <v>0.7854885604169337</v>
       </c>
     </row>
     <row r="65">
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2343810285317287</v>
+        <v>0.2339879933105576</v>
       </c>
     </row>
     <row r="66">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4625200003611582</v>
+        <v>0.1674015966807643</v>
       </c>
     </row>
     <row r="67">
@@ -1177,7 +1177,7 @@
         <v>4.856399999999991</v>
       </c>
       <c r="C67" t="n">
-        <v>1.620800732343401</v>
+        <v>2.951197722636477</v>
       </c>
     </row>
     <row r="68">
@@ -1188,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>8.74947426562133</v>
+        <v>9.611870707237406</v>
       </c>
     </row>
     <row r="69">
@@ -1199,7 +1199,7 @@
         <v>0.4</v>
       </c>
       <c r="C69" t="n">
-        <v>1.143298414894214</v>
+        <v>1.26117521297328</v>
       </c>
     </row>
     <row r="70">
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1.715726223530489</v>
+        <v>0.9016089326970138</v>
       </c>
     </row>
     <row r="71">
@@ -1221,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>1.124407459361635</v>
+        <v>1.210943376190445</v>
       </c>
     </row>
     <row r="72">
@@ -1232,7 +1232,7 @@
         <v>2.414200000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4802975398246653</v>
+        <v>0.7789051704833738</v>
       </c>
     </row>
     <row r="73">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2107473856147688</v>
+        <v>0.3278989751180277</v>
       </c>
     </row>
     <row r="74">
@@ -1254,7 +1254,7 @@
         <v>0.7099999999999985</v>
       </c>
       <c r="C74" t="n">
-        <v>0.642123723163266</v>
+        <v>0.3668057053739405</v>
       </c>
     </row>
     <row r="75">
@@ -1265,7 +1265,7 @@
         <v>3.5744</v>
       </c>
       <c r="C75" t="n">
-        <v>1.183550647463945</v>
+        <v>2.178439882616618</v>
       </c>
     </row>
     <row r="76">
@@ -1276,7 +1276,7 @@
         <v>1.3502</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8521766325631768</v>
+        <v>1.099184740138803</v>
       </c>
     </row>
     <row r="77">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4217379523848849</v>
+        <v>0.2939573584483078</v>
       </c>
     </row>
     <row r="78">
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4793086797575151</v>
+        <v>0.2987237405057813</v>
       </c>
     </row>
     <row r="79">
@@ -1309,7 +1309,7 @@
         <v>0.1792000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02537208242429147</v>
+        <v>0.08458273115151207</v>
       </c>
     </row>
     <row r="80">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05668033687584275</v>
+        <v>0.09236160691188035</v>
       </c>
     </row>
     <row r="81">
@@ -1331,7 +1331,7 @@
         <v>0.03199999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.05175552817075819</v>
+        <v>0.08723561417171748</v>
       </c>
     </row>
     <row r="82">
@@ -1339,10 +1339,10 @@
         <v>45421</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7907999999999988</v>
+        <v>0.7907999999999989</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2662161294027066</v>
+        <v>0.4284461743390437</v>
       </c>
     </row>
     <row r="83">
@@ -1353,7 +1353,7 @@
         <v>0.1442000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1239084922384352</v>
+        <v>0.1600151564926377</v>
       </c>
     </row>
     <row r="84">
@@ -1364,7 +1364,7 @@
         <v>0.8599999999999993</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3253710968393279</v>
+        <v>0.3336118355415417</v>
       </c>
     </row>
     <row r="85">
@@ -1375,7 +1375,7 @@
         <v>1.612999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3109254400521005</v>
+        <v>0.4740682987857903</v>
       </c>
     </row>
     <row r="86">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2916934189224574</v>
+        <v>0.2238448953639416</v>
       </c>
     </row>
     <row r="87">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7572467454348973</v>
+        <v>0.3392135051580237</v>
       </c>
     </row>
     <row r="88">
@@ -1408,7 +1408,7 @@
         <v>28.5</v>
       </c>
       <c r="C88" t="n">
-        <v>5.048387032451814</v>
+        <v>16.06568811031737</v>
       </c>
     </row>
     <row r="89">
@@ -1419,7 +1419,7 @@
         <v>2.19</v>
       </c>
       <c r="C89" t="n">
-        <v>2.082281381922831</v>
+        <v>1.699060140895768</v>
       </c>
     </row>
     <row r="90">
@@ -1430,7 +1430,7 @@
         <v>1.184199999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>3.051807040128437</v>
+        <v>1.051133392482177</v>
       </c>
     </row>
     <row r="91">
@@ -1441,7 +1441,7 @@
         <v>1.3106</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8997307124424334</v>
+        <v>0.4898411954596417</v>
       </c>
     </row>
     <row r="92">
@@ -1452,7 +1452,7 @@
         <v>0.5383999999999998</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2356739443691588</v>
+        <v>0.3285869609145832</v>
       </c>
     </row>
     <row r="93">
@@ -1463,7 +1463,7 @@
         <v>0.07239999999999995</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3276098826254624</v>
+        <v>0.212387104759946</v>
       </c>
     </row>
     <row r="94">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1388807180667412</v>
+        <v>0.1337123636806439</v>
       </c>
     </row>
     <row r="95">
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.09196713150741566</v>
+        <v>0.0466531182008315</v>
       </c>
     </row>
     <row r="96">
@@ -1496,7 +1496,7 @@
         <v>1.0882</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5843130488819438</v>
+        <v>0.4878303798354734</v>
       </c>
     </row>
     <row r="97">
@@ -1507,7 +1507,7 @@
         <v>11.27319999999998</v>
       </c>
       <c r="C97" t="n">
-        <v>4.809467430680956</v>
+        <v>8.139305870044291</v>
       </c>
     </row>
     <row r="98">
@@ -1518,7 +1518,7 @@
         <v>3.5</v>
       </c>
       <c r="C98" t="n">
-        <v>2.422138221765584</v>
+        <v>1.717399271054821</v>
       </c>
     </row>
     <row r="99">
@@ -1529,7 +1529,7 @@
         <v>2.1</v>
       </c>
       <c r="C99" t="n">
-        <v>3.689647045405515</v>
+        <v>1.993118207487616</v>
       </c>
     </row>
     <row r="100">
@@ -1540,7 +1540,7 @@
         <v>5.031000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>1.163350672002168</v>
+        <v>1.327134015958119</v>
       </c>
     </row>
     <row r="101">
@@ -1548,10 +1548,10 @@
         <v>45440</v>
       </c>
       <c r="B101" t="n">
-        <v>1.053999999999999</v>
+        <v>1.054</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2103140334744414</v>
+        <v>0.4788114986459549</v>
       </c>
     </row>
     <row r="102">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6758026208703172</v>
+        <v>0.380425967909126</v>
       </c>
     </row>
     <row r="103">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2770271369623827</v>
+        <v>0.2958573768142974</v>
       </c>
     </row>
     <row r="104">
@@ -1584,7 +1584,7 @@
         <v>0.2232</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1985836487149498</v>
+        <v>0.2698985428398682</v>
       </c>
     </row>
     <row r="105">
@@ -1595,7 +1595,7 @@
         <v>1.674200000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9110221038442685</v>
+        <v>1.200301288137456</v>
       </c>
     </row>
     <row r="106">
@@ -1606,7 +1606,7 @@
         <v>10.18079999999998</v>
       </c>
       <c r="C106" t="n">
-        <v>5.24699016213326</v>
+        <v>7.578466959456638</v>
       </c>
     </row>
     <row r="107">
@@ -1617,7 +1617,7 @@
         <v>1.5</v>
       </c>
       <c r="C107" t="n">
-        <v>1.709855307192767</v>
+        <v>1.437528624185664</v>
       </c>
     </row>
     <row r="108">
@@ -1628,7 +1628,7 @@
         <v>1.596400000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>2.0606071961488</v>
+        <v>1.286335102082026</v>
       </c>
     </row>
     <row r="109">
@@ -1639,7 +1639,7 @@
         <v>0.1066</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1672280617020442</v>
+        <v>0.1389944021982633</v>
       </c>
     </row>
     <row r="110">
@@ -1650,7 +1650,7 @@
         <v>0.1414</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3319968391760686</v>
+        <v>0.2059776839541788</v>
       </c>
     </row>
     <row r="111">
@@ -1661,7 +1661,7 @@
         <v>0.6435999999999998</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0958606096241008</v>
+        <v>0.2219373160115777</v>
       </c>
     </row>
     <row r="112">
@@ -1672,7 +1672,7 @@
         <v>0.5381999999999992</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2743697265333752</v>
+        <v>0.2824545629565736</v>
       </c>
     </row>
     <row r="113">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2177787644710463</v>
+        <v>0.118341873159778</v>
       </c>
     </row>
     <row r="114">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3446270411906698</v>
+        <v>0.2251506910799048</v>
       </c>
     </row>
     <row r="115">
@@ -1705,7 +1705,7 @@
         <v>5.196000000000002</v>
       </c>
       <c r="C115" t="n">
-        <v>2.05372014160446</v>
+        <v>2.920172200736571</v>
       </c>
     </row>
     <row r="116">
@@ -1716,7 +1716,7 @@
         <v>12.9</v>
       </c>
       <c r="C116" t="n">
-        <v>7.453148839006899</v>
+        <v>8.583090497425212</v>
       </c>
     </row>
     <row r="117">
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1.915444891360396</v>
+        <v>1.246192243244014</v>
       </c>
     </row>
     <row r="118">
@@ -1735,10 +1735,10 @@
         <v>45457</v>
       </c>
       <c r="B118" t="n">
-        <v>5.380999999999998</v>
+        <v>5.380999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>3.297352611946641</v>
+        <v>1.95128097465611</v>
       </c>
     </row>
     <row r="119">
@@ -1749,7 +1749,7 @@
         <v>5.127000000000002</v>
       </c>
       <c r="C119" t="n">
-        <v>2.042408965368204</v>
+        <v>2.28496465529967</v>
       </c>
     </row>
     <row r="120">
@@ -1760,7 +1760,7 @@
         <v>65.59999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>40.66589733570515</v>
+        <v>55.20272296458242</v>
       </c>
     </row>
     <row r="121">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>2.103732354788192</v>
+        <v>1.209806611000509</v>
       </c>
     </row>
     <row r="122">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1.244199638190111</v>
+        <v>1.335184178214734</v>
       </c>
     </row>
     <row r="123">
@@ -1793,7 +1793,7 @@
         <v>2.395600000000005</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9299635946347303</v>
+        <v>1.557102932060422</v>
       </c>
     </row>
     <row r="124">
@@ -1804,7 +1804,7 @@
         <v>1.668</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8542818811927466</v>
+        <v>1.004812695643186</v>
       </c>
     </row>
     <row r="125">
@@ -1815,7 +1815,7 @@
         <v>0.2048</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7025959676516351</v>
+        <v>0.3140802085066332</v>
       </c>
     </row>
     <row r="126">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3359767216534603</v>
+        <v>0.1323730185121866</v>
       </c>
     </row>
     <row r="127">
@@ -1837,7 +1837,7 @@
         <v>2.615800000000005</v>
       </c>
       <c r="C127" t="n">
-        <v>1.722293634672665</v>
+        <v>1.584020407946352</v>
       </c>
     </row>
     <row r="128">
@@ -1848,7 +1848,7 @@
         <v>0.3514</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3277734400680309</v>
+        <v>0.3554723291892334</v>
       </c>
     </row>
     <row r="129">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7901398296418463</v>
+        <v>0.5027764663263958</v>
       </c>
     </row>
     <row r="130">
@@ -1870,7 +1870,7 @@
         <v>24</v>
       </c>
       <c r="C130" t="n">
-        <v>22.14558657132844</v>
+        <v>18.64459233436538</v>
       </c>
     </row>
     <row r="131">
@@ -1881,7 +1881,7 @@
         <v>4.645199999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>1.833729621554565</v>
+        <v>2.530438933981107</v>
       </c>
     </row>
     <row r="132">
@@ -1892,7 +1892,7 @@
         <v>2.5</v>
       </c>
       <c r="C132" t="n">
-        <v>1.149501247360364</v>
+        <v>1.249230906586856</v>
       </c>
     </row>
     <row r="133">
@@ -1903,7 +1903,7 @@
         <v>9.608399999999973</v>
       </c>
       <c r="C133" t="n">
-        <v>9.85219512606268</v>
+        <v>7.41950584529093</v>
       </c>
     </row>
     <row r="134">
@@ -1914,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>2.61043949103659</v>
+        <v>1.962928783972018</v>
       </c>
     </row>
     <row r="135">
@@ -1925,7 +1925,7 @@
         <v>0.6424000000000003</v>
       </c>
       <c r="C135" t="n">
-        <v>2.514129120130964</v>
+        <v>0.9623586076492497</v>
       </c>
     </row>
     <row r="136">
@@ -1936,7 +1936,7 @@
         <v>0.6</v>
       </c>
       <c r="C136" t="n">
-        <v>2.502796784877015</v>
+        <v>1.26243258824753</v>
       </c>
     </row>
     <row r="137">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3632696987266563</v>
+        <v>0.2802272844322165</v>
       </c>
     </row>
     <row r="138">
@@ -1958,7 +1958,7 @@
         <v>2.5</v>
       </c>
       <c r="C138" t="n">
-        <v>2.690850402194903</v>
+        <v>1.836945744590475</v>
       </c>
     </row>
     <row r="139">
@@ -1969,7 +1969,7 @@
         <v>14.5</v>
       </c>
       <c r="C139" t="n">
-        <v>11.28008531164706</v>
+        <v>13.51839263257795</v>
       </c>
     </row>
     <row r="140">
@@ -1980,7 +1980,7 @@
         <v>15.3</v>
       </c>
       <c r="C140" t="n">
-        <v>8.528875526695233</v>
+        <v>9.83381286592086</v>
       </c>
     </row>
     <row r="141">
@@ -1991,7 +1991,7 @@
         <v>49.3</v>
       </c>
       <c r="C141" t="n">
-        <v>32.47235016886366</v>
+        <v>38.38960154305387</v>
       </c>
     </row>
     <row r="142">
@@ -2002,7 +2002,7 @@
         <v>3.752999999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8343383124379684</v>
+        <v>2.542052947412998</v>
       </c>
     </row>
     <row r="143">
@@ -2013,7 +2013,7 @@
         <v>54</v>
       </c>
       <c r="C143" t="n">
-        <v>24.25916217473617</v>
+        <v>16.73146310563236</v>
       </c>
     </row>
     <row r="144">
@@ -2024,7 +2024,7 @@
         <v>1.6</v>
       </c>
       <c r="C144" t="n">
-        <v>5.146368424195721</v>
+        <v>3.493336041019738</v>
       </c>
     </row>
     <row r="145">
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1.923603520827742</v>
+        <v>0.9285589133752102</v>
       </c>
     </row>
     <row r="146">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6069873291067932</v>
+        <v>0.2738596459027469</v>
       </c>
     </row>
     <row r="147">
@@ -2274,10 +2274,10 @@
         <v>45506</v>
       </c>
       <c r="B167" t="n">
-        <v>2.324199999999996</v>
+        <v>2.324199999999997</v>
       </c>
       <c r="C167" t="n">
-        <v>1.58554267688252</v>
+        <v>1.52275527386771</v>
       </c>
     </row>
     <row r="168">
@@ -2288,7 +2288,7 @@
         <v>2.6</v>
       </c>
       <c r="C168" t="n">
-        <v>0.8353993163959567</v>
+        <v>1.235550904159137</v>
       </c>
     </row>
     <row r="169">
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2184058825148193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -2310,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="C170" t="n">
-        <v>1.757070067400078</v>
+        <v>0.9420113546506613</v>
       </c>
     </row>
     <row r="171">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3584605954923598</v>
+        <v>0.426288731367116</v>
       </c>
     </row>
     <row r="172">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>2.523795818286679</v>
+        <v>0.6408029886912773</v>
       </c>
     </row>
     <row r="173">
@@ -2706,7 +2706,7 @@
         <v>22.4</v>
       </c>
       <c r="C206" t="n">
-        <v>22.97066523854319</v>
+        <v>15.18825903852622</v>
       </c>
     </row>
     <row r="207">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>2.011548882363381</v>
+        <v>1.636214880194081</v>
       </c>
     </row>
     <row r="208">
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.5378900845841563</v>
+        <v>0.3718975690983943</v>
       </c>
     </row>
     <row r="209">
@@ -2739,7 +2739,7 @@
         <v>48.7</v>
       </c>
       <c r="C209" t="n">
-        <v>24.88444797586554</v>
+        <v>34.41012249083435</v>
       </c>
     </row>
     <row r="210">
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>2.163581160890435</v>
+        <v>2.68677851102414</v>
       </c>
     </row>
     <row r="211">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>10.11949641956977</v>
+        <v>1.119394029381813</v>
       </c>
     </row>
     <row r="212">
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="C221" t="n">
-        <v>1.113076943546414</v>
+        <v>1.591545474075482</v>
       </c>
     </row>
     <row r="222">
@@ -2882,7 +2882,7 @@
         <v>44.4</v>
       </c>
       <c r="C222" t="n">
-        <v>41.45762372048979</v>
+        <v>46.81361812035662</v>
       </c>
     </row>
     <row r="223">
@@ -2893,7 +2893,7 @@
         <v>55</v>
       </c>
       <c r="C223" t="n">
-        <v>7.167702270138951</v>
+        <v>13.10330745025692</v>
       </c>
     </row>
     <row r="224">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>3.925880599375077</v>
+        <v>3.685979481572472</v>
       </c>
     </row>
     <row r="225">
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0.4398099943111549</v>
+        <v>0.7205451495653638</v>
       </c>
     </row>
     <row r="226">
@@ -2992,7 +2992,7 @@
         <v>0.05840000000000001</v>
       </c>
       <c r="C232" t="n">
-        <v>0.02220816800792577</v>
+        <v>0.02952810728501051</v>
       </c>
     </row>
     <row r="233">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>0.03831905940134667</v>
+        <v>0.03363351840964219</v>
       </c>
     </row>
     <row r="234">
@@ -3091,7 +3091,7 @@
         <v>2.2</v>
       </c>
       <c r="C241" t="n">
-        <v>0.5986398304204746</v>
+        <v>0.8931289526709324</v>
       </c>
     </row>
     <row r="242">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1680903525568975</v>
+        <v>0.2431935503778737</v>
       </c>
     </row>
     <row r="243">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>1.047090631969563</v>
+        <v>0.3098531128316552</v>
       </c>
     </row>
     <row r="244">
@@ -3190,7 +3190,7 @@
         <v>46.6</v>
       </c>
       <c r="C250" t="n">
-        <v>11.78401251992964</v>
+        <v>20.21157552359798</v>
       </c>
     </row>
     <row r="251">
@@ -3201,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="C251" t="n">
-        <v>7.758010166339344</v>
+        <v>6.331284094328799</v>
       </c>
     </row>
     <row r="252">
@@ -3212,7 +3212,7 @@
         <v>7.6</v>
       </c>
       <c r="C252" t="n">
-        <v>10.14343872043569</v>
+        <v>2.683076296644255</v>
       </c>
     </row>
     <row r="253">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>0.3587814999368072</v>
+        <v>0.29732602079634</v>
       </c>
     </row>
     <row r="254">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>0.4419483566762901</v>
+        <v>0.2461033445301591</v>
       </c>
     </row>
     <row r="255">
@@ -3300,7 +3300,7 @@
         <v>24.5</v>
       </c>
       <c r="C260" t="n">
-        <v>15.8688679623584</v>
+        <v>17.28997255670873</v>
       </c>
     </row>
     <row r="261">
@@ -3311,7 +3311,7 @@
         <v>18.4</v>
       </c>
       <c r="C261" t="n">
-        <v>7.209233119016365</v>
+        <v>12.4275534552017</v>
       </c>
     </row>
     <row r="262">
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>6.442807638218063</v>
+        <v>4.457037928288845</v>
       </c>
     </row>
     <row r="263">
@@ -3333,7 +3333,7 @@
         <v>14.5</v>
       </c>
       <c r="C263" t="n">
-        <v>3.919901781702348</v>
+        <v>4.512158410866283</v>
       </c>
     </row>
     <row r="264">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>0.04088062913249524</v>
+        <v>0.3668928117215023</v>
       </c>
     </row>
     <row r="265">
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>0.8508630644414179</v>
+        <v>0.5812440314152331</v>
       </c>
     </row>
     <row r="266">
@@ -3399,7 +3399,7 @@
         <v>5.6</v>
       </c>
       <c r="C269" t="n">
-        <v>4.454947030492884</v>
+        <v>4.641716992617974</v>
       </c>
     </row>
     <row r="270">
@@ -3410,7 +3410,7 @@
         <v>1.2</v>
       </c>
       <c r="C270" t="n">
-        <v>0.5597131597032537</v>
+        <v>0.5093007672933693</v>
       </c>
     </row>
     <row r="271">
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1.417489491292026</v>
+        <v>0.4479133078355763</v>
       </c>
     </row>
     <row r="272">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>0.08112640258979059</v>
+        <v>0.09505983358464054</v>
       </c>
     </row>
     <row r="273">
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>0.3797074379308051</v>
+        <v>0.4767828952468427</v>
       </c>
     </row>
     <row r="274">
@@ -3454,7 +3454,7 @@
         <v>7.2</v>
       </c>
       <c r="C274" t="n">
-        <v>4.127432926386441</v>
+        <v>5.679610029880454</v>
       </c>
     </row>
     <row r="275">
@@ -3465,7 +3465,7 @@
         <v>17.8</v>
       </c>
       <c r="C275" t="n">
-        <v>8.869842068347392</v>
+        <v>12.418823580767</v>
       </c>
     </row>
     <row r="276">
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>1.110774922170269</v>
+        <v>1.463735949496049</v>
       </c>
     </row>
     <row r="277">
@@ -3487,7 +3487,7 @@
         <v>8</v>
       </c>
       <c r="C277" t="n">
-        <v>5.63910700177123</v>
+        <v>2.746074866734964</v>
       </c>
     </row>
     <row r="278">
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>0.2242902962752099</v>
+        <v>0.4964023647800932</v>
       </c>
     </row>
     <row r="279">
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>5.242726187545312</v>
+        <v>1.716172559006931</v>
       </c>
     </row>
     <row r="280">
@@ -3564,7 +3564,7 @@
         <v>1.6</v>
       </c>
       <c r="C284" t="n">
-        <v>0.6852157004078012</v>
+        <v>0.8890908294057369</v>
       </c>
     </row>
     <row r="285">
@@ -3575,7 +3575,7 @@
         <v>50</v>
       </c>
       <c r="C285" t="n">
-        <v>21.03126095326689</v>
+        <v>28.31002933928385</v>
       </c>
     </row>
     <row r="286">
@@ -3586,7 +3586,7 @@
         <v>0.6</v>
       </c>
       <c r="C286" t="n">
-        <v>0.9316965829230044</v>
+        <v>1.275635810603502</v>
       </c>
     </row>
     <row r="287">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>9.398917448759878</v>
+        <v>2.045641049055012</v>
       </c>
     </row>
     <row r="288">
@@ -3608,7 +3608,7 @@
         <v>0.6</v>
       </c>
       <c r="C288" t="n">
-        <v>0.524050040493888</v>
+        <v>0.2761982592554214</v>
       </c>
     </row>
     <row r="289">
@@ -3619,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="C289" t="n">
-        <v>0.8877044381782697</v>
+        <v>2.657535300752173</v>
       </c>
     </row>
     <row r="290">
@@ -3630,7 +3630,7 @@
         <v>26</v>
       </c>
       <c r="C290" t="n">
-        <v>11.34207733082885</v>
+        <v>17.82632184865015</v>
       </c>
     </row>
     <row r="291">
@@ -3641,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="C291" t="n">
-        <v>10.15602758427233</v>
+        <v>7.443636201441368</v>
       </c>
     </row>
     <row r="292">
@@ -3652,7 +3652,7 @@
         <v>10.4</v>
       </c>
       <c r="C292" t="n">
-        <v>18.27678356031254</v>
+        <v>7.489678010784725</v>
       </c>
     </row>
     <row r="293">
@@ -3663,7 +3663,7 @@
         <v>48.2</v>
       </c>
       <c r="C293" t="n">
-        <v>20.15715084803223</v>
+        <v>40.90999349769098</v>
       </c>
     </row>
     <row r="294">
@@ -3674,7 +3674,7 @@
         <v>22.86099999999998</v>
       </c>
       <c r="C294" t="n">
-        <v>15.92227780536076</v>
+        <v>14.99832991635627</v>
       </c>
     </row>
     <row r="295">
@@ -3685,7 +3685,7 @@
         <v>30.4</v>
       </c>
       <c r="C295" t="n">
-        <v>24.14227854760929</v>
+        <v>16.13205732458292</v>
       </c>
     </row>
     <row r="296">
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>3.410448401396694</v>
+        <v>2.223489656370057</v>
       </c>
     </row>
     <row r="297">
@@ -3707,7 +3707,7 @@
         <v>26</v>
       </c>
       <c r="C297" t="n">
-        <v>19.03334673710103</v>
+        <v>12.30257754170092</v>
       </c>
     </row>
     <row r="298">
@@ -3718,7 +3718,7 @@
         <v>0.7</v>
       </c>
       <c r="C298" t="n">
-        <v>1.013777024937841</v>
+        <v>1.958823598229363</v>
       </c>
     </row>
     <row r="299">
@@ -3729,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>4.481988004099417</v>
+        <v>2.36791852877378</v>
       </c>
     </row>
     <row r="300">
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>0.06791674287158372</v>
+        <v>0.2202041567757997</v>
       </c>
     </row>
     <row r="301">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>0.4653873064862454</v>
+        <v>0.2739004430870013</v>
       </c>
     </row>
     <row r="302">
@@ -3773,7 +3773,7 @@
         <v>18.5</v>
       </c>
       <c r="C303" t="n">
-        <v>14.94236651461536</v>
+        <v>14.36891156733539</v>
       </c>
     </row>
     <row r="304">
@@ -3784,7 +3784,7 @@
         <v>6.5</v>
       </c>
       <c r="C304" t="n">
-        <v>4.057458187364852</v>
+        <v>4.657333559388183</v>
       </c>
     </row>
     <row r="305">
@@ -3795,7 +3795,7 @@
         <v>10.02500000000002</v>
       </c>
       <c r="C305" t="n">
-        <v>6.360988741517287</v>
+        <v>4.036324389915783</v>
       </c>
     </row>
     <row r="306">
@@ -3806,7 +3806,7 @@
         <v>1.2</v>
       </c>
       <c r="C306" t="n">
-        <v>2.91046024874109</v>
+        <v>1.250277420449292</v>
       </c>
     </row>
     <row r="307">
@@ -3817,7 +3817,7 @@
         <v>56</v>
       </c>
       <c r="C307" t="n">
-        <v>31.4447739271141</v>
+        <v>43.94439441605036</v>
       </c>
     </row>
     <row r="308">
@@ -3828,7 +3828,7 @@
         <v>10.2</v>
       </c>
       <c r="C308" t="n">
-        <v>5.778889933375178</v>
+        <v>5.132752619443408</v>
       </c>
     </row>
     <row r="309">
@@ -3839,7 +3839,7 @@
         <v>19</v>
       </c>
       <c r="C309" t="n">
-        <v>27.43139571511345</v>
+        <v>21.79112799999798</v>
       </c>
     </row>
     <row r="310">
@@ -3850,7 +3850,7 @@
         <v>43.8</v>
       </c>
       <c r="C310" t="n">
-        <v>11.97952319188435</v>
+        <v>31.13094015200135</v>
       </c>
     </row>
     <row r="311">
@@ -3861,7 +3861,7 @@
         <v>17</v>
       </c>
       <c r="C311" t="n">
-        <v>12.11020938015925</v>
+        <v>13.80899862762778</v>
       </c>
     </row>
     <row r="312">
@@ -3872,7 +3872,7 @@
         <v>3.4</v>
       </c>
       <c r="C312" t="n">
-        <v>10.78731771261802</v>
+        <v>7.582610355585874</v>
       </c>
     </row>
     <row r="313">
@@ -3883,7 +3883,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C313" t="n">
-        <v>2.344927157188761</v>
+        <v>3.201951529732676</v>
       </c>
     </row>
     <row r="314">
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>0.8234156736365442</v>
+        <v>0.6637561788948826</v>
       </c>
     </row>
     <row r="315">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.3511211922597572</v>
+        <v>0.4239719979702952</v>
       </c>
     </row>
     <row r="316">
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0.8014498477034668</v>
+        <v>0.9024412126399916</v>
       </c>
     </row>
     <row r="318">
@@ -3938,7 +3938,7 @@
         <v>1.6</v>
       </c>
       <c r="C318" t="n">
-        <v>0.7570141349059963</v>
+        <v>0.8772968922584304</v>
       </c>
     </row>
     <row r="319">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>0.3205951638875386</v>
+        <v>0.1857549564486742</v>
       </c>
     </row>
     <row r="320">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>0.5311106456483553</v>
+        <v>0.17022477252922</v>
       </c>
     </row>
     <row r="321">
@@ -4004,7 +4004,7 @@
         <v>18.4</v>
       </c>
       <c r="C324" t="n">
-        <v>9.254528869081108</v>
+        <v>14.94950485444573</v>
       </c>
     </row>
     <row r="325">
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>0.8328460174736591</v>
+        <v>0.7819970543219255</v>
       </c>
     </row>
     <row r="326">
@@ -4026,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="C326" t="n">
-        <v>17.96083573690013</v>
+        <v>4.95075271249171</v>
       </c>
     </row>
     <row r="327">
@@ -4037,7 +4037,7 @@
         <v>71</v>
       </c>
       <c r="C327" t="n">
-        <v>66.92887172402273</v>
+        <v>75.57031646501649</v>
       </c>
     </row>
     <row r="328">
@@ -4048,7 +4048,7 @@
         <v>6.5</v>
       </c>
       <c r="C328" t="n">
-        <v>7.780575630675219</v>
+        <v>5.277796365558123</v>
       </c>
     </row>
     <row r="329">
@@ -4059,7 +4059,7 @@
         <v>23.2</v>
       </c>
       <c r="C329" t="n">
-        <v>30.0919369392696</v>
+        <v>8.499471643876312</v>
       </c>
     </row>
     <row r="330">
@@ -4070,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="C330" t="n">
-        <v>2.118319403717637</v>
+        <v>2.011029131461041</v>
       </c>
     </row>
     <row r="331">
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1.6593202321689</v>
+        <v>0.8744705742933337</v>
       </c>
     </row>
     <row r="332">
@@ -4092,7 +4092,7 @@
         <v>29.2</v>
       </c>
       <c r="C332" t="n">
-        <v>8.40368540532933</v>
+        <v>18.88821976389665</v>
       </c>
     </row>
     <row r="333">
@@ -4103,7 +4103,7 @@
         <v>18</v>
       </c>
       <c r="C333" t="n">
-        <v>10.45878065735219</v>
+        <v>11.19286342695283</v>
       </c>
     </row>
     <row r="334">
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>7.491940531674524</v>
+        <v>4.067089679291132</v>
       </c>
     </row>
     <row r="335">
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9877319178080354</v>
+        <v>0.8881330682282116</v>
       </c>
     </row>
     <row r="336">
@@ -4136,7 +4136,7 @@
         <v>38.5</v>
       </c>
       <c r="C336" t="n">
-        <v>31.84152807266544</v>
+        <v>31.43822670634469</v>
       </c>
     </row>
     <row r="337">
@@ -4147,7 +4147,7 @@
         <v>6.4</v>
       </c>
       <c r="C337" t="n">
-        <v>3.851970295099828</v>
+        <v>4.175300728848882</v>
       </c>
     </row>
     <row r="338">
@@ -4158,7 +4158,7 @@
         <v>29.2</v>
       </c>
       <c r="C338" t="n">
-        <v>37.08051916528963</v>
+        <v>14.62236861557167</v>
       </c>
     </row>
     <row r="339">
@@ -4169,7 +4169,7 @@
         <v>60</v>
       </c>
       <c r="C339" t="n">
-        <v>37.28376370622225</v>
+        <v>53.33131551617534</v>
       </c>
     </row>
     <row r="340">
@@ -4180,7 +4180,7 @@
         <v>22.1</v>
       </c>
       <c r="C340" t="n">
-        <v>15.23153380877192</v>
+        <v>8.733785564883108</v>
       </c>
     </row>
     <row r="341">
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>8.352342147768413</v>
+        <v>10.8159131460316</v>
       </c>
     </row>
     <row r="342">
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>7.33829758108885</v>
+        <v>2.218070391421666</v>
       </c>
     </row>
     <row r="343">
@@ -4213,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="C343" t="n">
-        <v>1.596192632711392</v>
+        <v>2.024122701657882</v>
       </c>
     </row>
     <row r="344">
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>0.3598516839779606</v>
+        <v>0.4250994947376371</v>
       </c>
     </row>
     <row r="345">
@@ -4235,7 +4235,7 @@
         <v>0.5</v>
       </c>
       <c r="C345" t="n">
-        <v>1.494257169891761</v>
+        <v>1.029948511238102</v>
       </c>
     </row>
     <row r="346">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>0.5707796212649858</v>
+        <v>0.3054561113447251</v>
       </c>
     </row>
     <row r="347">
@@ -4257,7 +4257,7 @@
         <v>184.8</v>
       </c>
       <c r="C347" t="n">
-        <v>76.59098263376993</v>
+        <v>132.1886885957674</v>
       </c>
     </row>
     <row r="348">
@@ -4268,7 +4268,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="C348" t="n">
-        <v>30.3638388837153</v>
+        <v>37.61541915616866</v>
       </c>
     </row>
     <row r="349">
@@ -4279,7 +4279,7 @@
         <v>9.5</v>
       </c>
       <c r="C349" t="n">
-        <v>32.65978596760617</v>
+        <v>35.89735894214401</v>
       </c>
     </row>
     <row r="350">
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>3.4539441332208</v>
+        <v>3.021565835656255</v>
       </c>
     </row>
     <row r="351">
@@ -4301,7 +4301,7 @@
         <v>1.3</v>
       </c>
       <c r="C351" t="n">
-        <v>4.413744449883696</v>
+        <v>2.013902202222221</v>
       </c>
     </row>
     <row r="352">
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>0.1850971229153852</v>
+        <v>0.4372566253579345</v>
       </c>
     </row>
     <row r="353">
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>0.4546825434030566</v>
+        <v>0.425176454860188</v>
       </c>
     </row>
     <row r="354">
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0.8133883542472021</v>
+        <v>0.8657112379358246</v>
       </c>
     </row>
     <row r="355">
@@ -4345,7 +4345,7 @@
         <v>13.8</v>
       </c>
       <c r="C355" t="n">
-        <v>1.772840201785547</v>
+        <v>7.777280893511946</v>
       </c>
     </row>
     <row r="356">
@@ -4356,7 +4356,7 @@
         <v>8.4</v>
       </c>
       <c r="C356" t="n">
-        <v>3.834379306788433</v>
+        <v>5.079224022739473</v>
       </c>
     </row>
     <row r="357">
@@ -4367,7 +4367,7 @@
         <v>75.3</v>
       </c>
       <c r="C357" t="n">
-        <v>55.72542417171896</v>
+        <v>69.32573650758391</v>
       </c>
     </row>
     <row r="358">
@@ -4378,7 +4378,7 @@
         <v>0.3</v>
       </c>
       <c r="C358" t="n">
-        <v>4.692214019474197</v>
+        <v>2.422829163388695</v>
       </c>
     </row>
     <row r="359">
@@ -4389,7 +4389,7 @@
         <v>1.7</v>
       </c>
       <c r="C359" t="n">
-        <v>6.35998964739829</v>
+        <v>3.370194313123663</v>
       </c>
     </row>
     <row r="360">
@@ -4400,7 +4400,7 @@
         <v>1.1</v>
       </c>
       <c r="C360" t="n">
-        <v>0.9949188292774063</v>
+        <v>0.8070674288308047</v>
       </c>
     </row>
     <row r="361">
@@ -4411,7 +4411,7 @@
         <v>0.8</v>
       </c>
       <c r="C361" t="n">
-        <v>0.6712044219730169</v>
+        <v>0.8535237519060742</v>
       </c>
     </row>
     <row r="362">
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>0.39704743340987</v>
+        <v>0.2441833408733753</v>
       </c>
     </row>
     <row r="363">
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>0.4750552800635596</v>
+        <v>0.4483054115185989</v>
       </c>
     </row>
     <row r="364">
@@ -4444,7 +4444,7 @@
         <v>1.216</v>
       </c>
       <c r="C364" t="n">
-        <v>0.2950490273205189</v>
+        <v>0.5760125273411518</v>
       </c>
     </row>
     <row r="365">
@@ -4455,7 +4455,7 @@
         <v>1.6</v>
       </c>
       <c r="C365" t="n">
-        <v>0.6031909396742453</v>
+        <v>0.5025023195836387</v>
       </c>
     </row>
     <row r="366">
@@ -4466,7 +4466,7 @@
         <v>0.6</v>
       </c>
       <c r="C366" t="n">
-        <v>0.9877550883011303</v>
+        <v>0.6404385811306669</v>
       </c>
     </row>
     <row r="367">
@@ -4477,7 +4477,7 @@
         <v>27.9</v>
       </c>
       <c r="C367" t="n">
-        <v>15.39430508000572</v>
+        <v>24.15829189556657</v>
       </c>
     </row>
     <row r="368">
@@ -4488,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="C368" t="n">
-        <v>4.255156863069486</v>
+        <v>4.424879342464146</v>
       </c>
     </row>
     <row r="369">
@@ -4499,7 +4499,7 @@
         <v>18.6</v>
       </c>
       <c r="C369" t="n">
-        <v>19.56458048231059</v>
+        <v>8.884278094080706</v>
       </c>
     </row>
     <row r="370">
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>2.499295086229696</v>
+        <v>3.666444815022804</v>
       </c>
     </row>
     <row r="371">
@@ -4521,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="C371" t="n">
-        <v>3.818780184646954</v>
+        <v>1.733470678816821</v>
       </c>
     </row>
     <row r="372">
@@ -4532,7 +4532,7 @@
         <v>5.5</v>
       </c>
       <c r="C372" t="n">
-        <v>2.672238859059498</v>
+        <v>4.101036112416079</v>
       </c>
     </row>
     <row r="373">
@@ -4543,7 +4543,7 @@
         <v>87.7</v>
       </c>
       <c r="C373" t="n">
-        <v>53.53740316788391</v>
+        <v>84.27749564102434</v>
       </c>
     </row>
     <row r="374">
@@ -4554,7 +4554,7 @@
         <v>0.2</v>
       </c>
       <c r="C374" t="n">
-        <v>3.397742617303313</v>
+        <v>4.807252784871398</v>
       </c>
     </row>
     <row r="375">
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>26.53044234294072</v>
+        <v>8.455699216528096</v>
       </c>
     </row>
     <row r="376">
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>0.3110579229589515</v>
+        <v>0.3822820334530155</v>
       </c>
     </row>
     <row r="377">
@@ -4587,7 +4587,7 @@
         <v>8.4</v>
       </c>
       <c r="C377" t="n">
-        <v>4.492546675147548</v>
+        <v>6.785473763994365</v>
       </c>
     </row>
     <row r="378">
@@ -4598,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="C378" t="n">
-        <v>1.299894174839303</v>
+        <v>1.258974308911363</v>
       </c>
     </row>
     <row r="379">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1.895079655038848</v>
+        <v>0.7457666660360934</v>
       </c>
     </row>
     <row r="380">
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1.088278990711988</v>
+        <v>0.518131217055492</v>
       </c>
     </row>
     <row r="381">
@@ -4631,7 +4631,7 @@
         <v>40.5</v>
       </c>
       <c r="C381" t="n">
-        <v>22.16323570276826</v>
+        <v>34.14796453637601</v>
       </c>
     </row>
     <row r="382">
@@ -4642,7 +4642,7 @@
         <v>11.31319999999999</v>
       </c>
       <c r="C382" t="n">
-        <v>2.989637290012466</v>
+        <v>4.325867200836064</v>
       </c>
     </row>
     <row r="383">
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1.624154870274979</v>
+        <v>1.115981245158275</v>
       </c>
     </row>
     <row r="384">
@@ -4661,10 +4661,10 @@
         <v>45723</v>
       </c>
       <c r="B384" t="n">
-        <v>6.252000000000001</v>
+        <v>6.252</v>
       </c>
       <c r="C384" t="n">
-        <v>5.547331165092488</v>
+        <v>2.661277886219407</v>
       </c>
     </row>
     <row r="385">
@@ -4675,7 +4675,7 @@
         <v>2.266599999999998</v>
       </c>
       <c r="C385" t="n">
-        <v>0.4525730305927085</v>
+        <v>0.8353528419681725</v>
       </c>
     </row>
     <row r="386">
@@ -4686,7 +4686,7 @@
         <v>1.857600000000001</v>
       </c>
       <c r="C386" t="n">
-        <v>3.509695265388075</v>
+        <v>1.337091233206127</v>
       </c>
     </row>
     <row r="387">
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>1.765906954457265</v>
+        <v>1.027263616048875</v>
       </c>
     </row>
     <row r="388">
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>0.7477710480053301</v>
+        <v>0.4882290740314703</v>
       </c>
     </row>
     <row r="389">
@@ -4752,7 +4752,7 @@
         <v>1.3</v>
       </c>
       <c r="C392" t="n">
-        <v>0.3673591037302401</v>
+        <v>0.5470329809670673</v>
       </c>
     </row>
     <row r="393">
@@ -4763,7 +4763,7 @@
         <v>0.6</v>
       </c>
       <c r="C393" t="n">
-        <v>0.5484677759966803</v>
+        <v>0.470009765600381</v>
       </c>
     </row>
     <row r="394">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>0.2568950302636618</v>
+        <v>0.1760064792866829</v>
       </c>
     </row>
     <row r="395">
@@ -4785,7 +4785,7 @@
         <v>23.1</v>
       </c>
       <c r="C395" t="n">
-        <v>18.96483644847724</v>
+        <v>17.99220114021198</v>
       </c>
     </row>
     <row r="396">
@@ -4796,7 +4796,7 @@
         <v>1.3</v>
       </c>
       <c r="C396" t="n">
-        <v>2.971592347639355</v>
+        <v>2.792610798723456</v>
       </c>
     </row>
     <row r="397">
@@ -4807,7 +4807,7 @@
         <v>6</v>
       </c>
       <c r="C397" t="n">
-        <v>5.478327956558295</v>
+        <v>2.600479363072186</v>
       </c>
     </row>
     <row r="398">
@@ -4818,7 +4818,7 @@
         <v>1.4</v>
       </c>
       <c r="C398" t="n">
-        <v>0.1593538275955572</v>
+        <v>0.3122197391667153</v>
       </c>
     </row>
     <row r="399">
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>4.961177212690977</v>
+        <v>1.166274498793545</v>
       </c>
     </row>
     <row r="400">
@@ -4840,7 +4840,7 @@
         <v>20.3</v>
       </c>
       <c r="C400" t="n">
-        <v>6.663204824799036</v>
+        <v>14.66508365565722</v>
       </c>
     </row>
     <row r="401">
@@ -4851,7 +4851,7 @@
         <v>1.2</v>
       </c>
       <c r="C401" t="n">
-        <v>2.020279679750763</v>
+        <v>2.731198023223357</v>
       </c>
     </row>
     <row r="402">
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>12.86714129667906</v>
+        <v>2.616041738696882</v>
       </c>
     </row>
     <row r="403">
@@ -4873,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0.8706689354337448</v>
+        <v>0.5815221241108932</v>
       </c>
     </row>
     <row r="404">
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>0.2226883608472135</v>
+        <v>0.2828301790168896</v>
       </c>
     </row>
     <row r="405">
@@ -4895,7 +4895,7 @@
         <v>5.4</v>
       </c>
       <c r="C405" t="n">
-        <v>4.076095631166361</v>
+        <v>4.797074598332705</v>
       </c>
     </row>
     <row r="406">
@@ -4906,7 +4906,7 @@
         <v>0.3</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7617395940274694</v>
+        <v>0.8292237553303556</v>
       </c>
     </row>
     <row r="407">
@@ -4917,7 +4917,7 @@
         <v>8.857200000000001</v>
       </c>
       <c r="C407" t="n">
-        <v>2.329511891355105</v>
+        <v>3.712588874852294</v>
       </c>
     </row>
     <row r="408">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>0.4396093341596908</v>
+        <v>0.6300659447641607</v>
       </c>
     </row>
     <row r="409">
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>2.797827965579427</v>
+        <v>1.080328770501538</v>
       </c>
     </row>
     <row r="410">
@@ -4950,7 +4950,7 @@
         <v>5.8</v>
       </c>
       <c r="C410" t="n">
-        <v>3.511274126409671</v>
+        <v>4.413452203805487</v>
       </c>
     </row>
     <row r="411">
@@ -4961,7 +4961,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C411" t="n">
-        <v>6.164083742077201</v>
+        <v>6.636336830038688</v>
       </c>
     </row>
     <row r="412">
@@ -4972,7 +4972,7 @@
         <v>5.9</v>
       </c>
       <c r="C412" t="n">
-        <v>3.054212838700495</v>
+        <v>5.057459504537198</v>
       </c>
     </row>
     <row r="413">
@@ -4983,7 +4983,7 @@
         <v>6.650999999999996</v>
       </c>
       <c r="C413" t="n">
-        <v>6.92577512461518</v>
+        <v>3.168207343250587</v>
       </c>
     </row>
     <row r="414">
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>2.889953811381241</v>
+        <v>1.084932334574606</v>
       </c>
     </row>
     <row r="415">
@@ -5005,7 +5005,7 @@
         <v>43</v>
       </c>
       <c r="C415" t="n">
-        <v>15.14386922449709</v>
+        <v>35.03795838796507</v>
       </c>
     </row>
     <row r="416">
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>2.031937415273037</v>
+        <v>2.431282787210318</v>
       </c>
     </row>
     <row r="417">
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>4.074928659870229</v>
+        <v>1.444607712428823</v>
       </c>
     </row>
     <row r="418">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>0.2258581617773291</v>
+        <v>0.2507719611982169</v>
       </c>
     </row>
     <row r="421">
@@ -5071,7 +5071,7 @@
         <v>11.1</v>
       </c>
       <c r="C421" t="n">
-        <v>3.188691975244577</v>
+        <v>7.005829828241189</v>
       </c>
     </row>
     <row r="422">
@@ -5082,7 +5082,7 @@
         <v>8.9</v>
       </c>
       <c r="C422" t="n">
-        <v>5.717322167920005</v>
+        <v>5.621161693689926</v>
       </c>
     </row>
     <row r="423">
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>3.835706837384975</v>
+        <v>1.564631585633143</v>
       </c>
     </row>
     <row r="424">
@@ -5104,7 +5104,7 @@
         <v>2.5</v>
       </c>
       <c r="C424" t="n">
-        <v>2.529064349710146</v>
+        <v>1.348963410702511</v>
       </c>
     </row>
     <row r="425">
@@ -5115,7 +5115,7 @@
         <v>25.5</v>
       </c>
       <c r="C425" t="n">
-        <v>13.06096463591173</v>
+        <v>20.56238538202302</v>
       </c>
     </row>
     <row r="426">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>4.575487213493161</v>
+        <v>2.881562175441477</v>
       </c>
     </row>
     <row r="427">
@@ -5137,7 +5137,7 @@
         <v>2.8</v>
       </c>
       <c r="C427" t="n">
-        <v>2.88692762327854</v>
+        <v>1.848707826970866</v>
       </c>
     </row>
     <row r="428">
@@ -5148,7 +5148,7 @@
         <v>2.1</v>
       </c>
       <c r="C428" t="n">
-        <v>0.5920819838886053</v>
+        <v>1.152576270678843</v>
       </c>
     </row>
     <row r="429">
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>0.9497232741900966</v>
+        <v>0.7789375240545383</v>
       </c>
     </row>
     <row r="430">
@@ -5170,7 +5170,7 @@
         <v>7.5</v>
       </c>
       <c r="C430" t="n">
-        <v>2.436048594163628</v>
+        <v>3.10909945878193</v>
       </c>
     </row>
     <row r="431">
@@ -5181,7 +5181,7 @@
         <v>9.5</v>
       </c>
       <c r="C431" t="n">
-        <v>3.619104061761611</v>
+        <v>4.43465587029138</v>
       </c>
     </row>
     <row r="432">
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>4.442791265712978</v>
+        <v>1.662637215141084</v>
       </c>
     </row>
     <row r="433">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>0.3607873625346669</v>
+        <v>0.352688911095908</v>
       </c>
     </row>
     <row r="434">
@@ -5211,10 +5211,10 @@
         <v>45773</v>
       </c>
       <c r="B434" t="n">
-        <v>1.069600000000001</v>
+        <v>1.069600000000002</v>
       </c>
       <c r="C434" t="n">
-        <v>0.5005065889038802</v>
+        <v>0.5178978368641651</v>
       </c>
     </row>
     <row r="435">
@@ -5225,7 +5225,7 @@
         <v>25</v>
       </c>
       <c r="C435" t="n">
-        <v>19.10851136125349</v>
+        <v>23.19893169515969</v>
       </c>
     </row>
     <row r="436">
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>0.7277424904081206</v>
+        <v>1.748750416508595</v>
       </c>
     </row>
     <row r="437">
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>1.277522464461907</v>
+        <v>0.4971416969657395</v>
       </c>
     </row>
     <row r="438">
@@ -5280,7 +5280,7 @@
         <v>0.0326</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>0.03589567287325215</v>
       </c>
     </row>
     <row r="441">
@@ -5291,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="C441" t="n">
-        <v>2.918363366955756</v>
+        <v>2.608360528295718</v>
       </c>
     </row>
     <row r="442">
@@ -5302,7 +5302,7 @@
         <v>42.2</v>
       </c>
       <c r="C442" t="n">
-        <v>3.533135358212602</v>
+        <v>26.28750680374053</v>
       </c>
     </row>
     <row r="443">
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1.548373584135432</v>
+        <v>1.898551136095716</v>
       </c>
     </row>
     <row r="444">
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>7.009951329115797</v>
+        <v>2.154973795019258</v>
       </c>
     </row>
     <row r="445">
@@ -5335,7 +5335,7 @@
         <v>3</v>
       </c>
       <c r="C445" t="n">
-        <v>1.115813537174881</v>
+        <v>1.895955808637929</v>
       </c>
     </row>
     <row r="446">
@@ -5346,7 +5346,7 @@
         <v>3.7</v>
       </c>
       <c r="C446" t="n">
-        <v>1.466291202832871</v>
+        <v>2.374883222575325</v>
       </c>
     </row>
     <row r="447">
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1.724720351776024</v>
+        <v>0.8227840206220969</v>
       </c>
     </row>
     <row r="448">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>0.6577805666596793</v>
+        <v>0.3748685337013308</v>
       </c>
     </row>
     <row r="449">
@@ -5379,7 +5379,7 @@
         <v>0.8</v>
       </c>
       <c r="C449" t="n">
-        <v>0.3474331987680508</v>
+        <v>0.4425367472046188</v>
       </c>
     </row>
     <row r="450">
@@ -5390,7 +5390,7 @@
         <v>27</v>
       </c>
       <c r="C450" t="n">
-        <v>9.995144450311431</v>
+        <v>21.78562006147711</v>
       </c>
     </row>
     <row r="451">
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>0.8280819151184654</v>
+        <v>1.162562666083329</v>
       </c>
     </row>
     <row r="452">
@@ -5412,7 +5412,7 @@
         <v>55.2</v>
       </c>
       <c r="C452" t="n">
-        <v>19.56964550568317</v>
+        <v>19.30757238743278</v>
       </c>
     </row>
     <row r="453">
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>2.458971138327385</v>
+        <v>2.219494926956377</v>
       </c>
     </row>
     <row r="454">
@@ -5434,7 +5434,7 @@
         <v>37.2</v>
       </c>
       <c r="C454" t="n">
-        <v>9.963905026757356</v>
+        <v>8.653482704606265</v>
       </c>
     </row>
     <row r="455">
@@ -5445,7 +5445,7 @@
         <v>2.1</v>
       </c>
       <c r="C455" t="n">
-        <v>4.835400444254268</v>
+        <v>2.962244116035567</v>
       </c>
     </row>
     <row r="456">
@@ -5456,7 +5456,7 @@
         <v>5.7</v>
       </c>
       <c r="C456" t="n">
-        <v>15.36591309346437</v>
+        <v>4.538362008616722</v>
       </c>
     </row>
     <row r="457">
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>1.896699451903941</v>
+        <v>1.52162789061521</v>
       </c>
     </row>
     <row r="458">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1.020333594229896</v>
+        <v>0.3612003026662472</v>
       </c>
     </row>
     <row r="459">
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>0.8243976687784481</v>
+        <v>0.6325199585703403</v>
       </c>
     </row>
     <row r="460">
@@ -5500,7 +5500,7 @@
         <v>40.4</v>
       </c>
       <c r="C460" t="n">
-        <v>29.96195005496757</v>
+        <v>35.40148180482883</v>
       </c>
     </row>
     <row r="461">
@@ -5511,7 +5511,7 @@
         <v>4.9</v>
       </c>
       <c r="C461" t="n">
-        <v>2.578206527476955</v>
+        <v>3.668047915681246</v>
       </c>
     </row>
     <row r="462">
@@ -5522,7 +5522,7 @@
         <v>7.5</v>
       </c>
       <c r="C462" t="n">
-        <v>16.07891710516978</v>
+        <v>4.219732166221775</v>
       </c>
     </row>
     <row r="463">
@@ -5533,7 +5533,7 @@
         <v>0.5</v>
       </c>
       <c r="C463" t="n">
-        <v>1.729079601604543</v>
+        <v>1.368071025376504</v>
       </c>
     </row>
     <row r="464">
@@ -5544,7 +5544,7 @@
         <v>33</v>
       </c>
       <c r="C464" t="n">
-        <v>9.755113719881765</v>
+        <v>19.8723571924321</v>
       </c>
     </row>
     <row r="465">
@@ -5555,7 +5555,7 @@
         <v>21.3</v>
       </c>
       <c r="C465" t="n">
-        <v>2.47428068139565</v>
+        <v>4.578089910565152</v>
       </c>
     </row>
     <row r="466">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1.216115448266513</v>
+        <v>1.17141817761337</v>
       </c>
     </row>
     <row r="467">
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1.490863208657425</v>
+        <v>0.8601480302486962</v>
       </c>
     </row>
     <row r="468">
@@ -5588,7 +5588,7 @@
         <v>20</v>
       </c>
       <c r="C468" t="n">
-        <v>13.02850399888714</v>
+        <v>14.78340848683694</v>
       </c>
     </row>
     <row r="469">
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>2.155565771986706</v>
+        <v>2.775785491729812</v>
       </c>
     </row>
     <row r="470">
@@ -5610,7 +5610,7 @@
         <v>1.6</v>
       </c>
       <c r="C470" t="n">
-        <v>4.022167095906264</v>
+        <v>1.409330932057437</v>
       </c>
     </row>
     <row r="471">
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>0.6055484987273358</v>
+        <v>0.4985457447312412</v>
       </c>
     </row>
     <row r="472">
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>0.3710111138763095</v>
+        <v>0.1560884644348778</v>
       </c>
     </row>
     <row r="473">
@@ -5676,7 +5676,7 @@
         <v>1.283799999999998</v>
       </c>
       <c r="C476" t="n">
-        <v>0.5276322979359925</v>
+        <v>0.4826690971016926</v>
       </c>
     </row>
     <row r="477">
@@ -5687,7 +5687,7 @@
         <v>16.5</v>
       </c>
       <c r="C477" t="n">
-        <v>11.51455981251382</v>
+        <v>12.00760587102089</v>
       </c>
     </row>
     <row r="478">
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>0.5718919998319693</v>
+        <v>0.9648450234303033</v>
       </c>
     </row>
     <row r="479">
@@ -5709,7 +5709,7 @@
         <v>27.3</v>
       </c>
       <c r="C479" t="n">
-        <v>6.411915184428716</v>
+        <v>8.649375672705672</v>
       </c>
     </row>
     <row r="480">
@@ -5720,7 +5720,7 @@
         <v>30.5</v>
       </c>
       <c r="C480" t="n">
-        <v>9.588688030490307</v>
+        <v>14.13028846309972</v>
       </c>
     </row>
     <row r="481">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>0.509575172299234</v>
+        <v>0.9893343782582403</v>
       </c>
     </row>
     <row r="482">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>1.348568660537095</v>
+        <v>0.6163595209964721</v>
       </c>
     </row>
     <row r="483">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>0.2953375883763988</v>
+        <v>0.180860565005959</v>
       </c>
     </row>
     <row r="484">
@@ -5764,7 +5764,7 @@
         <v>10.6</v>
       </c>
       <c r="C484" t="n">
-        <v>4.040640495919842</v>
+        <v>6.803138730646563</v>
       </c>
     </row>
     <row r="485">
@@ -5775,7 +5775,7 @@
         <v>1.858200000000002</v>
       </c>
       <c r="C485" t="n">
-        <v>0.3993168561596256</v>
+        <v>0.7746383701761086</v>
       </c>
     </row>
     <row r="486">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>0.5228663944430412</v>
+        <v>0.4452516833959672</v>
       </c>
     </row>
     <row r="487">
@@ -5797,7 +5797,7 @@
         <v>41.5</v>
       </c>
       <c r="C487" t="n">
-        <v>35.00490044484525</v>
+        <v>41.49293991600934</v>
       </c>
     </row>
     <row r="488">
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="C488" t="n">
-        <v>3.531912699285684</v>
+        <v>3.688341919237974</v>
       </c>
     </row>
     <row r="489">
@@ -5816,10 +5816,10 @@
         <v>45828</v>
       </c>
       <c r="B489" t="n">
-        <v>8.499200000000007</v>
+        <v>8.499200000000005</v>
       </c>
       <c r="C489" t="n">
-        <v>9.465119852855466</v>
+        <v>3.596582876289048</v>
       </c>
     </row>
     <row r="490">
@@ -5830,7 +5830,7 @@
         <v>10.9</v>
       </c>
       <c r="C490" t="n">
-        <v>10.27702101349586</v>
+        <v>8.912617680942382</v>
       </c>
     </row>
     <row r="491">
@@ -5841,7 +5841,7 @@
         <v>6.841000000000011</v>
       </c>
       <c r="C491" t="n">
-        <v>9.586152734706211</v>
+        <v>4.586228519686127</v>
       </c>
     </row>
     <row r="492">
@@ -5852,7 +5852,7 @@
         <v>1.878199999999999</v>
       </c>
       <c r="C492" t="n">
-        <v>2.022871125264529</v>
+        <v>0.9272027047145948</v>
       </c>
     </row>
     <row r="493">
@@ -5863,7 +5863,7 @@
         <v>0.4</v>
       </c>
       <c r="C493" t="n">
-        <v>2.417602648548778</v>
+        <v>1.383461416731158</v>
       </c>
     </row>
     <row r="494">
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>0.7943121514838924</v>
+        <v>0.4278856821098483</v>
       </c>
     </row>
     <row r="495">
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0.1584644505445608</v>
+        <v>0.145569924332884</v>
       </c>
     </row>
     <row r="496">
@@ -5918,7 +5918,7 @@
         <v>5.7</v>
       </c>
       <c r="C498" t="n">
-        <v>3.585721718564016</v>
+        <v>4.854489157287957</v>
       </c>
     </row>
     <row r="499">
@@ -5929,7 +5929,7 @@
         <v>2.1</v>
       </c>
       <c r="C499" t="n">
-        <v>1.934731535556961</v>
+        <v>1.29393065221233</v>
       </c>
     </row>
     <row r="500">
@@ -5940,7 +5940,7 @@
         <v>17.9</v>
       </c>
       <c r="C500" t="n">
-        <v>7.40552129354149</v>
+        <v>11.39333176811671</v>
       </c>
     </row>
     <row r="501">
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>3.024254205781754</v>
+        <v>1.976114321860329</v>
       </c>
     </row>
     <row r="502">
@@ -5962,7 +5962,7 @@
         <v>13</v>
       </c>
       <c r="C502" t="n">
-        <v>16.71916041100208</v>
+        <v>6.886317238826945</v>
       </c>
     </row>
     <row r="503">
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>0.8610211984203829</v>
+        <v>0.9903442574723911</v>
       </c>
     </row>
     <row r="504">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>0.4787847556888875</v>
+        <v>0.5498066137602161</v>
       </c>
     </row>
     <row r="505">
@@ -5995,7 +5995,7 @@
         <v>35.2</v>
       </c>
       <c r="C505" t="n">
-        <v>16.62651136696395</v>
+        <v>24.06586277938606</v>
       </c>
     </row>
     <row r="506">
@@ -6006,7 +6006,7 @@
         <v>26.4</v>
       </c>
       <c r="C506" t="n">
-        <v>8.642104884565287</v>
+        <v>12.19771776184535</v>
       </c>
     </row>
     <row r="507">
@@ -6017,7 +6017,7 @@
         <v>72.7</v>
       </c>
       <c r="C507" t="n">
-        <v>16.97833787831615</v>
+        <v>12.97349490786645</v>
       </c>
     </row>
     <row r="508">
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>5.141050491512725</v>
+        <v>4.947757909868637</v>
       </c>
     </row>
     <row r="509">
@@ -6039,7 +6039,7 @@
         <v>2.2</v>
       </c>
       <c r="C509" t="n">
-        <v>2.910393287268142</v>
+        <v>1.924060425172135</v>
       </c>
     </row>
     <row r="510">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>0.1395898560212492</v>
+        <v>0.2684009777790528</v>
       </c>
     </row>
     <row r="511">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>0.5270211451917746</v>
+        <v>0.148365830876545</v>
       </c>
     </row>
     <row r="512">
@@ -6083,7 +6083,7 @@
         <v>5.4</v>
       </c>
       <c r="C513" t="n">
-        <v>3.133665725722509</v>
+        <v>4.378510924997838</v>
       </c>
     </row>
     <row r="514">
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>1.147539713579464</v>
+        <v>0.676098906742052</v>
       </c>
     </row>
     <row r="515">
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>0.9733120438338431</v>
+        <v>0.3458916708528365</v>
       </c>
     </row>
     <row r="516">
@@ -6116,7 +6116,7 @@
         <v>80</v>
       </c>
       <c r="C516" t="n">
-        <v>41.84311538913187</v>
+        <v>54.37278632465203</v>
       </c>
     </row>
     <row r="517">
@@ -6127,7 +6127,7 @@
         <v>1.4</v>
       </c>
       <c r="C517" t="n">
-        <v>8.266021719949306</v>
+        <v>6.125339778775956</v>
       </c>
     </row>
     <row r="518">
@@ -6138,7 +6138,7 @@
         <v>0.2</v>
       </c>
       <c r="C518" t="n">
-        <v>18.73201800640901</v>
+        <v>7.92673172147154</v>
       </c>
     </row>
     <row r="519">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>0.3499586587521959</v>
+        <v>0.2982647276981975</v>
       </c>
     </row>
     <row r="520">
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>0.05093410738216705</v>
+        <v>0.0567887547251925</v>
       </c>
     </row>
     <row r="521">
@@ -6248,7 +6248,7 @@
         <v>47</v>
       </c>
       <c r="C528" t="n">
-        <v>12.44053976136353</v>
+        <v>21.89934042406377</v>
       </c>
     </row>
     <row r="529">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>0.887862201108216</v>
+        <v>1.291707146074652</v>
       </c>
     </row>
     <row r="530">
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>2.274627478979044</v>
+        <v>0.968210596644115</v>
       </c>
     </row>
     <row r="531">
@@ -6325,7 +6325,7 @@
         <v>0.4</v>
       </c>
       <c r="C535" t="n">
-        <v>0.19324783891928</v>
+        <v>0.2391418612469682</v>
       </c>
     </row>
     <row r="536">
@@ -6336,7 +6336,7 @@
         <v>4</v>
       </c>
       <c r="C536" t="n">
-        <v>1.537248476973745</v>
+        <v>1.911543812965959</v>
       </c>
     </row>
     <row r="537">
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>0.308710876883186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -6358,7 +6358,7 @@
         <v>3.6</v>
       </c>
       <c r="C538" t="n">
-        <v>2.637033148935441</v>
+        <v>1.522889548273463</v>
       </c>
     </row>
     <row r="539">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>0.3963102461400406</v>
+        <v>0.4556289411243167</v>
       </c>
     </row>
     <row r="540">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1.350323159962575</v>
+        <v>0.427939047841246</v>
       </c>
     </row>
     <row r="541">
@@ -6391,7 +6391,7 @@
         <v>34.5</v>
       </c>
       <c r="C541" t="n">
-        <v>26.86737096025129</v>
+        <v>32.98816803979435</v>
       </c>
     </row>
     <row r="542">
@@ -6402,7 +6402,7 @@
         <v>29.1</v>
       </c>
       <c r="C542" t="n">
-        <v>9.982529252458221</v>
+        <v>19.44428187086064</v>
       </c>
     </row>
     <row r="543">
@@ -6413,7 +6413,7 @@
         <v>60.8</v>
       </c>
       <c r="C543" t="n">
-        <v>35.28448793123517</v>
+        <v>21.69809116176474</v>
       </c>
     </row>
     <row r="544">
@@ -6424,7 +6424,7 @@
         <v>0.9495999999999994</v>
       </c>
       <c r="C544" t="n">
-        <v>3.566859170585842</v>
+        <v>2.500103461814132</v>
       </c>
     </row>
     <row r="545">
@@ -6435,7 +6435,7 @@
         <v>1.2</v>
       </c>
       <c r="C545" t="n">
-        <v>5.556398763023507</v>
+        <v>2.610644584447777</v>
       </c>
     </row>
     <row r="546">
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>0.2802966118853848</v>
+        <v>0.3449250978881702</v>
       </c>
     </row>
     <row r="547">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>0.5969312483662492</v>
+        <v>0.3357984069156271</v>
       </c>
     </row>
     <row r="548">
@@ -6479,7 +6479,7 @@
         <v>7.7</v>
       </c>
       <c r="C549" t="n">
-        <v>7.085864256681499</v>
+        <v>6.137699728809636</v>
       </c>
     </row>
     <row r="550">
@@ -6490,7 +6490,7 @@
         <v>4.4</v>
       </c>
       <c r="C550" t="n">
-        <v>3.146913455677281</v>
+        <v>3.240607237400112</v>
       </c>
     </row>
     <row r="551">
@@ -6501,7 +6501,7 @@
         <v>2.6</v>
       </c>
       <c r="C551" t="n">
-        <v>7.181676425594659</v>
+        <v>2.736328915634821</v>
       </c>
     </row>
     <row r="552">
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>0.7010616373649633</v>
+        <v>0.6384331777385467</v>
       </c>
     </row>
     <row r="553">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>0.5641593039067695</v>
+        <v>0.2297354486801773</v>
       </c>
     </row>
     <row r="554">
@@ -6556,7 +6556,7 @@
         <v>10.4</v>
       </c>
       <c r="C556" t="n">
-        <v>6.126589645811142</v>
+        <v>7.023601579611326</v>
       </c>
     </row>
     <row r="557">
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>0.9367392522286098</v>
+        <v>0.6405933846272744</v>
       </c>
     </row>
     <row r="558">
@@ -6578,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="C558" t="n">
-        <v>2.364753140560685</v>
+        <v>0.8001431599883723</v>
       </c>
     </row>
     <row r="559">
@@ -6589,7 +6589,7 @@
         <v>57.4</v>
       </c>
       <c r="C559" t="n">
-        <v>22.17682777020919</v>
+        <v>35.64626752034341</v>
       </c>
     </row>
     <row r="560">
@@ -6600,7 +6600,7 @@
         <v>0.2</v>
       </c>
       <c r="C560" t="n">
-        <v>2.261332185843976</v>
+        <v>2.194732713244821</v>
       </c>
     </row>
     <row r="561">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>7.281261080426753</v>
+        <v>0.7868802909083192</v>
       </c>
     </row>
     <row r="562">
@@ -6622,7 +6622,7 @@
         <v>7.3</v>
       </c>
       <c r="C562" t="n">
-        <v>0.6875401710335755</v>
+        <v>2.074881761835347</v>
       </c>
     </row>
     <row r="563">
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>0.2657304024552833</v>
+        <v>0.5116930906843381</v>
       </c>
     </row>
     <row r="564">
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>0.6841101389243901</v>
+        <v>0.3498408971707299</v>
       </c>
     </row>
     <row r="565">
@@ -6688,7 +6688,7 @@
         <v>0.4</v>
       </c>
       <c r="C568" t="n">
-        <v>0.2686786429676431</v>
+        <v>0.2489900941310485</v>
       </c>
     </row>
     <row r="569">
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>0.06155135203263722</v>
       </c>
     </row>
     <row r="570">
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>0.1815330202301498</v>
+        <v>0.1271909128032359</v>
       </c>
     </row>
     <row r="571">
@@ -6721,7 +6721,7 @@
         <v>27.7</v>
       </c>
       <c r="C571" t="n">
-        <v>21.01063805414266</v>
+        <v>22.72212267368187</v>
       </c>
     </row>
     <row r="572">
@@ -6732,7 +6732,7 @@
         <v>0.4</v>
       </c>
       <c r="C572" t="n">
-        <v>2.011133488682085</v>
+        <v>1.75699400006574</v>
       </c>
     </row>
     <row r="573">
@@ -6743,7 +6743,7 @@
         <v>0.8</v>
       </c>
       <c r="C573" t="n">
-        <v>5.252607497618691</v>
+        <v>1.936444440854775</v>
       </c>
     </row>
     <row r="574">
@@ -6754,7 +6754,7 @@
         <v>2.4</v>
       </c>
       <c r="C574" t="n">
-        <v>1.078309198307547</v>
+        <v>1.226168653149574</v>
       </c>
     </row>
     <row r="575">
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>0.1789579329902606</v>
+        <v>0.1017167345492364</v>
       </c>
     </row>
     <row r="576">
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>0.1404320950943382</v>
+        <v>0.0939970702998509</v>
       </c>
     </row>
     <row r="577">
@@ -6798,7 +6798,7 @@
         <v>0.0458</v>
       </c>
       <c r="C578" t="n">
-        <v>0.032483000773174</v>
+        <v>0.04068583987215028</v>
       </c>
     </row>
     <row r="579">
@@ -6809,7 +6809,7 @@
         <v>9</v>
       </c>
       <c r="C579" t="n">
-        <v>6.956542783343576</v>
+        <v>7.654553204304491</v>
       </c>
     </row>
     <row r="580">
@@ -6820,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>0.8958971766740114</v>
+        <v>1.081047623321922</v>
       </c>
     </row>
     <row r="581">
@@ -6831,7 +6831,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="C581" t="n">
-        <v>9.761062754218129</v>
+        <v>4.878513778899554</v>
       </c>
     </row>
     <row r="582">
@@ -6842,7 +6842,7 @@
         <v>1.2</v>
       </c>
       <c r="C582" t="n">
-        <v>0.4264405518325203</v>
+        <v>0.7153982537444236</v>
       </c>
     </row>
     <row r="583">
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1.277231138466005</v>
+        <v>0.7484358024760868</v>
       </c>
     </row>
     <row r="584">
@@ -6864,7 +6864,7 @@
         <v>6.6</v>
       </c>
       <c r="C584" t="n">
-        <v>1.469635599150778</v>
+        <v>3.576970235754779</v>
       </c>
     </row>
     <row r="585">
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>0.01515332358090792</v>
+        <v>0.2469423912579575</v>
       </c>
     </row>
     <row r="586">
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1.10621845970502</v>
+        <v>0.3432305444651369</v>
       </c>
     </row>
     <row r="587">
@@ -6941,7 +6941,7 @@
         <v>8.1</v>
       </c>
       <c r="C591" t="n">
-        <v>5.970785026850058</v>
+        <v>5.5661888300823</v>
       </c>
     </row>
     <row r="592">
@@ -6952,7 +6952,7 @@
         <v>21.2</v>
       </c>
       <c r="C592" t="n">
-        <v>13.67058720962353</v>
+        <v>15.95742463591901</v>
       </c>
     </row>
     <row r="593">
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>1.745774101164816</v>
+        <v>1.477322133404337</v>
       </c>
     </row>
     <row r="594">
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>0.8653633644122866</v>
+        <v>0.3858002383179323</v>
       </c>
     </row>
     <row r="595">
@@ -7095,7 +7095,7 @@
         <v>2.5</v>
       </c>
       <c r="C605" t="n">
-        <v>0.4979981200103051</v>
+        <v>1.008974415586603</v>
       </c>
     </row>
     <row r="606">
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>0.2452081250102816</v>
+        <v>0.3988101735429706</v>
       </c>
     </row>
     <row r="607">
@@ -7117,7 +7117,7 @@
         <v>0.9</v>
       </c>
       <c r="C607" t="n">
-        <v>0.6347012604821394</v>
+        <v>0.3000553683274804</v>
       </c>
     </row>
     <row r="608">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>0.06002395328621631</v>
+        <v>0.1420622138902427</v>
       </c>
     </row>
     <row r="609">
@@ -7139,7 +7139,7 @@
         <v>1.9</v>
       </c>
       <c r="C609" t="n">
-        <v>0.5155483455496792</v>
+        <v>0.5903156751748339</v>
       </c>
     </row>
     <row r="610">
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>0.2692024224721867</v>
+        <v>0.4176593140742245</v>
       </c>
     </row>
     <row r="611">
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>0.4097788322419756</v>
+        <v>0.2165080312064064</v>
       </c>
     </row>
     <row r="612">
@@ -7183,7 +7183,7 @@
         <v>13.6</v>
       </c>
       <c r="C613" t="n">
-        <v>7.489418137037872</v>
+        <v>7.828480175054455</v>
       </c>
     </row>
     <row r="614">
@@ -7194,7 +7194,7 @@
         <v>68</v>
       </c>
       <c r="C614" t="n">
-        <v>42.04102776030599</v>
+        <v>39.11280276706262</v>
       </c>
     </row>
     <row r="615">
@@ -7205,7 +7205,7 @@
         <v>8.9</v>
       </c>
       <c r="C615" t="n">
-        <v>3.343285393575805</v>
+        <v>3.151273509556678</v>
       </c>
     </row>
     <row r="616">
@@ -7216,7 +7216,7 @@
         <v>4.5</v>
       </c>
       <c r="C616" t="n">
-        <v>9.722954587192389</v>
+        <v>4.366811448725212</v>
       </c>
     </row>
     <row r="617">
@@ -7227,7 +7227,7 @@
         <v>0.7</v>
       </c>
       <c r="C617" t="n">
-        <v>2.623471583156118</v>
+        <v>0.9583642093087167</v>
       </c>
     </row>
     <row r="618">
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>1.446733682291871</v>
+        <v>0.6304893416208355</v>
       </c>
     </row>
     <row r="619">
@@ -7249,7 +7249,7 @@
         <v>2.4</v>
       </c>
       <c r="C619" t="n">
-        <v>2.296768015799917</v>
+        <v>1.672013964725294</v>
       </c>
     </row>
     <row r="620">
@@ -7260,7 +7260,7 @@
         <v>1.5</v>
       </c>
       <c r="C620" t="n">
-        <v>0.8652847918704898</v>
+        <v>1.220062988112105</v>
       </c>
     </row>
     <row r="621">
@@ -7271,7 +7271,7 @@
         <v>67</v>
       </c>
       <c r="C621" t="n">
-        <v>23.97931452111332</v>
+        <v>47.3825924751402</v>
       </c>
     </row>
     <row r="622">
@@ -7282,7 +7282,7 @@
         <v>16</v>
       </c>
       <c r="C622" t="n">
-        <v>8.805038001585395</v>
+        <v>4.969992412367841</v>
       </c>
     </row>
     <row r="623">
@@ -7293,7 +7293,7 @@
         <v>43.6</v>
       </c>
       <c r="C623" t="n">
-        <v>10.21749417389058</v>
+        <v>10.34858972338824</v>
       </c>
     </row>
     <row r="624">
@@ -7304,7 +7304,7 @@
         <v>43.6</v>
       </c>
       <c r="C624" t="n">
-        <v>4.877200514730711</v>
+        <v>7.726898113885297</v>
       </c>
     </row>
     <row r="625">
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>4.797793454903374</v>
+        <v>3.892542160597074</v>
       </c>
     </row>
     <row r="626">
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>13.55248509225672</v>
+        <v>3.095454472342013</v>
       </c>
     </row>
     <row r="627">
@@ -7381,7 +7381,7 @@
         <v>4.2</v>
       </c>
       <c r="C631" t="n">
-        <v>0.789751957517049</v>
+        <v>1.577084372758709</v>
       </c>
     </row>
     <row r="632">
@@ -7392,7 +7392,7 @@
         <v>4.2</v>
       </c>
       <c r="C632" t="n">
-        <v>0.6962421023721718</v>
+        <v>0.9767472863453138</v>
       </c>
     </row>
     <row r="633">
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>0.6333499549866729</v>
+        <v>0.2661866117248151</v>
       </c>
     </row>
     <row r="634">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>0.7478861896487516</v>
+        <v>0.2508649782511277</v>
       </c>
     </row>
     <row r="635">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>0.1225868073012225</v>
       </c>
     </row>
     <row r="638">
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>0.1382531789301114</v>
+        <v>0.1523820300908637</v>
       </c>
     </row>
     <row r="639">
@@ -7469,7 +7469,7 @@
         <v>12.4</v>
       </c>
       <c r="C639" t="n">
-        <v>2.057917632534195</v>
+        <v>5.80115268141986</v>
       </c>
     </row>
     <row r="640">
@@ -7480,7 +7480,7 @@
         <v>12.4</v>
       </c>
       <c r="C640" t="n">
-        <v>1.372058627330642</v>
+        <v>3.275010685631742</v>
       </c>
     </row>
     <row r="641">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>0.7670027695021475</v>
+        <v>0.5026404241984884</v>
       </c>
     </row>
     <row r="642">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>1.287582493249355</v>
+        <v>0.5139059004595087</v>
       </c>
     </row>
     <row r="643">
@@ -7524,7 +7524,7 @@
         <v>0.9</v>
       </c>
       <c r="C644" t="n">
-        <v>0.7077246823730492</v>
+        <v>0.7977245706494424</v>
       </c>
     </row>
     <row r="645">
@@ -7535,7 +7535,7 @@
         <v>1.679</v>
       </c>
       <c r="C645" t="n">
-        <v>0.5136900476588019</v>
+        <v>0.5955900677164802</v>
       </c>
     </row>
     <row r="646">
@@ -7546,7 +7546,7 @@
         <v>3.5</v>
       </c>
       <c r="C646" t="n">
-        <v>1.538811509492799</v>
+        <v>2.261116317381184</v>
       </c>
     </row>
     <row r="647">
@@ -7557,7 +7557,7 @@
         <v>26.7</v>
       </c>
       <c r="C647" t="n">
-        <v>18.49959328237584</v>
+        <v>25.63163628556137</v>
       </c>
     </row>
     <row r="648">
@@ -7568,7 +7568,7 @@
         <v>3.2</v>
       </c>
       <c r="C648" t="n">
-        <v>2.733741300932263</v>
+        <v>2.567078702143654</v>
       </c>
     </row>
     <row r="649">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>0.3523682790510598</v>
+        <v>0.8097119598347922</v>
       </c>
     </row>
     <row r="650">
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>0.8597399242634418</v>
+        <v>0.3450747854752704</v>
       </c>
     </row>
     <row r="651">
@@ -7601,7 +7601,7 @@
         <v>41</v>
       </c>
       <c r="C651" t="n">
-        <v>30.46003218519028</v>
+        <v>31.64885851459003</v>
       </c>
     </row>
     <row r="652">
@@ -7612,7 +7612,7 @@
         <v>2.5</v>
       </c>
       <c r="C652" t="n">
-        <v>3.272118018786869</v>
+        <v>1.967134226386009</v>
       </c>
     </row>
     <row r="653">
@@ -7623,7 +7623,7 @@
         <v>15.3</v>
       </c>
       <c r="C653" t="n">
-        <v>2.47001671126699</v>
+        <v>2.301401754424929</v>
       </c>
     </row>
     <row r="654">
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>0.7326897419118507</v>
+        <v>0.3509380582946698</v>
       </c>
     </row>
     <row r="655">
@@ -7645,7 +7645,7 @@
         <v>0.2</v>
       </c>
       <c r="C655" t="n">
-        <v>2.860330388247907</v>
+        <v>0.9976201994647106</v>
       </c>
     </row>
     <row r="656">
@@ -7656,7 +7656,7 @@
         <v>0.4</v>
       </c>
       <c r="C656" t="n">
-        <v>0.2312616213450703</v>
+        <v>0.2305272420603716</v>
       </c>
     </row>
     <row r="657">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>0.1470221330498077</v>
+        <v>0.1453750400042773</v>
       </c>
     </row>
     <row r="658">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>0.09933593641009084</v>
+        <v>0.1184682271639343</v>
       </c>
     </row>
     <row r="659">
@@ -7722,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>0.2183545269266675</v>
+        <v>0.3380784683950178</v>
       </c>
     </row>
     <row r="663">
@@ -7733,7 +7733,7 @@
         <v>0.8</v>
       </c>
       <c r="C663" t="n">
-        <v>0.6670863889193414</v>
+        <v>0.4860972006853514</v>
       </c>
     </row>
     <row r="664">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>0.2490256864626399</v>
+        <v>0.1506605458910881</v>
       </c>
     </row>
     <row r="666">
@@ -7766,7 +7766,7 @@
         <v>25.9</v>
       </c>
       <c r="C666" t="n">
-        <v>11.92087455384303</v>
+        <v>21.73706836749693</v>
       </c>
     </row>
     <row r="667">
@@ -7777,7 +7777,7 @@
         <v>47.5</v>
       </c>
       <c r="C667" t="n">
-        <v>22.90343302408991</v>
+        <v>33.0387926684384</v>
       </c>
     </row>
     <row r="668">
@@ -7788,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="C668" t="n">
-        <v>3.15751173172078</v>
+        <v>3.167696679453933</v>
       </c>
     </row>
     <row r="669">
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>0.5229962011112061</v>
+        <v>0.750268712032369</v>
       </c>
     </row>
   </sheetData>

--- a/two_stage_prediction_result.xlsx
+++ b/two_stage_prediction_result.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.309421784956507</v>
+        <v>0.827454106670255</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>2.1968</v>
       </c>
       <c r="C3" t="n">
-        <v>1.038467830875386</v>
+        <v>0.2212138048115081</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3497204063318428</v>
+        <v>0.2785431443239322</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4517900595967081</v>
+        <v>0.3530549837473356</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>3.2</v>
       </c>
       <c r="C6" t="n">
-        <v>1.364843063010039</v>
+        <v>0.6539953426404211</v>
       </c>
     </row>
     <row r="7">
@@ -514,10 +514,10 @@
         <v>45346</v>
       </c>
       <c r="B7" t="n">
-        <v>3.022599999999999</v>
+        <v>3.0226</v>
       </c>
       <c r="C7" t="n">
-        <v>1.435996104589866</v>
+        <v>1.868261949691533</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>5.7</v>
       </c>
       <c r="C8" t="n">
-        <v>3.024004218137528</v>
+        <v>4.769773731514912</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +539,7 @@
         <v>20.8</v>
       </c>
       <c r="C9" t="n">
-        <v>21.00652217157055</v>
+        <v>18.29182211916712</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.431443982988784</v>
+        <v>0.7585947676107414</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         <v>38.5</v>
       </c>
       <c r="C11" t="n">
-        <v>31.89734574818322</v>
+        <v>40.59995443626023</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>75.5</v>
       </c>
       <c r="C12" t="n">
-        <v>43.99684721468915</v>
+        <v>69.12062750150291</v>
       </c>
     </row>
     <row r="13">
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>6.48246001337904</v>
+        <v>14.63417419529596</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         <v>10.02960000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>8.563705010683766</v>
+        <v>6.360824656049678</v>
       </c>
     </row>
     <row r="15">
@@ -605,7 +605,7 @@
         <v>17.7</v>
       </c>
       <c r="C15" t="n">
-        <v>10.81040197933724</v>
+        <v>10.18735096023598</v>
       </c>
     </row>
     <row r="16">
@@ -616,7 +616,7 @@
         <v>6.8</v>
       </c>
       <c r="C16" t="n">
-        <v>3.461079019697301</v>
+        <v>7.813290743952019</v>
       </c>
     </row>
     <row r="17">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8719338848844361</v>
+        <v>0.7306158642024108</v>
       </c>
     </row>
     <row r="18">
@@ -638,7 +638,7 @@
         <v>1.9234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7133870665781684</v>
+        <v>0.3215149513066156</v>
       </c>
     </row>
     <row r="19">
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>2.489019851935357</v>
+        <v>2.105785283852034</v>
       </c>
     </row>
     <row r="20">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.213957490583738</v>
+        <v>0.592188646369958</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         <v>4.2</v>
       </c>
       <c r="C21" t="n">
-        <v>2.412514971656416</v>
+        <v>2.725791596461113</v>
       </c>
     </row>
     <row r="22">
@@ -682,7 +682,7 @@
         <v>47.7</v>
       </c>
       <c r="C22" t="n">
-        <v>40.63178587659262</v>
+        <v>53.76055856411752</v>
       </c>
     </row>
     <row r="23">
@@ -693,7 +693,7 @@
         <v>10.4</v>
       </c>
       <c r="C23" t="n">
-        <v>5.828956902024961</v>
+        <v>8.607505827537249</v>
       </c>
     </row>
     <row r="24">
@@ -704,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>5.230636960631556</v>
+        <v>12.60791643317999</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>4.3</v>
       </c>
       <c r="C25" t="n">
-        <v>2.120538232466141</v>
+        <v>4.580042765892649</v>
       </c>
     </row>
     <row r="26">
@@ -726,7 +726,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>11.77134902965663</v>
+        <v>20.37889246215059</v>
       </c>
     </row>
     <row r="27">
@@ -737,7 +737,7 @@
         <v>31.8</v>
       </c>
       <c r="C27" t="n">
-        <v>33.5416770490853</v>
+        <v>30.50541889139801</v>
       </c>
     </row>
     <row r="28">
@@ -748,7 +748,7 @@
         <v>6.5</v>
       </c>
       <c r="C28" t="n">
-        <v>12.83293344019883</v>
+        <v>8.058329708324655</v>
       </c>
     </row>
     <row r="29">
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>8.551967872445221</v>
+        <v>15.72635753775873</v>
       </c>
     </row>
     <row r="30">
@@ -770,7 +770,7 @@
         <v>21.7</v>
       </c>
       <c r="C30" t="n">
-        <v>10.70317742161216</v>
+        <v>15.2624974988502</v>
       </c>
     </row>
     <row r="31">
@@ -781,7 +781,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4974474497501312</v>
+        <v>0.670657320018306</v>
       </c>
     </row>
     <row r="32">
@@ -792,7 +792,7 @@
         <v>7.212600000000006</v>
       </c>
       <c r="C32" t="n">
-        <v>3.269664784104267</v>
+        <v>4.038656483439727</v>
       </c>
     </row>
     <row r="33">
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5060939286291843</v>
+        <v>0.5810529638190072</v>
       </c>
     </row>
     <row r="34">
@@ -814,7 +814,7 @@
         <v>63.3</v>
       </c>
       <c r="C34" t="n">
-        <v>38.78449697165351</v>
+        <v>53.63756968527102</v>
       </c>
     </row>
     <row r="35">
@@ -825,7 +825,7 @@
         <v>3.8</v>
       </c>
       <c r="C35" t="n">
-        <v>2.289473567834897</v>
+        <v>2.287265527440566</v>
       </c>
     </row>
     <row r="36">
@@ -836,7 +836,7 @@
         <v>4.066399999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>2.529023572715279</v>
+        <v>2.045015204636231</v>
       </c>
     </row>
     <row r="37">
@@ -847,7 +847,7 @@
         <v>1.1342</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7195001220584509</v>
+        <v>1.084178258166015</v>
       </c>
     </row>
     <row r="38">
@@ -858,7 +858,7 @@
         <v>0.07680000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3577426048355468</v>
+        <v>0.7044111884434593</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         <v>0.4</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4836085713472703</v>
+        <v>0.6197571348519643</v>
       </c>
     </row>
     <row r="40">
@@ -877,10 +877,10 @@
         <v>45379</v>
       </c>
       <c r="B40" t="n">
-        <v>2.816200000000001</v>
+        <v>2.8162</v>
       </c>
       <c r="C40" t="n">
-        <v>2.443940651348722</v>
+        <v>1.431616821679838</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4401050517341972</v>
+        <v>0.2586403404561218</v>
       </c>
     </row>
     <row r="42">
@@ -902,7 +902,7 @@
         <v>0.2765999999999997</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2670888042795101</v>
+        <v>0.1527197656395951</v>
       </c>
     </row>
     <row r="43">
@@ -913,7 +913,7 @@
         <v>1.4278</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9393220470776301</v>
+        <v>0.5299857849650195</v>
       </c>
     </row>
     <row r="44">
@@ -924,7 +924,7 @@
         <v>18.2</v>
       </c>
       <c r="C44" t="n">
-        <v>13.31113126958997</v>
+        <v>16.30259010770504</v>
       </c>
     </row>
     <row r="45">
@@ -935,7 +935,7 @@
         <v>1.2</v>
       </c>
       <c r="C45" t="n">
-        <v>1.367483617385149</v>
+        <v>1.039717441044447</v>
       </c>
     </row>
     <row r="46">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8609683811313067</v>
+        <v>0.5453079599521246</v>
       </c>
     </row>
     <row r="47">
@@ -957,7 +957,7 @@
         <v>5.6</v>
       </c>
       <c r="C47" t="n">
-        <v>4.453312721137998</v>
+        <v>4.179788024710025</v>
       </c>
     </row>
     <row r="48">
@@ -968,7 +968,7 @@
         <v>10.91919999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>7.215923719052551</v>
+        <v>9.745867931326616</v>
       </c>
     </row>
     <row r="49">
@@ -979,7 +979,7 @@
         <v>2.8</v>
       </c>
       <c r="C49" t="n">
-        <v>3.291163388990731</v>
+        <v>1.566917331481369</v>
       </c>
     </row>
     <row r="50">
@@ -990,7 +990,7 @@
         <v>2.420400000000003</v>
       </c>
       <c r="C50" t="n">
-        <v>1.379133869682236</v>
+        <v>1.245670787710538</v>
       </c>
     </row>
     <row r="51">
@@ -1001,7 +1001,7 @@
         <v>0.2008</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1793574035753956</v>
+        <v>0.3066961171474135</v>
       </c>
     </row>
     <row r="52">
@@ -1012,7 +1012,7 @@
         <v>1.898000000000002</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7735175840824573</v>
+        <v>0.6455763074456736</v>
       </c>
     </row>
     <row r="53">
@@ -1023,7 +1023,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>6.456946125454845</v>
+        <v>7.720269627646799</v>
       </c>
     </row>
     <row r="54">
@@ -1034,7 +1034,7 @@
         <v>0.7</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8255993420861545</v>
+        <v>0.4998919882643045</v>
       </c>
     </row>
     <row r="55">
@@ -1045,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="C55" t="n">
-        <v>30.95778639480021</v>
+        <v>38.28215600387651</v>
       </c>
     </row>
     <row r="56">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>2.227029887265597</v>
+        <v>1.613234898307919</v>
       </c>
     </row>
     <row r="57">
@@ -1067,7 +1067,7 @@
         <v>2.357000000000002</v>
       </c>
       <c r="C57" t="n">
-        <v>1.248297846212172</v>
+        <v>0.8717341835763645</v>
       </c>
     </row>
     <row r="58">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8678530298138135</v>
+        <v>0.4171622444076952</v>
       </c>
     </row>
     <row r="59">
@@ -1089,7 +1089,7 @@
         <v>2.695000000000002</v>
       </c>
       <c r="C59" t="n">
-        <v>1.3141143893212</v>
+        <v>1.307683318133873</v>
       </c>
     </row>
     <row r="60">
@@ -1097,10 +1097,10 @@
         <v>45399</v>
       </c>
       <c r="B60" t="n">
-        <v>8.909000000000004</v>
+        <v>8.909000000000002</v>
       </c>
       <c r="C60" t="n">
-        <v>7.124500726896922</v>
+        <v>6.170186439032583</v>
       </c>
     </row>
     <row r="61">
@@ -1111,7 +1111,7 @@
         <v>27.2</v>
       </c>
       <c r="C61" t="n">
-        <v>18.52869220021261</v>
+        <v>25.7551063442868</v>
       </c>
     </row>
     <row r="62">
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8604736231844357</v>
+        <v>0.7921734577215543</v>
       </c>
     </row>
     <row r="63">
@@ -1133,7 +1133,7 @@
         <v>0.9968000000000005</v>
       </c>
       <c r="C63" t="n">
-        <v>1.727966129234114</v>
+        <v>0.9890064518055082</v>
       </c>
     </row>
     <row r="64">
@@ -1144,7 +1144,7 @@
         <v>1.358000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7854885604169337</v>
+        <v>1.206310526488297</v>
       </c>
     </row>
     <row r="65">
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2339879933105576</v>
+        <v>0.2915912786049647</v>
       </c>
     </row>
     <row r="66">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1674015966807643</v>
+        <v>0.2415065726251077</v>
       </c>
     </row>
     <row r="67">
@@ -1174,10 +1174,10 @@
         <v>45406</v>
       </c>
       <c r="B67" t="n">
-        <v>4.856399999999991</v>
+        <v>4.85639999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>2.951197722636477</v>
+        <v>2.158708514345028</v>
       </c>
     </row>
     <row r="68">
@@ -1188,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>9.611870707237406</v>
+        <v>11.41596085912138</v>
       </c>
     </row>
     <row r="69">
@@ -1199,7 +1199,7 @@
         <v>0.4</v>
       </c>
       <c r="C69" t="n">
-        <v>1.26117521297328</v>
+        <v>1.038715226023015</v>
       </c>
     </row>
     <row r="70">
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9016089326970138</v>
+        <v>0.3733736171451056</v>
       </c>
     </row>
     <row r="71">
@@ -1221,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>1.210943376190445</v>
+        <v>1.140958610684812</v>
       </c>
     </row>
     <row r="72">
@@ -1232,7 +1232,7 @@
         <v>2.414200000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7789051704833738</v>
+        <v>1.214970496142836</v>
       </c>
     </row>
     <row r="73">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3278989751180277</v>
+        <v>0.1553164000777719</v>
       </c>
     </row>
     <row r="74">
@@ -1254,7 +1254,7 @@
         <v>0.7099999999999985</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3668057053739405</v>
+        <v>0.2133431214479643</v>
       </c>
     </row>
     <row r="75">
@@ -1265,7 +1265,7 @@
         <v>3.5744</v>
       </c>
       <c r="C75" t="n">
-        <v>2.178439882616618</v>
+        <v>2.683243057665502</v>
       </c>
     </row>
     <row r="76">
@@ -1276,7 +1276,7 @@
         <v>1.3502</v>
       </c>
       <c r="C76" t="n">
-        <v>1.099184740138803</v>
+        <v>0.7784726090892171</v>
       </c>
     </row>
     <row r="77">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2939573584483078</v>
+        <v>0.1139126993203458</v>
       </c>
     </row>
     <row r="78">
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2987237405057813</v>
+        <v>0.2743977110348296</v>
       </c>
     </row>
     <row r="79">
@@ -1309,7 +1309,7 @@
         <v>0.1792000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08458273115151207</v>
+        <v>-0.001974065579795024</v>
       </c>
     </row>
     <row r="80">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.09236160691188035</v>
+        <v>0.02688958480707343</v>
       </c>
     </row>
     <row r="81">
@@ -1331,7 +1331,7 @@
         <v>0.03199999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.08723561417171748</v>
+        <v>0.02494853747305611</v>
       </c>
     </row>
     <row r="82">
@@ -1339,10 +1339,10 @@
         <v>45421</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7907999999999989</v>
+        <v>0.7907999999999988</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4284461743390437</v>
+        <v>0.2656572922006607</v>
       </c>
     </row>
     <row r="83">
@@ -1353,7 +1353,7 @@
         <v>0.1442000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1600151564926377</v>
+        <v>0.09371343062825369</v>
       </c>
     </row>
     <row r="84">
@@ -1361,10 +1361,10 @@
         <v>45423</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8599999999999993</v>
+        <v>0.8599999999999992</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3336118355415417</v>
+        <v>0.4510198610822666</v>
       </c>
     </row>
     <row r="85">
@@ -1375,7 +1375,7 @@
         <v>1.612999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4740682987857903</v>
+        <v>0.5983541387389243</v>
       </c>
     </row>
     <row r="86">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2238448953639416</v>
+        <v>0.1422405655150197</v>
       </c>
     </row>
     <row r="87">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3392135051580237</v>
+        <v>0.3111873906873659</v>
       </c>
     </row>
     <row r="88">
@@ -1408,7 +1408,7 @@
         <v>28.5</v>
       </c>
       <c r="C88" t="n">
-        <v>16.06568811031737</v>
+        <v>14.93102335161636</v>
       </c>
     </row>
     <row r="89">
@@ -1419,7 +1419,7 @@
         <v>2.19</v>
       </c>
       <c r="C89" t="n">
-        <v>1.699060140895768</v>
+        <v>1.205380810648441</v>
       </c>
     </row>
     <row r="90">
@@ -1430,7 +1430,7 @@
         <v>1.184199999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>1.051133392482177</v>
+        <v>0.7006414772288583</v>
       </c>
     </row>
     <row r="91">
@@ -1441,7 +1441,7 @@
         <v>1.3106</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4898411954596417</v>
+        <v>0.8405280058105009</v>
       </c>
     </row>
     <row r="92">
@@ -1449,10 +1449,10 @@
         <v>45431</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5383999999999998</v>
+        <v>0.5383999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3285869609145832</v>
+        <v>0.3696970144413867</v>
       </c>
     </row>
     <row r="93">
@@ -1463,7 +1463,7 @@
         <v>0.07239999999999995</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212387104759946</v>
+        <v>0.2037162816921708</v>
       </c>
     </row>
     <row r="94">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1337123636806439</v>
+        <v>0.1264717083598084</v>
       </c>
     </row>
     <row r="95">
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0466531182008315</v>
+        <v>0.03615100037125758</v>
       </c>
     </row>
     <row r="96">
@@ -1496,7 +1496,7 @@
         <v>1.0882</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4878303798354734</v>
+        <v>0.5488047264691214</v>
       </c>
     </row>
     <row r="97">
@@ -1507,7 +1507,7 @@
         <v>11.27319999999998</v>
       </c>
       <c r="C97" t="n">
-        <v>8.139305870044291</v>
+        <v>10.22084832608223</v>
       </c>
     </row>
     <row r="98">
@@ -1518,7 +1518,7 @@
         <v>3.5</v>
       </c>
       <c r="C98" t="n">
-        <v>1.717399271054821</v>
+        <v>2.195244610730461</v>
       </c>
     </row>
     <row r="99">
@@ -1529,7 +1529,7 @@
         <v>2.1</v>
       </c>
       <c r="C99" t="n">
-        <v>1.993118207487616</v>
+        <v>1.821529292450004</v>
       </c>
     </row>
     <row r="100">
@@ -1540,7 +1540,7 @@
         <v>5.031000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>1.327134015958119</v>
+        <v>3.383916450340627</v>
       </c>
     </row>
     <row r="101">
@@ -1548,10 +1548,10 @@
         <v>45440</v>
       </c>
       <c r="B101" t="n">
-        <v>1.054</v>
+        <v>1.053999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4788114986459549</v>
+        <v>0.5244821014423006</v>
       </c>
     </row>
     <row r="102">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.380425967909126</v>
+        <v>0.1435848500535602</v>
       </c>
     </row>
     <row r="103">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2958573768142974</v>
+        <v>0.2120399821780956</v>
       </c>
     </row>
     <row r="104">
@@ -1584,7 +1584,7 @@
         <v>0.2232</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2698985428398682</v>
+        <v>0.09037979620695316</v>
       </c>
     </row>
     <row r="105">
@@ -1595,7 +1595,7 @@
         <v>1.674200000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>1.200301288137456</v>
+        <v>0.8000711468106938</v>
       </c>
     </row>
     <row r="106">
@@ -1606,7 +1606,7 @@
         <v>10.18079999999998</v>
       </c>
       <c r="C106" t="n">
-        <v>7.578466959456638</v>
+        <v>9.553785409454862</v>
       </c>
     </row>
     <row r="107">
@@ -1617,7 +1617,7 @@
         <v>1.5</v>
       </c>
       <c r="C107" t="n">
-        <v>1.437528624185664</v>
+        <v>1.02113997547631</v>
       </c>
     </row>
     <row r="108">
@@ -1628,7 +1628,7 @@
         <v>1.596400000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>1.286335102082026</v>
+        <v>1.122784094399479</v>
       </c>
     </row>
     <row r="109">
@@ -1639,7 +1639,7 @@
         <v>0.1066</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1389944021982633</v>
+        <v>0.1920722454175082</v>
       </c>
     </row>
     <row r="110">
@@ -1650,7 +1650,7 @@
         <v>0.1414</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2059776839541788</v>
+        <v>0.1978610913959096</v>
       </c>
     </row>
     <row r="111">
@@ -1658,10 +1658,10 @@
         <v>45450</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6435999999999998</v>
+        <v>0.6435999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2219373160115777</v>
+        <v>0.1365241873507446</v>
       </c>
     </row>
     <row r="112">
@@ -1672,7 +1672,7 @@
         <v>0.5381999999999992</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2824545629565736</v>
+        <v>0.1218243822639554</v>
       </c>
     </row>
     <row r="113">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.118341873159778</v>
+        <v>0.1163266133028314</v>
       </c>
     </row>
     <row r="114">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2251506910799048</v>
+        <v>0.1487631568634901</v>
       </c>
     </row>
     <row r="115">
@@ -1705,7 +1705,7 @@
         <v>5.196000000000002</v>
       </c>
       <c r="C115" t="n">
-        <v>2.920172200736571</v>
+        <v>3.734641205143113</v>
       </c>
     </row>
     <row r="116">
@@ -1716,7 +1716,7 @@
         <v>12.9</v>
       </c>
       <c r="C116" t="n">
-        <v>8.583090497425212</v>
+        <v>12.02309662285979</v>
       </c>
     </row>
     <row r="117">
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1.246192243244014</v>
+        <v>0.9328270799514802</v>
       </c>
     </row>
     <row r="118">
@@ -1735,10 +1735,10 @@
         <v>45457</v>
       </c>
       <c r="B118" t="n">
-        <v>5.380999999999999</v>
+        <v>5.380999999999998</v>
       </c>
       <c r="C118" t="n">
-        <v>1.95128097465611</v>
+        <v>3.539962986562004</v>
       </c>
     </row>
     <row r="119">
@@ -1749,7 +1749,7 @@
         <v>5.127000000000002</v>
       </c>
       <c r="C119" t="n">
-        <v>2.28496465529967</v>
+        <v>3.963182352705455</v>
       </c>
     </row>
     <row r="120">
@@ -1760,7 +1760,7 @@
         <v>65.59999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>55.20272296458242</v>
+        <v>63.24253213450186</v>
       </c>
     </row>
     <row r="121">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1.209806611000509</v>
+        <v>2.136626484792438</v>
       </c>
     </row>
     <row r="122">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1.335184178214734</v>
+        <v>0.9485365900223183</v>
       </c>
     </row>
     <row r="123">
@@ -1793,7 +1793,7 @@
         <v>2.395600000000005</v>
       </c>
       <c r="C123" t="n">
-        <v>1.557102932060422</v>
+        <v>1.406548538207989</v>
       </c>
     </row>
     <row r="124">
@@ -1804,7 +1804,7 @@
         <v>1.668</v>
       </c>
       <c r="C124" t="n">
-        <v>1.004812695643186</v>
+        <v>1.199025702017684</v>
       </c>
     </row>
     <row r="125">
@@ -1815,7 +1815,7 @@
         <v>0.2048</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3140802085066332</v>
+        <v>0.5180982860167629</v>
       </c>
     </row>
     <row r="126">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1323730185121866</v>
+        <v>0.1193779471748798</v>
       </c>
     </row>
     <row r="127">
@@ -1837,7 +1837,7 @@
         <v>2.615800000000005</v>
       </c>
       <c r="C127" t="n">
-        <v>1.584020407946352</v>
+        <v>2.203908366244654</v>
       </c>
     </row>
     <row r="128">
@@ -1848,7 +1848,7 @@
         <v>0.3514</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3554723291892334</v>
+        <v>0.3756009628895112</v>
       </c>
     </row>
     <row r="129">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5027764663263958</v>
+        <v>0.2033278881135396</v>
       </c>
     </row>
     <row r="130">
@@ -1870,7 +1870,7 @@
         <v>24</v>
       </c>
       <c r="C130" t="n">
-        <v>18.64459233436538</v>
+        <v>20.70890995553858</v>
       </c>
     </row>
     <row r="131">
@@ -1881,7 +1881,7 @@
         <v>4.645199999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>2.530438933981107</v>
+        <v>2.587972077564997</v>
       </c>
     </row>
     <row r="132">
@@ -1892,7 +1892,7 @@
         <v>2.5</v>
       </c>
       <c r="C132" t="n">
-        <v>1.249230906586856</v>
+        <v>1.526494002204984</v>
       </c>
     </row>
     <row r="133">
@@ -1900,10 +1900,10 @@
         <v>45472</v>
       </c>
       <c r="B133" t="n">
-        <v>9.608399999999973</v>
+        <v>9.608399999999971</v>
       </c>
       <c r="C133" t="n">
-        <v>7.41950584529093</v>
+        <v>8.632910396310534</v>
       </c>
     </row>
     <row r="134">
@@ -1914,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>1.962928783972018</v>
+        <v>2.422439512021541</v>
       </c>
     </row>
     <row r="135">
@@ -1925,7 +1925,7 @@
         <v>0.6424000000000003</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9623586076492497</v>
+        <v>0.687112186184676</v>
       </c>
     </row>
     <row r="136">
@@ -1936,7 +1936,7 @@
         <v>0.6</v>
       </c>
       <c r="C136" t="n">
-        <v>1.26243258824753</v>
+        <v>0.5758630537367764</v>
       </c>
     </row>
     <row r="137">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2802272844322165</v>
+        <v>0.2495607560151778</v>
       </c>
     </row>
     <row r="138">
@@ -1958,7 +1958,7 @@
         <v>2.5</v>
       </c>
       <c r="C138" t="n">
-        <v>1.836945744590475</v>
+        <v>1.739534014305981</v>
       </c>
     </row>
     <row r="139">
@@ -1969,7 +1969,7 @@
         <v>14.5</v>
       </c>
       <c r="C139" t="n">
-        <v>13.51839263257795</v>
+        <v>14.44807231358188</v>
       </c>
     </row>
     <row r="140">
@@ -1980,7 +1980,7 @@
         <v>15.3</v>
       </c>
       <c r="C140" t="n">
-        <v>9.83381286592086</v>
+        <v>12.98134794557351</v>
       </c>
     </row>
     <row r="141">
@@ -1991,7 +1991,7 @@
         <v>49.3</v>
       </c>
       <c r="C141" t="n">
-        <v>38.38960154305387</v>
+        <v>44.05554010189781</v>
       </c>
     </row>
     <row r="142">
@@ -2002,7 +2002,7 @@
         <v>3.752999999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>2.542052947412998</v>
+        <v>2.653685495101478</v>
       </c>
     </row>
     <row r="143">
@@ -2013,7 +2013,7 @@
         <v>54</v>
       </c>
       <c r="C143" t="n">
-        <v>16.73146310563236</v>
+        <v>40.24969195528847</v>
       </c>
     </row>
     <row r="144">
@@ -2024,7 +2024,7 @@
         <v>1.6</v>
       </c>
       <c r="C144" t="n">
-        <v>3.493336041019738</v>
+        <v>2.821618828387798</v>
       </c>
     </row>
     <row r="145">
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9285589133752102</v>
+        <v>1.092938320958485</v>
       </c>
     </row>
     <row r="146">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2738596459027469</v>
+        <v>0.5621722556103705</v>
       </c>
     </row>
     <row r="147">
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>0.2393366427844759</v>
       </c>
     </row>
     <row r="148">
@@ -2277,7 +2277,7 @@
         <v>2.324199999999997</v>
       </c>
       <c r="C167" t="n">
-        <v>1.52275527386771</v>
+        <v>1.561719136244821</v>
       </c>
     </row>
     <row r="168">
@@ -2288,7 +2288,7 @@
         <v>2.6</v>
       </c>
       <c r="C168" t="n">
-        <v>1.235550904159137</v>
+        <v>1.232184876668164</v>
       </c>
     </row>
     <row r="169">
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>0.1318803907736459</v>
       </c>
     </row>
     <row r="170">
@@ -2310,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9420113546506613</v>
+        <v>2.890340375182223</v>
       </c>
     </row>
     <row r="171">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.426288731367116</v>
+        <v>0.3215291650774721</v>
       </c>
     </row>
     <row r="172">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6408029886912773</v>
+        <v>0.2629756287827896</v>
       </c>
     </row>
     <row r="173">
@@ -2706,7 +2706,7 @@
         <v>22.4</v>
       </c>
       <c r="C206" t="n">
-        <v>15.18825903852622</v>
+        <v>19.03472252769141</v>
       </c>
     </row>
     <row r="207">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1.636214880194081</v>
+        <v>1.42997770898589</v>
       </c>
     </row>
     <row r="208">
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.3718975690983943</v>
+        <v>0.3206143358874061</v>
       </c>
     </row>
     <row r="209">
@@ -2739,7 +2739,7 @@
         <v>48.7</v>
       </c>
       <c r="C209" t="n">
-        <v>34.41012249083435</v>
+        <v>42.47813576907429</v>
       </c>
     </row>
     <row r="210">
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>2.68677851102414</v>
+        <v>1.793982219579171</v>
       </c>
     </row>
     <row r="211">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1.119394029381813</v>
+        <v>1.273719678581868</v>
       </c>
     </row>
     <row r="212">
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="C221" t="n">
-        <v>1.591545474075482</v>
+        <v>1.344026007263776</v>
       </c>
     </row>
     <row r="222">
@@ -2882,7 +2882,7 @@
         <v>44.4</v>
       </c>
       <c r="C222" t="n">
-        <v>46.81361812035662</v>
+        <v>41.52472587142381</v>
       </c>
     </row>
     <row r="223">
@@ -2893,7 +2893,7 @@
         <v>55</v>
       </c>
       <c r="C223" t="n">
-        <v>13.10330745025692</v>
+        <v>23.22636590604153</v>
       </c>
     </row>
     <row r="224">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>3.685979481572472</v>
+        <v>2.755770689563129</v>
       </c>
     </row>
     <row r="225">
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0.7205451495653638</v>
+        <v>0.4747468042449155</v>
       </c>
     </row>
     <row r="226">
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>0.3750060144791527</v>
       </c>
     </row>
     <row r="228">
@@ -2992,7 +2992,7 @@
         <v>0.05840000000000001</v>
       </c>
       <c r="C232" t="n">
-        <v>0.02952810728501051</v>
+        <v>0.01770897584416606</v>
       </c>
     </row>
     <row r="233">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>0.03363351840964219</v>
+        <v>0.03037895048656978</v>
       </c>
     </row>
     <row r="234">
@@ -3091,7 +3091,7 @@
         <v>2.2</v>
       </c>
       <c r="C241" t="n">
-        <v>0.8931289526709324</v>
+        <v>0.9710195438308649</v>
       </c>
     </row>
     <row r="242">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0.2431935503778737</v>
+        <v>0.05439113043733142</v>
       </c>
     </row>
     <row r="243">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0.3098531128316552</v>
+        <v>0.253696237166175</v>
       </c>
     </row>
     <row r="244">
@@ -3190,7 +3190,7 @@
         <v>46.6</v>
       </c>
       <c r="C250" t="n">
-        <v>20.21157552359798</v>
+        <v>27.85888882136117</v>
       </c>
     </row>
     <row r="251">
@@ -3201,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="C251" t="n">
-        <v>6.331284094328799</v>
+        <v>5.495089906007141</v>
       </c>
     </row>
     <row r="252">
@@ -3212,7 +3212,7 @@
         <v>7.6</v>
       </c>
       <c r="C252" t="n">
-        <v>2.683076296644255</v>
+        <v>5.153997647485515</v>
       </c>
     </row>
     <row r="253">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>0.29732602079634</v>
+        <v>0.4623430111606936</v>
       </c>
     </row>
     <row r="254">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>0.2461033445301591</v>
+        <v>0.4472773570764203</v>
       </c>
     </row>
     <row r="255">
@@ -3300,7 +3300,7 @@
         <v>24.5</v>
       </c>
       <c r="C260" t="n">
-        <v>17.28997255670873</v>
+        <v>20.89834260307443</v>
       </c>
     </row>
     <row r="261">
@@ -3311,7 +3311,7 @@
         <v>18.4</v>
       </c>
       <c r="C261" t="n">
-        <v>12.4275534552017</v>
+        <v>17.33367834013766</v>
       </c>
     </row>
     <row r="262">
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>4.457037928288845</v>
+        <v>1.245171479608732</v>
       </c>
     </row>
     <row r="263">
@@ -3333,7 +3333,7 @@
         <v>14.5</v>
       </c>
       <c r="C263" t="n">
-        <v>4.512158410866283</v>
+        <v>9.379288365197784</v>
       </c>
     </row>
     <row r="264">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>0.3668928117215023</v>
+        <v>0.2847782915587904</v>
       </c>
     </row>
     <row r="265">
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>0.5812440314152331</v>
+        <v>0.3655851381228979</v>
       </c>
     </row>
     <row r="266">
@@ -3399,7 +3399,7 @@
         <v>5.6</v>
       </c>
       <c r="C269" t="n">
-        <v>4.641716992617974</v>
+        <v>3.982998226857402</v>
       </c>
     </row>
     <row r="270">
@@ -3410,7 +3410,7 @@
         <v>1.2</v>
       </c>
       <c r="C270" t="n">
-        <v>0.5093007672933693</v>
+        <v>0.49658904173352</v>
       </c>
     </row>
     <row r="271">
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>0.4479133078355763</v>
+        <v>0.2884160067110173</v>
       </c>
     </row>
     <row r="272">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>0.09505983358464054</v>
+        <v>0.08790212585829572</v>
       </c>
     </row>
     <row r="273">
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>0.4767828952468427</v>
+        <v>0.3239880398008</v>
       </c>
     </row>
     <row r="274">
@@ -3454,7 +3454,7 @@
         <v>7.2</v>
       </c>
       <c r="C274" t="n">
-        <v>5.679610029880454</v>
+        <v>6.27750153330837</v>
       </c>
     </row>
     <row r="275">
@@ -3465,7 +3465,7 @@
         <v>17.8</v>
       </c>
       <c r="C275" t="n">
-        <v>12.418823580767</v>
+        <v>16.46143109936445</v>
       </c>
     </row>
     <row r="276">
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>1.463735949496049</v>
+        <v>0.9230442419126113</v>
       </c>
     </row>
     <row r="277">
@@ -3487,7 +3487,7 @@
         <v>8</v>
       </c>
       <c r="C277" t="n">
-        <v>2.746074866734964</v>
+        <v>4.987727003643408</v>
       </c>
     </row>
     <row r="278">
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>0.4964023647800932</v>
+        <v>0.3597143183352305</v>
       </c>
     </row>
     <row r="279">
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1.716172559006931</v>
+        <v>1.028308106914072</v>
       </c>
     </row>
     <row r="280">
@@ -3564,7 +3564,7 @@
         <v>1.6</v>
       </c>
       <c r="C284" t="n">
-        <v>0.8890908294057369</v>
+        <v>0.9627340968902265</v>
       </c>
     </row>
     <row r="285">
@@ -3575,7 +3575,7 @@
         <v>50</v>
       </c>
       <c r="C285" t="n">
-        <v>28.31002933928385</v>
+        <v>42.08621866275114</v>
       </c>
     </row>
     <row r="286">
@@ -3586,7 +3586,7 @@
         <v>0.6</v>
       </c>
       <c r="C286" t="n">
-        <v>1.275635810603502</v>
+        <v>1.604907529055162</v>
       </c>
     </row>
     <row r="287">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>2.045641049055012</v>
+        <v>1.621931165348038</v>
       </c>
     </row>
     <row r="288">
@@ -3608,7 +3608,7 @@
         <v>0.6</v>
       </c>
       <c r="C288" t="n">
-        <v>0.2761982592554214</v>
+        <v>0.6712299684686843</v>
       </c>
     </row>
     <row r="289">
@@ -3619,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="C289" t="n">
-        <v>2.657535300752173</v>
+        <v>2.931282620277729</v>
       </c>
     </row>
     <row r="290">
@@ -3630,7 +3630,7 @@
         <v>26</v>
       </c>
       <c r="C290" t="n">
-        <v>17.82632184865015</v>
+        <v>18.45751633854201</v>
       </c>
     </row>
     <row r="291">
@@ -3641,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="C291" t="n">
-        <v>7.443636201441368</v>
+        <v>3.077889628001635</v>
       </c>
     </row>
     <row r="292">
@@ -3652,7 +3652,7 @@
         <v>10.4</v>
       </c>
       <c r="C292" t="n">
-        <v>7.489678010784725</v>
+        <v>8.233392638017648</v>
       </c>
     </row>
     <row r="293">
@@ -3663,7 +3663,7 @@
         <v>48.2</v>
       </c>
       <c r="C293" t="n">
-        <v>40.90999349769098</v>
+        <v>44.56862780826425</v>
       </c>
     </row>
     <row r="294">
@@ -3674,7 +3674,7 @@
         <v>22.86099999999998</v>
       </c>
       <c r="C294" t="n">
-        <v>14.99832991635627</v>
+        <v>19.14047118950731</v>
       </c>
     </row>
     <row r="295">
@@ -3685,7 +3685,7 @@
         <v>30.4</v>
       </c>
       <c r="C295" t="n">
-        <v>16.13205732458292</v>
+        <v>27.68221157630722</v>
       </c>
     </row>
     <row r="296">
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>2.223489656370057</v>
+        <v>2.242862506286929</v>
       </c>
     </row>
     <row r="297">
@@ -3707,7 +3707,7 @@
         <v>26</v>
       </c>
       <c r="C297" t="n">
-        <v>12.30257754170092</v>
+        <v>20.58506811378585</v>
       </c>
     </row>
     <row r="298">
@@ -3718,7 +3718,7 @@
         <v>0.7</v>
       </c>
       <c r="C298" t="n">
-        <v>1.958823598229363</v>
+        <v>1.835088336516279</v>
       </c>
     </row>
     <row r="299">
@@ -3729,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>2.36791852877378</v>
+        <v>1.836595443665833</v>
       </c>
     </row>
     <row r="300">
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>0.2202041567757997</v>
+        <v>0.04557001922499279</v>
       </c>
     </row>
     <row r="301">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>0.2739004430870013</v>
+        <v>0.4442836899371124</v>
       </c>
     </row>
     <row r="302">
@@ -3773,7 +3773,7 @@
         <v>18.5</v>
       </c>
       <c r="C303" t="n">
-        <v>14.36891156733539</v>
+        <v>16.91009744802886</v>
       </c>
     </row>
     <row r="304">
@@ -3784,7 +3784,7 @@
         <v>6.5</v>
       </c>
       <c r="C304" t="n">
-        <v>4.657333559388183</v>
+        <v>3.88064572439371</v>
       </c>
     </row>
     <row r="305">
@@ -3795,7 +3795,7 @@
         <v>10.02500000000002</v>
       </c>
       <c r="C305" t="n">
-        <v>4.036324389915783</v>
+        <v>7.641974339976432</v>
       </c>
     </row>
     <row r="306">
@@ -3806,7 +3806,7 @@
         <v>1.2</v>
       </c>
       <c r="C306" t="n">
-        <v>1.250277420449292</v>
+        <v>0.7727363666224208</v>
       </c>
     </row>
     <row r="307">
@@ -3817,7 +3817,7 @@
         <v>56</v>
       </c>
       <c r="C307" t="n">
-        <v>43.94439441605036</v>
+        <v>52.94532572995382</v>
       </c>
     </row>
     <row r="308">
@@ -3828,7 +3828,7 @@
         <v>10.2</v>
       </c>
       <c r="C308" t="n">
-        <v>5.132752619443408</v>
+        <v>7.841226813671784</v>
       </c>
     </row>
     <row r="309">
@@ -3839,7 +3839,7 @@
         <v>19</v>
       </c>
       <c r="C309" t="n">
-        <v>21.79112799999798</v>
+        <v>18.55103206342853</v>
       </c>
     </row>
     <row r="310">
@@ -3850,7 +3850,7 @@
         <v>43.8</v>
       </c>
       <c r="C310" t="n">
-        <v>31.13094015200135</v>
+        <v>34.89700895580976</v>
       </c>
     </row>
     <row r="311">
@@ -3861,7 +3861,7 @@
         <v>17</v>
       </c>
       <c r="C311" t="n">
-        <v>13.80899862762778</v>
+        <v>10.53977981722868</v>
       </c>
     </row>
     <row r="312">
@@ -3872,7 +3872,7 @@
         <v>3.4</v>
       </c>
       <c r="C312" t="n">
-        <v>7.582610355585874</v>
+        <v>5.701092947892421</v>
       </c>
     </row>
     <row r="313">
@@ -3883,7 +3883,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C313" t="n">
-        <v>3.201951529732676</v>
+        <v>4.351762904825677</v>
       </c>
     </row>
     <row r="314">
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>0.6637561788948826</v>
+        <v>0.8491215428015569</v>
       </c>
     </row>
     <row r="315">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.4239719979702952</v>
+        <v>0.2454534054154261</v>
       </c>
     </row>
     <row r="316">
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9024412126399916</v>
+        <v>0.607056786485893</v>
       </c>
     </row>
     <row r="318">
@@ -3938,7 +3938,7 @@
         <v>1.6</v>
       </c>
       <c r="C318" t="n">
-        <v>0.8772968922584304</v>
+        <v>0.7301506240116171</v>
       </c>
     </row>
     <row r="319">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1857549564486742</v>
+        <v>0.08952742853309156</v>
       </c>
     </row>
     <row r="320">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>0.17022477252922</v>
+        <v>0.2183959019750192</v>
       </c>
     </row>
     <row r="321">
@@ -4004,7 +4004,7 @@
         <v>18.4</v>
       </c>
       <c r="C324" t="n">
-        <v>14.94950485444573</v>
+        <v>16.14145439499359</v>
       </c>
     </row>
     <row r="325">
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>0.7819970543219255</v>
+        <v>0.6332850975838504</v>
       </c>
     </row>
     <row r="326">
@@ -4026,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="C326" t="n">
-        <v>4.95075271249171</v>
+        <v>6.792558457222065</v>
       </c>
     </row>
     <row r="327">
@@ -4037,7 +4037,7 @@
         <v>71</v>
       </c>
       <c r="C327" t="n">
-        <v>75.57031646501649</v>
+        <v>77.31880982417084</v>
       </c>
     </row>
     <row r="328">
@@ -4048,7 +4048,7 @@
         <v>6.5</v>
       </c>
       <c r="C328" t="n">
-        <v>5.277796365558123</v>
+        <v>6.507545647751337</v>
       </c>
     </row>
     <row r="329">
@@ -4059,7 +4059,7 @@
         <v>23.2</v>
       </c>
       <c r="C329" t="n">
-        <v>8.499471643876312</v>
+        <v>19.07597483105292</v>
       </c>
     </row>
     <row r="330">
@@ -4070,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="C330" t="n">
-        <v>2.011029131461041</v>
+        <v>1.37743333569209</v>
       </c>
     </row>
     <row r="331">
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>0.8744705742933337</v>
+        <v>0.8949960798920488</v>
       </c>
     </row>
     <row r="332">
@@ -4092,7 +4092,7 @@
         <v>29.2</v>
       </c>
       <c r="C332" t="n">
-        <v>18.88821976389665</v>
+        <v>13.56448019271543</v>
       </c>
     </row>
     <row r="333">
@@ -4103,7 +4103,7 @@
         <v>18</v>
       </c>
       <c r="C333" t="n">
-        <v>11.19286342695283</v>
+        <v>9.295634571708355</v>
       </c>
     </row>
     <row r="334">
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>4.067089679291132</v>
+        <v>1.525554813849824</v>
       </c>
     </row>
     <row r="335">
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>0.8881330682282116</v>
+        <v>0.405306025391147</v>
       </c>
     </row>
     <row r="336">
@@ -4136,7 +4136,7 @@
         <v>38.5</v>
       </c>
       <c r="C336" t="n">
-        <v>31.43822670634469</v>
+        <v>43.26891095069099</v>
       </c>
     </row>
     <row r="337">
@@ -4147,7 +4147,7 @@
         <v>6.4</v>
       </c>
       <c r="C337" t="n">
-        <v>4.175300728848882</v>
+        <v>4.074085872761978</v>
       </c>
     </row>
     <row r="338">
@@ -4158,7 +4158,7 @@
         <v>29.2</v>
       </c>
       <c r="C338" t="n">
-        <v>14.62236861557167</v>
+        <v>29.80672885202029</v>
       </c>
     </row>
     <row r="339">
@@ -4169,7 +4169,7 @@
         <v>60</v>
       </c>
       <c r="C339" t="n">
-        <v>53.33131551617534</v>
+        <v>46.03799646589688</v>
       </c>
     </row>
     <row r="340">
@@ -4180,7 +4180,7 @@
         <v>22.1</v>
       </c>
       <c r="C340" t="n">
-        <v>8.733785564883108</v>
+        <v>24.00625891528487</v>
       </c>
     </row>
     <row r="341">
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>10.8159131460316</v>
+        <v>3.543909216701193</v>
       </c>
     </row>
     <row r="342">
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>2.218070391421666</v>
+        <v>2.915838068254042</v>
       </c>
     </row>
     <row r="343">
@@ -4213,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="C343" t="n">
-        <v>2.024122701657882</v>
+        <v>1.30055490737055</v>
       </c>
     </row>
     <row r="344">
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>0.4250994947376371</v>
+        <v>0.444198917395814</v>
       </c>
     </row>
     <row r="345">
@@ -4235,7 +4235,7 @@
         <v>0.5</v>
       </c>
       <c r="C345" t="n">
-        <v>1.029948511238102</v>
+        <v>0.7838560711433958</v>
       </c>
     </row>
     <row r="346">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>0.3054561113447251</v>
+        <v>0.171003297478605</v>
       </c>
     </row>
     <row r="347">
@@ -4257,7 +4257,7 @@
         <v>184.8</v>
       </c>
       <c r="C347" t="n">
-        <v>132.1886885957674</v>
+        <v>165.7413189663575</v>
       </c>
     </row>
     <row r="348">
@@ -4268,7 +4268,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="C348" t="n">
-        <v>37.61541915616866</v>
+        <v>16.25565176785572</v>
       </c>
     </row>
     <row r="349">
@@ -4279,7 +4279,7 @@
         <v>9.5</v>
       </c>
       <c r="C349" t="n">
-        <v>35.89735894214401</v>
+        <v>18.42410316024349</v>
       </c>
     </row>
     <row r="350">
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>3.021565835656255</v>
+        <v>3.563204748419143</v>
       </c>
     </row>
     <row r="351">
@@ -4301,7 +4301,7 @@
         <v>1.3</v>
       </c>
       <c r="C351" t="n">
-        <v>2.013902202222221</v>
+        <v>5.32491062177347</v>
       </c>
     </row>
     <row r="352">
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>0.4372566253579345</v>
+        <v>0.2058316262282203</v>
       </c>
     </row>
     <row r="353">
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>0.425176454860188</v>
+        <v>0.5760313849751294</v>
       </c>
     </row>
     <row r="354">
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0.8657112379358246</v>
+        <v>0.8551239474195153</v>
       </c>
     </row>
     <row r="355">
@@ -4345,7 +4345,7 @@
         <v>13.8</v>
       </c>
       <c r="C355" t="n">
-        <v>7.777280893511946</v>
+        <v>9.010422933095773</v>
       </c>
     </row>
     <row r="356">
@@ -4356,7 +4356,7 @@
         <v>8.4</v>
       </c>
       <c r="C356" t="n">
-        <v>5.079224022739473</v>
+        <v>5.587890011077007</v>
       </c>
     </row>
     <row r="357">
@@ -4367,7 +4367,7 @@
         <v>75.3</v>
       </c>
       <c r="C357" t="n">
-        <v>69.32573650758391</v>
+        <v>82.4317384373924</v>
       </c>
     </row>
     <row r="358">
@@ -4378,7 +4378,7 @@
         <v>0.3</v>
       </c>
       <c r="C358" t="n">
-        <v>2.422829163388695</v>
+        <v>2.231647635822449</v>
       </c>
     </row>
     <row r="359">
@@ -4389,7 +4389,7 @@
         <v>1.7</v>
       </c>
       <c r="C359" t="n">
-        <v>3.370194313123663</v>
+        <v>2.241971422221583</v>
       </c>
     </row>
     <row r="360">
@@ -4400,7 +4400,7 @@
         <v>1.1</v>
       </c>
       <c r="C360" t="n">
-        <v>0.8070674288308047</v>
+        <v>1.849088641601695</v>
       </c>
     </row>
     <row r="361">
@@ -4411,7 +4411,7 @@
         <v>0.8</v>
       </c>
       <c r="C361" t="n">
-        <v>0.8535237519060742</v>
+        <v>0.9710428150394389</v>
       </c>
     </row>
     <row r="362">
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>0.2441833408733753</v>
+        <v>0.2939572954506143</v>
       </c>
     </row>
     <row r="363">
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>0.4483054115185989</v>
+        <v>0.2721754772356318</v>
       </c>
     </row>
     <row r="364">
@@ -4441,10 +4441,10 @@
         <v>45703</v>
       </c>
       <c r="B364" t="n">
-        <v>1.216</v>
+        <v>1.216000000000001</v>
       </c>
       <c r="C364" t="n">
-        <v>0.5760125273411518</v>
+        <v>0.5800068998285882</v>
       </c>
     </row>
     <row r="365">
@@ -4455,7 +4455,7 @@
         <v>1.6</v>
       </c>
       <c r="C365" t="n">
-        <v>0.5025023195836387</v>
+        <v>0.7529391346911546</v>
       </c>
     </row>
     <row r="366">
@@ -4466,7 +4466,7 @@
         <v>0.6</v>
       </c>
       <c r="C366" t="n">
-        <v>0.6404385811306669</v>
+        <v>0.506392565551506</v>
       </c>
     </row>
     <row r="367">
@@ -4477,7 +4477,7 @@
         <v>27.9</v>
       </c>
       <c r="C367" t="n">
-        <v>24.15829189556657</v>
+        <v>26.61860326103116</v>
       </c>
     </row>
     <row r="368">
@@ -4488,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="C368" t="n">
-        <v>4.424879342464146</v>
+        <v>3.422680306233731</v>
       </c>
     </row>
     <row r="369">
@@ -4499,7 +4499,7 @@
         <v>18.6</v>
       </c>
       <c r="C369" t="n">
-        <v>8.884278094080706</v>
+        <v>14.60663283396978</v>
       </c>
     </row>
     <row r="370">
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>3.666444815022804</v>
+        <v>0.9600342283044742</v>
       </c>
     </row>
     <row r="371">
@@ -4521,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="C371" t="n">
-        <v>1.733470678816821</v>
+        <v>1.355850700257291</v>
       </c>
     </row>
     <row r="372">
@@ -4532,7 +4532,7 @@
         <v>5.5</v>
       </c>
       <c r="C372" t="n">
-        <v>4.101036112416079</v>
+        <v>2.416516623700797</v>
       </c>
     </row>
     <row r="373">
@@ -4543,7 +4543,7 @@
         <v>87.7</v>
       </c>
       <c r="C373" t="n">
-        <v>84.27749564102434</v>
+        <v>81.23392955717704</v>
       </c>
     </row>
     <row r="374">
@@ -4554,7 +4554,7 @@
         <v>0.2</v>
       </c>
       <c r="C374" t="n">
-        <v>4.807252784871398</v>
+        <v>2.366394728920156</v>
       </c>
     </row>
     <row r="375">
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>8.455699216528096</v>
+        <v>3.422405019568459</v>
       </c>
     </row>
     <row r="376">
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>0.3822820334530155</v>
+        <v>0.9000637291636452</v>
       </c>
     </row>
     <row r="377">
@@ -4587,7 +4587,7 @@
         <v>8.4</v>
       </c>
       <c r="C377" t="n">
-        <v>6.785473763994365</v>
+        <v>5.223814283626638</v>
       </c>
     </row>
     <row r="378">
@@ -4598,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="C378" t="n">
-        <v>1.258974308911363</v>
+        <v>0.6050067784458325</v>
       </c>
     </row>
     <row r="379">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>0.7457666660360934</v>
+        <v>0.2581198235111491</v>
       </c>
     </row>
     <row r="380">
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>0.518131217055492</v>
+        <v>0.4458327837090991</v>
       </c>
     </row>
     <row r="381">
@@ -4631,7 +4631,7 @@
         <v>40.5</v>
       </c>
       <c r="C381" t="n">
-        <v>34.14796453637601</v>
+        <v>42.2974253023508</v>
       </c>
     </row>
     <row r="382">
@@ -4642,7 +4642,7 @@
         <v>11.31319999999999</v>
       </c>
       <c r="C382" t="n">
-        <v>4.325867200836064</v>
+        <v>6.859186667520731</v>
       </c>
     </row>
     <row r="383">
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1.115981245158275</v>
+        <v>0.8747218990637218</v>
       </c>
     </row>
     <row r="384">
@@ -4664,7 +4664,7 @@
         <v>6.252</v>
       </c>
       <c r="C384" t="n">
-        <v>2.661277886219407</v>
+        <v>3.748126556426752</v>
       </c>
     </row>
     <row r="385">
@@ -4675,7 +4675,7 @@
         <v>2.266599999999998</v>
       </c>
       <c r="C385" t="n">
-        <v>0.8353528419681725</v>
+        <v>0.7884804770922533</v>
       </c>
     </row>
     <row r="386">
@@ -4686,7 +4686,7 @@
         <v>1.857600000000001</v>
       </c>
       <c r="C386" t="n">
-        <v>1.337091233206127</v>
+        <v>1.240181925242024</v>
       </c>
     </row>
     <row r="387">
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>1.027263616048875</v>
+        <v>0.6302420655724978</v>
       </c>
     </row>
     <row r="388">
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>0.4882290740314703</v>
+        <v>0.3203703618194015</v>
       </c>
     </row>
     <row r="389">
@@ -4752,7 +4752,7 @@
         <v>1.3</v>
       </c>
       <c r="C392" t="n">
-        <v>0.5470329809670673</v>
+        <v>0.5175549088131306</v>
       </c>
     </row>
     <row r="393">
@@ -4763,7 +4763,7 @@
         <v>0.6</v>
       </c>
       <c r="C393" t="n">
-        <v>0.470009765600381</v>
+        <v>0.3328535841109526</v>
       </c>
     </row>
     <row r="394">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>0.1760064792866829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -4785,7 +4785,7 @@
         <v>23.1</v>
       </c>
       <c r="C395" t="n">
-        <v>17.99220114021198</v>
+        <v>20.38754700810591</v>
       </c>
     </row>
     <row r="396">
@@ -4796,7 +4796,7 @@
         <v>1.3</v>
       </c>
       <c r="C396" t="n">
-        <v>2.792610798723456</v>
+        <v>1.555575624666147</v>
       </c>
     </row>
     <row r="397">
@@ -4807,7 +4807,7 @@
         <v>6</v>
       </c>
       <c r="C397" t="n">
-        <v>2.600479363072186</v>
+        <v>3.975608582964921</v>
       </c>
     </row>
     <row r="398">
@@ -4818,7 +4818,7 @@
         <v>1.4</v>
       </c>
       <c r="C398" t="n">
-        <v>0.3122197391667153</v>
+        <v>0.6022862605400658</v>
       </c>
     </row>
     <row r="399">
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1.166274498793545</v>
+        <v>0.4724066086000415</v>
       </c>
     </row>
     <row r="400">
@@ -4840,7 +4840,7 @@
         <v>20.3</v>
       </c>
       <c r="C400" t="n">
-        <v>14.66508365565722</v>
+        <v>13.63577005587508</v>
       </c>
     </row>
     <row r="401">
@@ -4851,7 +4851,7 @@
         <v>1.2</v>
       </c>
       <c r="C401" t="n">
-        <v>2.731198023223357</v>
+        <v>1.69446489311879</v>
       </c>
     </row>
     <row r="402">
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>2.616041738696882</v>
+        <v>1.087004540687561</v>
       </c>
     </row>
     <row r="403">
@@ -4873,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0.5815221241108932</v>
+        <v>0.7281507769894945</v>
       </c>
     </row>
     <row r="404">
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>0.2828301790168896</v>
+        <v>0.2688819340021832</v>
       </c>
     </row>
     <row r="405">
@@ -4895,7 +4895,7 @@
         <v>5.4</v>
       </c>
       <c r="C405" t="n">
-        <v>4.797074598332705</v>
+        <v>3.45966997818256</v>
       </c>
     </row>
     <row r="406">
@@ -4906,7 +4906,7 @@
         <v>0.3</v>
       </c>
       <c r="C406" t="n">
-        <v>0.8292237553303556</v>
+        <v>0.4473927979008638</v>
       </c>
     </row>
     <row r="407">
@@ -4914,10 +4914,10 @@
         <v>45746</v>
       </c>
       <c r="B407" t="n">
-        <v>8.857200000000001</v>
+        <v>8.857200000000002</v>
       </c>
       <c r="C407" t="n">
-        <v>3.712588874852294</v>
+        <v>6.943014356141123</v>
       </c>
     </row>
     <row r="408">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>0.6300659447641607</v>
+        <v>0.2848970066361801</v>
       </c>
     </row>
     <row r="409">
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>1.080328770501538</v>
+        <v>0.7121999444439068</v>
       </c>
     </row>
     <row r="410">
@@ -4950,7 +4950,7 @@
         <v>5.8</v>
       </c>
       <c r="C410" t="n">
-        <v>4.413452203805487</v>
+        <v>5.243367739247883</v>
       </c>
     </row>
     <row r="411">
@@ -4961,7 +4961,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C411" t="n">
-        <v>6.636336830038688</v>
+        <v>7.26067671438221</v>
       </c>
     </row>
     <row r="412">
@@ -4972,7 +4972,7 @@
         <v>5.9</v>
       </c>
       <c r="C412" t="n">
-        <v>5.057459504537198</v>
+        <v>4.063788765672195</v>
       </c>
     </row>
     <row r="413">
@@ -4983,7 +4983,7 @@
         <v>6.650999999999996</v>
       </c>
       <c r="C413" t="n">
-        <v>3.168207343250587</v>
+        <v>7.156261783346226</v>
       </c>
     </row>
     <row r="414">
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1.084932334574606</v>
+        <v>0.661695414410578</v>
       </c>
     </row>
     <row r="415">
@@ -5005,7 +5005,7 @@
         <v>43</v>
       </c>
       <c r="C415" t="n">
-        <v>35.03795838796507</v>
+        <v>40.36526150872548</v>
       </c>
     </row>
     <row r="416">
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>2.431282787210318</v>
+        <v>1.7557316041782</v>
       </c>
     </row>
     <row r="417">
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1.444607712428823</v>
+        <v>1.100000455546556</v>
       </c>
     </row>
     <row r="418">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>0.2507719611982169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -5071,7 +5071,7 @@
         <v>11.1</v>
       </c>
       <c r="C421" t="n">
-        <v>7.005829828241189</v>
+        <v>5.879399782794679</v>
       </c>
     </row>
     <row r="422">
@@ -5082,7 +5082,7 @@
         <v>8.9</v>
       </c>
       <c r="C422" t="n">
-        <v>5.621161693689926</v>
+        <v>6.45503530401894</v>
       </c>
     </row>
     <row r="423">
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1.564631585633143</v>
+        <v>0.6798151574457775</v>
       </c>
     </row>
     <row r="424">
@@ -5104,7 +5104,7 @@
         <v>2.5</v>
       </c>
       <c r="C424" t="n">
-        <v>1.348963410702511</v>
+        <v>1.646905832961423</v>
       </c>
     </row>
     <row r="425">
@@ -5115,7 +5115,7 @@
         <v>25.5</v>
       </c>
       <c r="C425" t="n">
-        <v>20.56238538202302</v>
+        <v>23.51700043894648</v>
       </c>
     </row>
     <row r="426">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>2.881562175441477</v>
+        <v>1.433308381697623</v>
       </c>
     </row>
     <row r="427">
@@ -5137,7 +5137,7 @@
         <v>2.8</v>
       </c>
       <c r="C427" t="n">
-        <v>1.848707826970866</v>
+        <v>1.527355552288341</v>
       </c>
     </row>
     <row r="428">
@@ -5148,7 +5148,7 @@
         <v>2.1</v>
       </c>
       <c r="C428" t="n">
-        <v>1.152576270678843</v>
+        <v>1.130463063332012</v>
       </c>
     </row>
     <row r="429">
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>0.7789375240545383</v>
+        <v>0.46735836399775</v>
       </c>
     </row>
     <row r="430">
@@ -5170,7 +5170,7 @@
         <v>7.5</v>
       </c>
       <c r="C430" t="n">
-        <v>3.10909945878193</v>
+        <v>4.522348212065269</v>
       </c>
     </row>
     <row r="431">
@@ -5181,7 +5181,7 @@
         <v>9.5</v>
       </c>
       <c r="C431" t="n">
-        <v>4.43465587029138</v>
+        <v>5.008031896212232</v>
       </c>
     </row>
     <row r="432">
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1.662637215141084</v>
+        <v>0.8158059996157582</v>
       </c>
     </row>
     <row r="433">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>0.352688911095908</v>
+        <v>0.1397176148035108</v>
       </c>
     </row>
     <row r="434">
@@ -5214,7 +5214,7 @@
         <v>1.069600000000002</v>
       </c>
       <c r="C434" t="n">
-        <v>0.5178978368641651</v>
+        <v>0.471757101071501</v>
       </c>
     </row>
     <row r="435">
@@ -5225,7 +5225,7 @@
         <v>25</v>
       </c>
       <c r="C435" t="n">
-        <v>23.19893169515969</v>
+        <v>21.37373264871466</v>
       </c>
     </row>
     <row r="436">
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>1.748750416508595</v>
+        <v>0.548234054636657</v>
       </c>
     </row>
     <row r="437">
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0.4971416969657395</v>
+        <v>0.3958945985022667</v>
       </c>
     </row>
     <row r="438">
@@ -5280,7 +5280,7 @@
         <v>0.0326</v>
       </c>
       <c r="C440" t="n">
-        <v>0.03589567287325215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -5291,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="C441" t="n">
-        <v>2.608360528295718</v>
+        <v>1.664847624256457</v>
       </c>
     </row>
     <row r="442">
@@ -5302,7 +5302,7 @@
         <v>42.2</v>
       </c>
       <c r="C442" t="n">
-        <v>26.28750680374053</v>
+        <v>29.20812451672818</v>
       </c>
     </row>
     <row r="443">
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1.898551136095716</v>
+        <v>1.796245925793523</v>
       </c>
     </row>
     <row r="444">
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>2.154973795019258</v>
+        <v>1.006652161603085</v>
       </c>
     </row>
     <row r="445">
@@ -5335,7 +5335,7 @@
         <v>3</v>
       </c>
       <c r="C445" t="n">
-        <v>1.895955808637929</v>
+        <v>1.299635151329146</v>
       </c>
     </row>
     <row r="446">
@@ -5346,7 +5346,7 @@
         <v>3.7</v>
       </c>
       <c r="C446" t="n">
-        <v>2.374883222575325</v>
+        <v>1.93221228402571</v>
       </c>
     </row>
     <row r="447">
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>0.8227840206220969</v>
+        <v>0.4420144143197058</v>
       </c>
     </row>
     <row r="448">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>0.3748685337013308</v>
+        <v>0.2068015092160317</v>
       </c>
     </row>
     <row r="449">
@@ -5379,7 +5379,7 @@
         <v>0.8</v>
       </c>
       <c r="C449" t="n">
-        <v>0.4425367472046188</v>
+        <v>0.3283021914828265</v>
       </c>
     </row>
     <row r="450">
@@ -5390,7 +5390,7 @@
         <v>27</v>
       </c>
       <c r="C450" t="n">
-        <v>21.78562006147711</v>
+        <v>22.60009240696493</v>
       </c>
     </row>
     <row r="451">
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1.162562666083329</v>
+        <v>0.5246410327482645</v>
       </c>
     </row>
     <row r="452">
@@ -5412,7 +5412,7 @@
         <v>55.2</v>
       </c>
       <c r="C452" t="n">
-        <v>19.30757238743278</v>
+        <v>48.03981899907607</v>
       </c>
     </row>
     <row r="453">
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>2.219494926956377</v>
+        <v>1.437309697612794</v>
       </c>
     </row>
     <row r="454">
@@ -5434,7 +5434,7 @@
         <v>37.2</v>
       </c>
       <c r="C454" t="n">
-        <v>8.653482704606265</v>
+        <v>27.73298948660102</v>
       </c>
     </row>
     <row r="455">
@@ -5445,7 +5445,7 @@
         <v>2.1</v>
       </c>
       <c r="C455" t="n">
-        <v>2.962244116035567</v>
+        <v>2.935065542425779</v>
       </c>
     </row>
     <row r="456">
@@ -5456,7 +5456,7 @@
         <v>5.7</v>
       </c>
       <c r="C456" t="n">
-        <v>4.538362008616722</v>
+        <v>4.652376689610014</v>
       </c>
     </row>
     <row r="457">
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>1.52162789061521</v>
+        <v>1.364165356610261</v>
       </c>
     </row>
     <row r="458">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>0.3612003026662472</v>
+        <v>0.5233364169127069</v>
       </c>
     </row>
     <row r="459">
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>0.6325199585703403</v>
+        <v>0.3327683270732344</v>
       </c>
     </row>
     <row r="460">
@@ -5500,7 +5500,7 @@
         <v>40.4</v>
       </c>
       <c r="C460" t="n">
-        <v>35.40148180482883</v>
+        <v>38.41423922170056</v>
       </c>
     </row>
     <row r="461">
@@ -5511,7 +5511,7 @@
         <v>4.9</v>
       </c>
       <c r="C461" t="n">
-        <v>3.668047915681246</v>
+        <v>3.441052130024563</v>
       </c>
     </row>
     <row r="462">
@@ -5522,7 +5522,7 @@
         <v>7.5</v>
       </c>
       <c r="C462" t="n">
-        <v>4.219732166221775</v>
+        <v>4.623484733534116</v>
       </c>
     </row>
     <row r="463">
@@ -5533,7 +5533,7 @@
         <v>0.5</v>
       </c>
       <c r="C463" t="n">
-        <v>1.368071025376504</v>
+        <v>0.8819966356814986</v>
       </c>
     </row>
     <row r="464">
@@ -5544,7 +5544,7 @@
         <v>33</v>
       </c>
       <c r="C464" t="n">
-        <v>19.8723571924321</v>
+        <v>31.68231730597519</v>
       </c>
     </row>
     <row r="465">
@@ -5555,7 +5555,7 @@
         <v>21.3</v>
       </c>
       <c r="C465" t="n">
-        <v>4.578089910565152</v>
+        <v>10.76799627507797</v>
       </c>
     </row>
     <row r="466">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1.17141817761337</v>
+        <v>0.9747953636289008</v>
       </c>
     </row>
     <row r="467">
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>0.8601480302486962</v>
+        <v>0.3955240403993672</v>
       </c>
     </row>
     <row r="468">
@@ -5588,7 +5588,7 @@
         <v>20</v>
       </c>
       <c r="C468" t="n">
-        <v>14.78340848683694</v>
+        <v>17.1699335446806</v>
       </c>
     </row>
     <row r="469">
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>2.775785491729812</v>
+        <v>2.018021645451425</v>
       </c>
     </row>
     <row r="470">
@@ -5610,7 +5610,7 @@
         <v>1.6</v>
       </c>
       <c r="C470" t="n">
-        <v>1.409330932057437</v>
+        <v>0.7659338376882201</v>
       </c>
     </row>
     <row r="471">
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>0.4985457447312412</v>
+        <v>0.3019048245925645</v>
       </c>
     </row>
     <row r="472">
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>0.1560884644348778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -5676,7 +5676,7 @@
         <v>1.283799999999998</v>
       </c>
       <c r="C476" t="n">
-        <v>0.4826690971016926</v>
+        <v>0.5653907633681236</v>
       </c>
     </row>
     <row r="477">
@@ -5687,7 +5687,7 @@
         <v>16.5</v>
       </c>
       <c r="C477" t="n">
-        <v>12.00760587102089</v>
+        <v>15.30524885663226</v>
       </c>
     </row>
     <row r="478">
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>0.9648450234303033</v>
+        <v>0.5920851903706816</v>
       </c>
     </row>
     <row r="479">
@@ -5709,7 +5709,7 @@
         <v>27.3</v>
       </c>
       <c r="C479" t="n">
-        <v>8.649375672705672</v>
+        <v>23.31246210176969</v>
       </c>
     </row>
     <row r="480">
@@ -5720,7 +5720,7 @@
         <v>30.5</v>
       </c>
       <c r="C480" t="n">
-        <v>14.13028846309972</v>
+        <v>19.49000025847497</v>
       </c>
     </row>
     <row r="481">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>0.9893343782582403</v>
+        <v>0.7807765319352092</v>
       </c>
     </row>
     <row r="482">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>0.6163595209964721</v>
+        <v>0.6533975959089854</v>
       </c>
     </row>
     <row r="483">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>0.180860565005959</v>
+        <v>0.2132916598898426</v>
       </c>
     </row>
     <row r="484">
@@ -5764,7 +5764,7 @@
         <v>10.6</v>
       </c>
       <c r="C484" t="n">
-        <v>6.803138730646563</v>
+        <v>6.94136225878557</v>
       </c>
     </row>
     <row r="485">
@@ -5775,7 +5775,7 @@
         <v>1.858200000000002</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7746383701761086</v>
+        <v>0.7316093938278028</v>
       </c>
     </row>
     <row r="486">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>0.4452516833959672</v>
+        <v>0.02343577632652129</v>
       </c>
     </row>
     <row r="487">
@@ -5797,7 +5797,7 @@
         <v>41.5</v>
       </c>
       <c r="C487" t="n">
-        <v>41.49293991600934</v>
+        <v>40.25116668785215</v>
       </c>
     </row>
     <row r="488">
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="C488" t="n">
-        <v>3.688341919237974</v>
+        <v>3.862366599872866</v>
       </c>
     </row>
     <row r="489">
@@ -5816,10 +5816,10 @@
         <v>45828</v>
       </c>
       <c r="B489" t="n">
-        <v>8.499200000000005</v>
+        <v>8.499200000000007</v>
       </c>
       <c r="C489" t="n">
-        <v>3.596582876289048</v>
+        <v>5.693699102142182</v>
       </c>
     </row>
     <row r="490">
@@ -5830,7 +5830,7 @@
         <v>10.9</v>
       </c>
       <c r="C490" t="n">
-        <v>8.912617680942382</v>
+        <v>12.62861651662147</v>
       </c>
     </row>
     <row r="491">
@@ -5838,10 +5838,10 @@
         <v>45830</v>
       </c>
       <c r="B491" t="n">
-        <v>6.841000000000011</v>
+        <v>6.841000000000012</v>
       </c>
       <c r="C491" t="n">
-        <v>4.586228519686127</v>
+        <v>6.061290989553927</v>
       </c>
     </row>
     <row r="492">
@@ -5852,7 +5852,7 @@
         <v>1.878199999999999</v>
       </c>
       <c r="C492" t="n">
-        <v>0.9272027047145948</v>
+        <v>0.6047143326902545</v>
       </c>
     </row>
     <row r="493">
@@ -5863,7 +5863,7 @@
         <v>0.4</v>
       </c>
       <c r="C493" t="n">
-        <v>1.383461416731158</v>
+        <v>0.3382848379536616</v>
       </c>
     </row>
     <row r="494">
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>0.4278856821098483</v>
+        <v>0.514325983759233</v>
       </c>
     </row>
     <row r="495">
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0.145569924332884</v>
+        <v>0.1311842974722765</v>
       </c>
     </row>
     <row r="496">
@@ -5918,7 +5918,7 @@
         <v>5.7</v>
       </c>
       <c r="C498" t="n">
-        <v>4.854489157287957</v>
+        <v>4.64310152226304</v>
       </c>
     </row>
     <row r="499">
@@ -5929,7 +5929,7 @@
         <v>2.1</v>
       </c>
       <c r="C499" t="n">
-        <v>1.29393065221233</v>
+        <v>1.595722937480398</v>
       </c>
     </row>
     <row r="500">
@@ -5940,7 +5940,7 @@
         <v>17.9</v>
       </c>
       <c r="C500" t="n">
-        <v>11.39333176811671</v>
+        <v>15.27069974391138</v>
       </c>
     </row>
     <row r="501">
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1.976114321860329</v>
+        <v>0.8659447566392856</v>
       </c>
     </row>
     <row r="502">
@@ -5962,7 +5962,7 @@
         <v>13</v>
       </c>
       <c r="C502" t="n">
-        <v>6.886317238826945</v>
+        <v>11.37606628489249</v>
       </c>
     </row>
     <row r="503">
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>0.9903442574723911</v>
+        <v>0.6711756811837754</v>
       </c>
     </row>
     <row r="504">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>0.5498066137602161</v>
+        <v>0.2578496640643543</v>
       </c>
     </row>
     <row r="505">
@@ -5995,7 +5995,7 @@
         <v>35.2</v>
       </c>
       <c r="C505" t="n">
-        <v>24.06586277938606</v>
+        <v>32.13977758871032</v>
       </c>
     </row>
     <row r="506">
@@ -6006,7 +6006,7 @@
         <v>26.4</v>
       </c>
       <c r="C506" t="n">
-        <v>12.19771776184535</v>
+        <v>18.80055362460602</v>
       </c>
     </row>
     <row r="507">
@@ -6017,7 +6017,7 @@
         <v>72.7</v>
       </c>
       <c r="C507" t="n">
-        <v>12.97349490786645</v>
+        <v>44.30585582909337</v>
       </c>
     </row>
     <row r="508">
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>4.947757909868637</v>
+        <v>3.078461978574615</v>
       </c>
     </row>
     <row r="509">
@@ -6039,7 +6039,7 @@
         <v>2.2</v>
       </c>
       <c r="C509" t="n">
-        <v>1.924060425172135</v>
+        <v>3.239582571905705</v>
       </c>
     </row>
     <row r="510">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>0.2684009777790528</v>
+        <v>0.7905152026906228</v>
       </c>
     </row>
     <row r="511">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>0.148365830876545</v>
+        <v>0.5769784767688425</v>
       </c>
     </row>
     <row r="512">
@@ -6083,7 +6083,7 @@
         <v>5.4</v>
       </c>
       <c r="C513" t="n">
-        <v>4.378510924997838</v>
+        <v>3.107899505109778</v>
       </c>
     </row>
     <row r="514">
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>0.676098906742052</v>
+        <v>0.5810717621514164</v>
       </c>
     </row>
     <row r="515">
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>0.3458916708528365</v>
+        <v>0.1771395975770688</v>
       </c>
     </row>
     <row r="516">
@@ -6116,7 +6116,7 @@
         <v>80</v>
       </c>
       <c r="C516" t="n">
-        <v>54.37278632465203</v>
+        <v>70.75125081337686</v>
       </c>
     </row>
     <row r="517">
@@ -6127,7 +6127,7 @@
         <v>1.4</v>
       </c>
       <c r="C517" t="n">
-        <v>6.125339778775956</v>
+        <v>4.493770187100197</v>
       </c>
     </row>
     <row r="518">
@@ -6138,7 +6138,7 @@
         <v>0.2</v>
       </c>
       <c r="C518" t="n">
-        <v>7.92673172147154</v>
+        <v>2.727268691339476</v>
       </c>
     </row>
     <row r="519">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>0.2982647276981975</v>
+        <v>0.7042332914568887</v>
       </c>
     </row>
     <row r="520">
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>0.0567887547251925</v>
+        <v>0.3009639929943725</v>
       </c>
     </row>
     <row r="521">
@@ -6248,7 +6248,7 @@
         <v>47</v>
       </c>
       <c r="C528" t="n">
-        <v>21.89934042406377</v>
+        <v>32.69100449135301</v>
       </c>
     </row>
     <row r="529">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1.291707146074652</v>
+        <v>1.429065831061695</v>
       </c>
     </row>
     <row r="530">
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>0.968210596644115</v>
+        <v>0.8699973855804124</v>
       </c>
     </row>
     <row r="531">
@@ -6325,7 +6325,7 @@
         <v>0.4</v>
       </c>
       <c r="C535" t="n">
-        <v>0.2391418612469682</v>
+        <v>0.2145491689927835</v>
       </c>
     </row>
     <row r="536">
@@ -6336,7 +6336,7 @@
         <v>4</v>
       </c>
       <c r="C536" t="n">
-        <v>1.911543812965959</v>
+        <v>2.939492401834701</v>
       </c>
     </row>
     <row r="537">
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>0.2704049219257982</v>
       </c>
     </row>
     <row r="538">
@@ -6358,7 +6358,7 @@
         <v>3.6</v>
       </c>
       <c r="C538" t="n">
-        <v>1.522889548273463</v>
+        <v>2.885276333177531</v>
       </c>
     </row>
     <row r="539">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>0.4556289411243167</v>
+        <v>0.1765779490520438</v>
       </c>
     </row>
     <row r="540">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>0.427939047841246</v>
+        <v>0.2656134885925259</v>
       </c>
     </row>
     <row r="541">
@@ -6391,7 +6391,7 @@
         <v>34.5</v>
       </c>
       <c r="C541" t="n">
-        <v>32.98816803979435</v>
+        <v>33.13841477898661</v>
       </c>
     </row>
     <row r="542">
@@ -6402,7 +6402,7 @@
         <v>29.1</v>
       </c>
       <c r="C542" t="n">
-        <v>19.44428187086064</v>
+        <v>19.30203095842443</v>
       </c>
     </row>
     <row r="543">
@@ -6413,7 +6413,7 @@
         <v>60.8</v>
       </c>
       <c r="C543" t="n">
-        <v>21.69809116176474</v>
+        <v>57.40063961806967</v>
       </c>
     </row>
     <row r="544">
@@ -6424,7 +6424,7 @@
         <v>0.9495999999999994</v>
       </c>
       <c r="C544" t="n">
-        <v>2.500103461814132</v>
+        <v>2.095079143804735</v>
       </c>
     </row>
     <row r="545">
@@ -6435,7 +6435,7 @@
         <v>1.2</v>
       </c>
       <c r="C545" t="n">
-        <v>2.610644584447777</v>
+        <v>2.126460430703832</v>
       </c>
     </row>
     <row r="546">
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>0.3449250978881702</v>
+        <v>0.6092557885008357</v>
       </c>
     </row>
     <row r="547">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>0.3357984069156271</v>
+        <v>0.7082936141575894</v>
       </c>
     </row>
     <row r="548">
@@ -6479,7 +6479,7 @@
         <v>7.7</v>
       </c>
       <c r="C549" t="n">
-        <v>6.137699728809636</v>
+        <v>4.698904144050316</v>
       </c>
     </row>
     <row r="550">
@@ -6490,7 +6490,7 @@
         <v>4.4</v>
       </c>
       <c r="C550" t="n">
-        <v>3.240607237400112</v>
+        <v>3.133043707755224</v>
       </c>
     </row>
     <row r="551">
@@ -6501,7 +6501,7 @@
         <v>2.6</v>
       </c>
       <c r="C551" t="n">
-        <v>2.736328915634821</v>
+        <v>2.622201183467996</v>
       </c>
     </row>
     <row r="552">
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>0.6384331777385467</v>
+        <v>0.2439192309837425</v>
       </c>
     </row>
     <row r="553">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>0.2297354486801773</v>
+        <v>0.1739891156716719</v>
       </c>
     </row>
     <row r="554">
@@ -6556,7 +6556,7 @@
         <v>10.4</v>
       </c>
       <c r="C556" t="n">
-        <v>7.023601579611326</v>
+        <v>8.476015136976429</v>
       </c>
     </row>
     <row r="557">
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>0.6405933846272744</v>
+        <v>0.4548032136426667</v>
       </c>
     </row>
     <row r="558">
@@ -6578,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="C558" t="n">
-        <v>0.8001431599883723</v>
+        <v>1.114170485899804</v>
       </c>
     </row>
     <row r="559">
@@ -6589,7 +6589,7 @@
         <v>57.4</v>
       </c>
       <c r="C559" t="n">
-        <v>35.64626752034341</v>
+        <v>48.46193868703352</v>
       </c>
     </row>
     <row r="560">
@@ -6600,7 +6600,7 @@
         <v>0.2</v>
       </c>
       <c r="C560" t="n">
-        <v>2.194732713244821</v>
+        <v>1.90809593739486</v>
       </c>
     </row>
     <row r="561">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>0.7868802909083192</v>
+        <v>1.042546991383301</v>
       </c>
     </row>
     <row r="562">
@@ -6622,7 +6622,7 @@
         <v>7.3</v>
       </c>
       <c r="C562" t="n">
-        <v>2.074881761835347</v>
+        <v>2.103587869947362</v>
       </c>
     </row>
     <row r="563">
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>0.5116930906843381</v>
+        <v>0.487358330616912</v>
       </c>
     </row>
     <row r="564">
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>0.3498408971707299</v>
+        <v>0.2890495467751685</v>
       </c>
     </row>
     <row r="565">
@@ -6688,7 +6688,7 @@
         <v>0.4</v>
       </c>
       <c r="C568" t="n">
-        <v>0.2489900941310485</v>
+        <v>0.1392391891355016</v>
       </c>
     </row>
     <row r="569">
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>0.06155135203263722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>0.1271909128032359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -6721,7 +6721,7 @@
         <v>27.7</v>
       </c>
       <c r="C571" t="n">
-        <v>22.72212267368187</v>
+        <v>23.79213722527965</v>
       </c>
     </row>
     <row r="572">
@@ -6732,7 +6732,7 @@
         <v>0.4</v>
       </c>
       <c r="C572" t="n">
-        <v>1.75699400006574</v>
+        <v>0.7644996301487028</v>
       </c>
     </row>
     <row r="573">
@@ -6743,7 +6743,7 @@
         <v>0.8</v>
       </c>
       <c r="C573" t="n">
-        <v>1.936444440854775</v>
+        <v>1.300393761436622</v>
       </c>
     </row>
     <row r="574">
@@ -6754,7 +6754,7 @@
         <v>2.4</v>
       </c>
       <c r="C574" t="n">
-        <v>1.226168653149574</v>
+        <v>1.560137637213845</v>
       </c>
     </row>
     <row r="575">
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>0.1017167345492364</v>
+        <v>0.3080898377825396</v>
       </c>
     </row>
     <row r="576">
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>0.0939970702998509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -6798,7 +6798,7 @@
         <v>0.0458</v>
       </c>
       <c r="C578" t="n">
-        <v>0.04068583987215028</v>
+        <v>0.01187508434548461</v>
       </c>
     </row>
     <row r="579">
@@ -6809,7 +6809,7 @@
         <v>9</v>
       </c>
       <c r="C579" t="n">
-        <v>7.654553204304491</v>
+        <v>8.480100840608095</v>
       </c>
     </row>
     <row r="580">
@@ -6820,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>1.081047623321922</v>
+        <v>0.6919517179757205</v>
       </c>
     </row>
     <row r="581">
@@ -6831,7 +6831,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="C581" t="n">
-        <v>4.878513778899554</v>
+        <v>7.417902319175122</v>
       </c>
     </row>
     <row r="582">
@@ -6842,7 +6842,7 @@
         <v>1.2</v>
       </c>
       <c r="C582" t="n">
-        <v>0.7153982537444236</v>
+        <v>0.5743964131941819</v>
       </c>
     </row>
     <row r="583">
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>0.7484358024760868</v>
+        <v>0.4431665173003117</v>
       </c>
     </row>
     <row r="584">
@@ -6864,7 +6864,7 @@
         <v>6.6</v>
       </c>
       <c r="C584" t="n">
-        <v>3.576970235754779</v>
+        <v>3.675330061468653</v>
       </c>
     </row>
     <row r="585">
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>0.2469423912579575</v>
+        <v>0.1306457329133771</v>
       </c>
     </row>
     <row r="586">
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>0.3432305444651369</v>
+        <v>0.2095238638841395</v>
       </c>
     </row>
     <row r="587">
@@ -6941,7 +6941,7 @@
         <v>8.1</v>
       </c>
       <c r="C591" t="n">
-        <v>5.5661888300823</v>
+        <v>6.977915833480513</v>
       </c>
     </row>
     <row r="592">
@@ -6952,7 +6952,7 @@
         <v>21.2</v>
       </c>
       <c r="C592" t="n">
-        <v>15.95742463591901</v>
+        <v>17.98954235943178</v>
       </c>
     </row>
     <row r="593">
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>1.477322133404337</v>
+        <v>0.9137617942479246</v>
       </c>
     </row>
     <row r="594">
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>0.3858002383179323</v>
+        <v>0.4605900833487495</v>
       </c>
     </row>
     <row r="595">
@@ -7095,7 +7095,7 @@
         <v>2.5</v>
       </c>
       <c r="C605" t="n">
-        <v>1.008974415586603</v>
+        <v>1.002115607230844</v>
       </c>
     </row>
     <row r="606">
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>0.3988101735429706</v>
+        <v>0.1351221548246486</v>
       </c>
     </row>
     <row r="607">
@@ -7117,7 +7117,7 @@
         <v>0.9</v>
       </c>
       <c r="C607" t="n">
-        <v>0.3000553683274804</v>
+        <v>0.3627977114574352</v>
       </c>
     </row>
     <row r="608">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>0.1420622138902427</v>
+        <v>0.06389580844303541</v>
       </c>
     </row>
     <row r="609">
@@ -7139,7 +7139,7 @@
         <v>1.9</v>
       </c>
       <c r="C609" t="n">
-        <v>0.5903156751748339</v>
+        <v>0.8816576117899484</v>
       </c>
     </row>
     <row r="610">
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>0.4176593140742245</v>
+        <v>0.1159480072970416</v>
       </c>
     </row>
     <row r="611">
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>0.2165080312064064</v>
+        <v>0.1698938830525221</v>
       </c>
     </row>
     <row r="612">
@@ -7183,7 +7183,7 @@
         <v>13.6</v>
       </c>
       <c r="C613" t="n">
-        <v>7.828480175054455</v>
+        <v>11.15577718758824</v>
       </c>
     </row>
     <row r="614">
@@ -7194,7 +7194,7 @@
         <v>68</v>
       </c>
       <c r="C614" t="n">
-        <v>39.11280276706262</v>
+        <v>49.64999392065973</v>
       </c>
     </row>
     <row r="615">
@@ -7205,7 +7205,7 @@
         <v>8.9</v>
       </c>
       <c r="C615" t="n">
-        <v>3.151273509556678</v>
+        <v>4.113397817792724</v>
       </c>
     </row>
     <row r="616">
@@ -7216,7 +7216,7 @@
         <v>4.5</v>
       </c>
       <c r="C616" t="n">
-        <v>4.366811448725212</v>
+        <v>4.605340658060032</v>
       </c>
     </row>
     <row r="617">
@@ -7227,7 +7227,7 @@
         <v>0.7</v>
       </c>
       <c r="C617" t="n">
-        <v>0.9583642093087167</v>
+        <v>1.600728411984423</v>
       </c>
     </row>
     <row r="618">
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>0.6304893416208355</v>
+        <v>0.7909692056020446</v>
       </c>
     </row>
     <row r="619">
@@ -7249,7 +7249,7 @@
         <v>2.4</v>
       </c>
       <c r="C619" t="n">
-        <v>1.672013964725294</v>
+        <v>1.752546415790499</v>
       </c>
     </row>
     <row r="620">
@@ -7260,7 +7260,7 @@
         <v>1.5</v>
       </c>
       <c r="C620" t="n">
-        <v>1.220062988112105</v>
+        <v>0.9728425117097176</v>
       </c>
     </row>
     <row r="621">
@@ -7271,7 +7271,7 @@
         <v>67</v>
       </c>
       <c r="C621" t="n">
-        <v>47.3825924751402</v>
+        <v>55.89339352338972</v>
       </c>
     </row>
     <row r="622">
@@ -7282,7 +7282,7 @@
         <v>16</v>
       </c>
       <c r="C622" t="n">
-        <v>4.969992412367841</v>
+        <v>11.78789815719173</v>
       </c>
     </row>
     <row r="623">
@@ -7293,7 +7293,7 @@
         <v>43.6</v>
       </c>
       <c r="C623" t="n">
-        <v>10.34858972338824</v>
+        <v>29.02700831894984</v>
       </c>
     </row>
     <row r="624">
@@ -7304,7 +7304,7 @@
         <v>43.6</v>
       </c>
       <c r="C624" t="n">
-        <v>7.726898113885297</v>
+        <v>17.37378678375962</v>
       </c>
     </row>
     <row r="625">
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>3.892542160597074</v>
+        <v>2.696753217500451</v>
       </c>
     </row>
     <row r="626">
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>3.095454472342013</v>
+        <v>3.249736445191451</v>
       </c>
     </row>
     <row r="627">
@@ -7381,7 +7381,7 @@
         <v>4.2</v>
       </c>
       <c r="C631" t="n">
-        <v>1.577084372758709</v>
+        <v>2.266715741407111</v>
       </c>
     </row>
     <row r="632">
@@ -7392,7 +7392,7 @@
         <v>4.2</v>
       </c>
       <c r="C632" t="n">
-        <v>0.9767472863453138</v>
+        <v>1.971606610107733</v>
       </c>
     </row>
     <row r="633">
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>0.2661866117248151</v>
+        <v>0.2598402488126449</v>
       </c>
     </row>
     <row r="634">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>0.2508649782511277</v>
+        <v>0.18393241419791</v>
       </c>
     </row>
     <row r="635">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>0.1225868073012225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>0.1523820300908637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -7469,7 +7469,7 @@
         <v>12.4</v>
       </c>
       <c r="C639" t="n">
-        <v>5.80115268141986</v>
+        <v>7.484632380468849</v>
       </c>
     </row>
     <row r="640">
@@ -7480,7 +7480,7 @@
         <v>12.4</v>
       </c>
       <c r="C640" t="n">
-        <v>3.275010685631742</v>
+        <v>5.531016831197447</v>
       </c>
     </row>
     <row r="641">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>0.5026404241984884</v>
+        <v>0.4192070563729896</v>
       </c>
     </row>
     <row r="642">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>0.5139059004595087</v>
+        <v>0.4123489613958663</v>
       </c>
     </row>
     <row r="643">
@@ -7524,7 +7524,7 @@
         <v>0.9</v>
       </c>
       <c r="C644" t="n">
-        <v>0.7977245706494424</v>
+        <v>0.5960946666777224</v>
       </c>
     </row>
     <row r="645">
@@ -7535,7 +7535,7 @@
         <v>1.679</v>
       </c>
       <c r="C645" t="n">
-        <v>0.5955900677164802</v>
+        <v>0.6161650941310369</v>
       </c>
     </row>
     <row r="646">
@@ -7546,7 +7546,7 @@
         <v>3.5</v>
       </c>
       <c r="C646" t="n">
-        <v>2.261116317381184</v>
+        <v>1.86795956159612</v>
       </c>
     </row>
     <row r="647">
@@ -7557,7 +7557,7 @@
         <v>26.7</v>
       </c>
       <c r="C647" t="n">
-        <v>25.63163628556137</v>
+        <v>24.95787112727118</v>
       </c>
     </row>
     <row r="648">
@@ -7568,7 +7568,7 @@
         <v>3.2</v>
       </c>
       <c r="C648" t="n">
-        <v>2.567078702143654</v>
+        <v>1.957269191391233</v>
       </c>
     </row>
     <row r="649">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>0.8097119598347922</v>
+        <v>0.3722281049423229</v>
       </c>
     </row>
     <row r="650">
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>0.3450747854752704</v>
+        <v>0.8591262623577655</v>
       </c>
     </row>
     <row r="651">
@@ -7601,7 +7601,7 @@
         <v>41</v>
       </c>
       <c r="C651" t="n">
-        <v>31.64885851459003</v>
+        <v>40.81692308551816</v>
       </c>
     </row>
     <row r="652">
@@ -7612,7 +7612,7 @@
         <v>2.5</v>
       </c>
       <c r="C652" t="n">
-        <v>1.967134226386009</v>
+        <v>2.408293764602516</v>
       </c>
     </row>
     <row r="653">
@@ -7623,7 +7623,7 @@
         <v>15.3</v>
       </c>
       <c r="C653" t="n">
-        <v>2.301401754424929</v>
+        <v>8.757543071385447</v>
       </c>
     </row>
     <row r="654">
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>0.3509380582946698</v>
+        <v>0.6831403831736811</v>
       </c>
     </row>
     <row r="655">
@@ -7645,7 +7645,7 @@
         <v>0.2</v>
       </c>
       <c r="C655" t="n">
-        <v>0.9976201994647106</v>
+        <v>0.96735427046513</v>
       </c>
     </row>
     <row r="656">
@@ -7656,7 +7656,7 @@
         <v>0.4</v>
       </c>
       <c r="C656" t="n">
-        <v>0.2305272420603716</v>
+        <v>0.2259806731022162</v>
       </c>
     </row>
     <row r="657">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>0.1453750400042773</v>
+        <v>0.2301098759375534</v>
       </c>
     </row>
     <row r="658">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>0.1184682271639343</v>
+        <v>0.1308680691615992</v>
       </c>
     </row>
     <row r="659">
@@ -7722,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>0.3380784683950178</v>
+        <v>0.4393401490597353</v>
       </c>
     </row>
     <row r="663">
@@ -7733,7 +7733,7 @@
         <v>0.8</v>
       </c>
       <c r="C663" t="n">
-        <v>0.4860972006853514</v>
+        <v>0.4037770805911375</v>
       </c>
     </row>
     <row r="664">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>0.1506605458910881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
@@ -7766,7 +7766,7 @@
         <v>25.9</v>
       </c>
       <c r="C666" t="n">
-        <v>21.73706836749693</v>
+        <v>20.67040351707564</v>
       </c>
     </row>
     <row r="667">
@@ -7777,7 +7777,7 @@
         <v>47.5</v>
       </c>
       <c r="C667" t="n">
-        <v>33.0387926684384</v>
+        <v>41.74175360227402</v>
       </c>
     </row>
     <row r="668">
@@ -7788,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="C668" t="n">
-        <v>3.167696679453933</v>
+        <v>2.708909170639092</v>
       </c>
     </row>
     <row r="669">
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>0.750268712032369</v>
+        <v>0.5840911448107228</v>
       </c>
     </row>
   </sheetData>

--- a/two_stage_prediction_result.xlsx
+++ b/two_stage_prediction_result.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.827454106670255</v>
+        <v>4.040422585334998</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>2.1968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2212138048115081</v>
+        <v>3.718968087522914</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2785431443239322</v>
+        <v>1.017786525241924</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3530549837473356</v>
+        <v>1.524495059865998</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>3.2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6539953426404211</v>
+        <v>1.93209750383661</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         <v>3.0226</v>
       </c>
       <c r="C7" t="n">
-        <v>1.868261949691533</v>
+        <v>1.371571406277543</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>5.7</v>
       </c>
       <c r="C8" t="n">
-        <v>4.769773731514912</v>
+        <v>1.833041815104658</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +539,7 @@
         <v>20.8</v>
       </c>
       <c r="C9" t="n">
-        <v>18.29182211916712</v>
+        <v>5.968326811106697</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7585947676107414</v>
+        <v>2.776136116454836</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         <v>38.5</v>
       </c>
       <c r="C11" t="n">
-        <v>40.59995443626023</v>
+        <v>4.235522863213739</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>75.5</v>
       </c>
       <c r="C12" t="n">
-        <v>69.12062750150291</v>
+        <v>5.741716023608783</v>
       </c>
     </row>
     <row r="13">
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>14.63417419529596</v>
+        <v>15.7205172466323</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         <v>10.02960000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>6.360824656049678</v>
+        <v>3.691887979718624</v>
       </c>
     </row>
     <row r="15">
@@ -605,7 +605,7 @@
         <v>17.7</v>
       </c>
       <c r="C15" t="n">
-        <v>10.18735096023598</v>
+        <v>8.465051463983498</v>
       </c>
     </row>
     <row r="16">
@@ -616,7 +616,7 @@
         <v>6.8</v>
       </c>
       <c r="C16" t="n">
-        <v>7.813290743952019</v>
+        <v>7.019668224902322</v>
       </c>
     </row>
     <row r="17">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7306158642024108</v>
+        <v>0.9094770345859459</v>
       </c>
     </row>
     <row r="18">
@@ -638,7 +638,7 @@
         <v>1.9234</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3215149513066156</v>
+        <v>0.2857449236206659</v>
       </c>
     </row>
     <row r="19">
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>2.105785283852034</v>
+        <v>1.729993413571409</v>
       </c>
     </row>
     <row r="20">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.592188646369958</v>
+        <v>2.232912271593042</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         <v>4.2</v>
       </c>
       <c r="C21" t="n">
-        <v>2.725791596461113</v>
+        <v>2.590585686587263</v>
       </c>
     </row>
     <row r="22">
@@ -682,7 +682,7 @@
         <v>47.7</v>
       </c>
       <c r="C22" t="n">
-        <v>53.76055856411752</v>
+        <v>33.9970592931052</v>
       </c>
     </row>
     <row r="23">
@@ -693,7 +693,7 @@
         <v>10.4</v>
       </c>
       <c r="C23" t="n">
-        <v>8.607505827537249</v>
+        <v>4.502433339206948</v>
       </c>
     </row>
     <row r="24">
@@ -704,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>12.60791643317999</v>
+        <v>7.983048994414044</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>4.3</v>
       </c>
       <c r="C25" t="n">
-        <v>4.580042765892649</v>
+        <v>4.383384705554874</v>
       </c>
     </row>
     <row r="26">
@@ -726,7 +726,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>20.37889246215059</v>
+        <v>7.55897577734048</v>
       </c>
     </row>
     <row r="27">
@@ -737,7 +737,7 @@
         <v>31.8</v>
       </c>
       <c r="C27" t="n">
-        <v>30.50541889139801</v>
+        <v>8.118293417768486</v>
       </c>
     </row>
     <row r="28">
@@ -748,7 +748,7 @@
         <v>6.5</v>
       </c>
       <c r="C28" t="n">
-        <v>8.058329708324655</v>
+        <v>3.066074867304729</v>
       </c>
     </row>
     <row r="29">
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>15.72635753775873</v>
+        <v>26.31196500870137</v>
       </c>
     </row>
     <row r="30">
@@ -770,7 +770,7 @@
         <v>21.7</v>
       </c>
       <c r="C30" t="n">
-        <v>15.2624974988502</v>
+        <v>6.29104147406117</v>
       </c>
     </row>
     <row r="31">
@@ -781,7 +781,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" t="n">
-        <v>0.670657320018306</v>
+        <v>4.106467273269605</v>
       </c>
     </row>
     <row r="32">
@@ -792,7 +792,7 @@
         <v>7.212600000000006</v>
       </c>
       <c r="C32" t="n">
-        <v>4.038656483439727</v>
+        <v>1.652878123531605</v>
       </c>
     </row>
     <row r="33">
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5810529638190072</v>
+        <v>1.130454665615307</v>
       </c>
     </row>
     <row r="34">
@@ -814,7 +814,7 @@
         <v>63.3</v>
       </c>
       <c r="C34" t="n">
-        <v>53.63756968527102</v>
+        <v>2.613284478493047</v>
       </c>
     </row>
     <row r="35">
@@ -825,7 +825,7 @@
         <v>3.8</v>
       </c>
       <c r="C35" t="n">
-        <v>2.287265527440566</v>
+        <v>22.97873406181487</v>
       </c>
     </row>
     <row r="36">
@@ -836,7 +836,7 @@
         <v>4.066399999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>2.045015204636231</v>
+        <v>4.385451111799002</v>
       </c>
     </row>
     <row r="37">
@@ -847,7 +847,7 @@
         <v>1.1342</v>
       </c>
       <c r="C37" t="n">
-        <v>1.084178258166015</v>
+        <v>5.948432820458827</v>
       </c>
     </row>
     <row r="38">
@@ -858,7 +858,7 @@
         <v>0.07680000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7044111884434593</v>
+        <v>2.026405036323497</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         <v>0.4</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6197571348519643</v>
+        <v>1.210643032055626</v>
       </c>
     </row>
     <row r="40">
@@ -880,7 +880,7 @@
         <v>2.8162</v>
       </c>
       <c r="C40" t="n">
-        <v>1.431616821679838</v>
+        <v>4.116463375682132</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2586403404561218</v>
+        <v>1.358371361984495</v>
       </c>
     </row>
     <row r="42">
@@ -902,7 +902,7 @@
         <v>0.2765999999999997</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1527197656395951</v>
+        <v>0.8736185518100612</v>
       </c>
     </row>
     <row r="43">
@@ -913,7 +913,7 @@
         <v>1.4278</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5299857849650195</v>
+        <v>1.439006245873567</v>
       </c>
     </row>
     <row r="44">
@@ -924,7 +924,7 @@
         <v>18.2</v>
       </c>
       <c r="C44" t="n">
-        <v>16.30259010770504</v>
+        <v>2.231505244438582</v>
       </c>
     </row>
     <row r="45">
@@ -935,7 +935,7 @@
         <v>1.2</v>
       </c>
       <c r="C45" t="n">
-        <v>1.039717441044447</v>
+        <v>3.077818722959806</v>
       </c>
     </row>
     <row r="46">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5453079599521246</v>
+        <v>2.023108370282912</v>
       </c>
     </row>
     <row r="47">
@@ -957,7 +957,7 @@
         <v>5.6</v>
       </c>
       <c r="C47" t="n">
-        <v>4.179788024710025</v>
+        <v>6.010465516309742</v>
       </c>
     </row>
     <row r="48">
@@ -968,7 +968,7 @@
         <v>10.91919999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>9.745867931326616</v>
+        <v>1.928374313994259</v>
       </c>
     </row>
     <row r="49">
@@ -979,7 +979,7 @@
         <v>2.8</v>
       </c>
       <c r="C49" t="n">
-        <v>1.566917331481369</v>
+        <v>3.891567953366428</v>
       </c>
     </row>
     <row r="50">
@@ -987,10 +987,10 @@
         <v>45389</v>
       </c>
       <c r="B50" t="n">
-        <v>2.420400000000003</v>
+        <v>2.420400000000002</v>
       </c>
       <c r="C50" t="n">
-        <v>1.245670787710538</v>
+        <v>3.629593214494037</v>
       </c>
     </row>
     <row r="51">
@@ -1001,7 +1001,7 @@
         <v>0.2008</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3066961171474135</v>
+        <v>1.732053274917279</v>
       </c>
     </row>
     <row r="52">
@@ -1012,7 +1012,7 @@
         <v>1.898000000000002</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6455763074456736</v>
+        <v>1.435601179012081</v>
       </c>
     </row>
     <row r="53">
@@ -1023,7 +1023,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>7.720269627646799</v>
+        <v>5.669136688039528</v>
       </c>
     </row>
     <row r="54">
@@ -1034,7 +1034,7 @@
         <v>0.7</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4998919882643045</v>
+        <v>2.726840220785387</v>
       </c>
     </row>
     <row r="55">
@@ -1045,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="C55" t="n">
-        <v>38.28215600387651</v>
+        <v>2.184464964014899</v>
       </c>
     </row>
     <row r="56">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1.613234898307919</v>
+        <v>5.547913484755377</v>
       </c>
     </row>
     <row r="57">
@@ -1067,7 +1067,7 @@
         <v>2.357000000000002</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8717341835763645</v>
+        <v>3.041739073309924</v>
       </c>
     </row>
     <row r="58">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4171622444076952</v>
+        <v>4.216553049005056</v>
       </c>
     </row>
     <row r="59">
@@ -1089,7 +1089,7 @@
         <v>2.695000000000002</v>
       </c>
       <c r="C59" t="n">
-        <v>1.307683318133873</v>
+        <v>1.305798214517435</v>
       </c>
     </row>
     <row r="60">
@@ -1100,7 +1100,7 @@
         <v>8.909000000000002</v>
       </c>
       <c r="C60" t="n">
-        <v>6.170186439032583</v>
+        <v>1.159954029501206</v>
       </c>
     </row>
     <row r="61">
@@ -1111,7 +1111,7 @@
         <v>27.2</v>
       </c>
       <c r="C61" t="n">
-        <v>25.7551063442868</v>
+        <v>4.883051768717964</v>
       </c>
     </row>
     <row r="62">
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7921734577215543</v>
+        <v>1.385646689538895</v>
       </c>
     </row>
     <row r="63">
@@ -1133,7 +1133,7 @@
         <v>0.9968000000000005</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9890064518055082</v>
+        <v>1.269788002633848</v>
       </c>
     </row>
     <row r="64">
@@ -1144,7 +1144,7 @@
         <v>1.358000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>1.206310526488297</v>
+        <v>2.196743699432608</v>
       </c>
     </row>
     <row r="65">
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2915912786049647</v>
+        <v>1.062580642692835</v>
       </c>
     </row>
     <row r="66">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2415065726251077</v>
+        <v>1.20463907848833</v>
       </c>
     </row>
     <row r="67">
@@ -1177,7 +1177,7 @@
         <v>4.85639999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>2.158708514345028</v>
+        <v>1.079047016611531</v>
       </c>
     </row>
     <row r="68">
@@ -1188,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>11.41596085912138</v>
+        <v>3.074685648286645</v>
       </c>
     </row>
     <row r="69">
@@ -1199,7 +1199,7 @@
         <v>0.4</v>
       </c>
       <c r="C69" t="n">
-        <v>1.038715226023015</v>
+        <v>1.341427977437434</v>
       </c>
     </row>
     <row r="70">
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3733736171451056</v>
+        <v>2.876727100516471</v>
       </c>
     </row>
     <row r="71">
@@ -1221,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>1.140958610684812</v>
+        <v>3.198000624871422</v>
       </c>
     </row>
     <row r="72">
@@ -1232,7 +1232,7 @@
         <v>2.414200000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>1.214970496142836</v>
+        <v>2.321406241831273</v>
       </c>
     </row>
     <row r="73">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1553164000777719</v>
+        <v>3.672392561988067</v>
       </c>
     </row>
     <row r="74">
@@ -1251,10 +1251,10 @@
         <v>45413</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7099999999999985</v>
+        <v>0.7099999999999986</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2133431214479643</v>
+        <v>1.476932941064259</v>
       </c>
     </row>
     <row r="75">
@@ -1265,7 +1265,7 @@
         <v>3.5744</v>
       </c>
       <c r="C75" t="n">
-        <v>2.683243057665502</v>
+        <v>1.060553503870047</v>
       </c>
     </row>
     <row r="76">
@@ -1276,7 +1276,7 @@
         <v>1.3502</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7784726090892171</v>
+        <v>0.6633389895695223</v>
       </c>
     </row>
     <row r="77">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1139126993203458</v>
+        <v>1.208222875749188</v>
       </c>
     </row>
     <row r="78">
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2743977110348296</v>
+        <v>0.5937344917501568</v>
       </c>
     </row>
     <row r="79">
@@ -1309,7 +1309,7 @@
         <v>0.1792000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.001974065579795024</v>
+        <v>0.900116304992348</v>
       </c>
     </row>
     <row r="80">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02688958480707343</v>
+        <v>1.318224298943336</v>
       </c>
     </row>
     <row r="81">
@@ -1331,7 +1331,7 @@
         <v>0.03199999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02494853747305611</v>
+        <v>0.9693299540105572</v>
       </c>
     </row>
     <row r="82">
@@ -1342,7 +1342,7 @@
         <v>0.7907999999999988</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2656572922006607</v>
+        <v>0.970998247668396</v>
       </c>
     </row>
     <row r="83">
@@ -1353,7 +1353,7 @@
         <v>0.1442000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09371343062825369</v>
+        <v>1.900010678501003</v>
       </c>
     </row>
     <row r="84">
@@ -1364,7 +1364,7 @@
         <v>0.8599999999999992</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4510198610822666</v>
+        <v>0.9950791760864226</v>
       </c>
     </row>
     <row r="85">
@@ -1375,7 +1375,7 @@
         <v>1.612999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5983541387389243</v>
+        <v>0.9257619263455814</v>
       </c>
     </row>
     <row r="86">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1422405655150197</v>
+        <v>1.67837327744246</v>
       </c>
     </row>
     <row r="87">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3111873906873659</v>
+        <v>1.080568349828959</v>
       </c>
     </row>
     <row r="88">
@@ -1408,7 +1408,7 @@
         <v>28.5</v>
       </c>
       <c r="C88" t="n">
-        <v>14.93102335161636</v>
+        <v>3.907080490916958</v>
       </c>
     </row>
     <row r="89">
@@ -1419,7 +1419,7 @@
         <v>2.19</v>
       </c>
       <c r="C89" t="n">
-        <v>1.205380810648441</v>
+        <v>0.6761171464351747</v>
       </c>
     </row>
     <row r="90">
@@ -1430,7 +1430,7 @@
         <v>1.184199999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7006414772288583</v>
+        <v>1.632394412945088</v>
       </c>
     </row>
     <row r="91">
@@ -1441,7 +1441,7 @@
         <v>1.3106</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8405280058105009</v>
+        <v>0.4323024855612926</v>
       </c>
     </row>
     <row r="92">
@@ -1452,7 +1452,7 @@
         <v>0.5383999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3696970144413867</v>
+        <v>0.5064782476775683</v>
       </c>
     </row>
     <row r="93">
@@ -1463,7 +1463,7 @@
         <v>0.07239999999999995</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2037162816921708</v>
+        <v>0.8664703220451228</v>
       </c>
     </row>
     <row r="94">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1264717083598084</v>
+        <v>0.5637166141157727</v>
       </c>
     </row>
     <row r="95">
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03615100037125758</v>
+        <v>2.443089543466773</v>
       </c>
     </row>
     <row r="96">
@@ -1496,7 +1496,7 @@
         <v>1.0882</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5488047264691214</v>
+        <v>2.085546839279713</v>
       </c>
     </row>
     <row r="97">
@@ -1507,7 +1507,7 @@
         <v>11.27319999999998</v>
       </c>
       <c r="C97" t="n">
-        <v>10.22084832608223</v>
+        <v>2.667889731419187</v>
       </c>
     </row>
     <row r="98">
@@ -1518,7 +1518,7 @@
         <v>3.5</v>
       </c>
       <c r="C98" t="n">
-        <v>2.195244610730461</v>
+        <v>3.293698061045626</v>
       </c>
     </row>
     <row r="99">
@@ -1529,7 +1529,7 @@
         <v>2.1</v>
       </c>
       <c r="C99" t="n">
-        <v>1.821529292450004</v>
+        <v>8.187193077987814</v>
       </c>
     </row>
     <row r="100">
@@ -1540,7 +1540,7 @@
         <v>5.031000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>3.383916450340627</v>
+        <v>2.313422339763439</v>
       </c>
     </row>
     <row r="101">
@@ -1551,7 +1551,7 @@
         <v>1.053999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5244821014423006</v>
+        <v>1.286047195691633</v>
       </c>
     </row>
     <row r="102">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1435848500535602</v>
+        <v>1.044628027394835</v>
       </c>
     </row>
     <row r="103">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2120399821780956</v>
+        <v>1.522377008870121</v>
       </c>
     </row>
     <row r="104">
@@ -1584,7 +1584,7 @@
         <v>0.2232</v>
       </c>
       <c r="C104" t="n">
-        <v>0.09037979620695316</v>
+        <v>1.136217810118977</v>
       </c>
     </row>
     <row r="105">
@@ -1595,7 +1595,7 @@
         <v>1.674200000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8000711468106938</v>
+        <v>1.611152141221956</v>
       </c>
     </row>
     <row r="106">
@@ -1606,7 +1606,7 @@
         <v>10.18079999999998</v>
       </c>
       <c r="C106" t="n">
-        <v>9.553785409454862</v>
+        <v>1.607811063565189</v>
       </c>
     </row>
     <row r="107">
@@ -1617,7 +1617,7 @@
         <v>1.5</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02113997547631</v>
+        <v>2.79287188844303</v>
       </c>
     </row>
     <row r="108">
@@ -1628,7 +1628,7 @@
         <v>1.596400000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>1.122784094399479</v>
+        <v>2.542021846220006</v>
       </c>
     </row>
     <row r="109">
@@ -1639,7 +1639,7 @@
         <v>0.1066</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1920722454175082</v>
+        <v>1.763263612672267</v>
       </c>
     </row>
     <row r="110">
@@ -1650,7 +1650,7 @@
         <v>0.1414</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1978610913959096</v>
+        <v>0.9026758831964535</v>
       </c>
     </row>
     <row r="111">
@@ -1658,10 +1658,10 @@
         <v>45450</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6435999999999999</v>
+        <v>0.6435999999999998</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1365241873507446</v>
+        <v>0.8304609492449649</v>
       </c>
     </row>
     <row r="112">
@@ -1672,7 +1672,7 @@
         <v>0.5381999999999992</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1218243822639554</v>
+        <v>1.619557704043199</v>
       </c>
     </row>
     <row r="113">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1163266133028314</v>
+        <v>0.4523671162764827</v>
       </c>
     </row>
     <row r="114">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1487631568634901</v>
+        <v>3.319039264880894</v>
       </c>
     </row>
     <row r="115">
@@ -1705,7 +1705,7 @@
         <v>5.196000000000002</v>
       </c>
       <c r="C115" t="n">
-        <v>3.734641205143113</v>
+        <v>1.197342596322986</v>
       </c>
     </row>
     <row r="116">
@@ -1716,7 +1716,7 @@
         <v>12.9</v>
       </c>
       <c r="C116" t="n">
-        <v>12.02309662285979</v>
+        <v>6.847042742582431</v>
       </c>
     </row>
     <row r="117">
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9328270799514802</v>
+        <v>1.902821983038339</v>
       </c>
     </row>
     <row r="118">
@@ -1738,7 +1738,7 @@
         <v>5.380999999999998</v>
       </c>
       <c r="C118" t="n">
-        <v>3.539962986562004</v>
+        <v>2.252798721333586</v>
       </c>
     </row>
     <row r="119">
@@ -1749,7 +1749,7 @@
         <v>5.127000000000002</v>
       </c>
       <c r="C119" t="n">
-        <v>3.963182352705455</v>
+        <v>1.837210139716274</v>
       </c>
     </row>
     <row r="120">
@@ -1760,7 +1760,7 @@
         <v>65.59999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>63.24253213450186</v>
+        <v>2.765382819782779</v>
       </c>
     </row>
     <row r="121">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>2.136626484792438</v>
+        <v>4.469511894289125</v>
       </c>
     </row>
     <row r="122">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9485365900223183</v>
+        <v>2.593672281490415</v>
       </c>
     </row>
     <row r="123">
@@ -1793,7 +1793,7 @@
         <v>2.395600000000005</v>
       </c>
       <c r="C123" t="n">
-        <v>1.406548538207989</v>
+        <v>2.968602003989004</v>
       </c>
     </row>
     <row r="124">
@@ -1804,7 +1804,7 @@
         <v>1.668</v>
       </c>
       <c r="C124" t="n">
-        <v>1.199025702017684</v>
+        <v>0.5427564363635967</v>
       </c>
     </row>
     <row r="125">
@@ -1815,7 +1815,7 @@
         <v>0.2048</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5180982860167629</v>
+        <v>0.6552120055369345</v>
       </c>
     </row>
     <row r="126">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1193779471748798</v>
+        <v>0.3107393563821893</v>
       </c>
     </row>
     <row r="127">
@@ -1837,7 +1837,7 @@
         <v>2.615800000000005</v>
       </c>
       <c r="C127" t="n">
-        <v>2.203908366244654</v>
+        <v>0.6096000809664672</v>
       </c>
     </row>
     <row r="128">
@@ -1848,7 +1848,7 @@
         <v>0.3514</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3756009628895112</v>
+        <v>0.50786000455434</v>
       </c>
     </row>
     <row r="129">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2033278881135396</v>
+        <v>1.405414053811886</v>
       </c>
     </row>
     <row r="130">
@@ -1870,7 +1870,7 @@
         <v>24</v>
       </c>
       <c r="C130" t="n">
-        <v>20.70890995553858</v>
+        <v>5.69233344986451</v>
       </c>
     </row>
     <row r="131">
@@ -1881,7 +1881,7 @@
         <v>4.645199999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>2.587972077564997</v>
+        <v>1.77282181548604</v>
       </c>
     </row>
     <row r="132">
@@ -1892,7 +1892,7 @@
         <v>2.5</v>
       </c>
       <c r="C132" t="n">
-        <v>1.526494002204984</v>
+        <v>1.251645128667597</v>
       </c>
     </row>
     <row r="133">
@@ -1903,7 +1903,7 @@
         <v>9.608399999999971</v>
       </c>
       <c r="C133" t="n">
-        <v>8.632910396310534</v>
+        <v>3.126090878250409</v>
       </c>
     </row>
     <row r="134">
@@ -1914,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>2.422439512021541</v>
+        <v>2.350249129705583</v>
       </c>
     </row>
     <row r="135">
@@ -1925,7 +1925,7 @@
         <v>0.6424000000000003</v>
       </c>
       <c r="C135" t="n">
-        <v>0.687112186184676</v>
+        <v>3.572852317750923</v>
       </c>
     </row>
     <row r="136">
@@ -1936,7 +1936,7 @@
         <v>0.6</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5758630537367764</v>
+        <v>3.755128923531549</v>
       </c>
     </row>
     <row r="137">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2495607560151778</v>
+        <v>4.006462469440788</v>
       </c>
     </row>
     <row r="138">
@@ -1958,7 +1958,7 @@
         <v>2.5</v>
       </c>
       <c r="C138" t="n">
-        <v>1.739534014305981</v>
+        <v>5.599864205189037</v>
       </c>
     </row>
     <row r="139">
@@ -1969,7 +1969,7 @@
         <v>14.5</v>
       </c>
       <c r="C139" t="n">
-        <v>14.44807231358188</v>
+        <v>4.549876336476733</v>
       </c>
     </row>
     <row r="140">
@@ -1980,7 +1980,7 @@
         <v>15.3</v>
       </c>
       <c r="C140" t="n">
-        <v>12.98134794557351</v>
+        <v>7.007991794970406</v>
       </c>
     </row>
     <row r="141">
@@ -1991,7 +1991,7 @@
         <v>49.3</v>
       </c>
       <c r="C141" t="n">
-        <v>44.05554010189781</v>
+        <v>8.544440425302149</v>
       </c>
     </row>
     <row r="142">
@@ -2002,7 +2002,7 @@
         <v>3.752999999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>2.653685495101478</v>
+        <v>2.468822851585152</v>
       </c>
     </row>
     <row r="143">
@@ -2013,7 +2013,7 @@
         <v>54</v>
       </c>
       <c r="C143" t="n">
-        <v>40.24969195528847</v>
+        <v>4.369762713475121</v>
       </c>
     </row>
     <row r="144">
@@ -2024,7 +2024,7 @@
         <v>1.6</v>
       </c>
       <c r="C144" t="n">
-        <v>2.821618828387798</v>
+        <v>1.603395535889525</v>
       </c>
     </row>
     <row r="145">
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1.092938320958485</v>
+        <v>2.358928497779324</v>
       </c>
     </row>
     <row r="146">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5621722556103705</v>
+        <v>3.546521958371277</v>
       </c>
     </row>
     <row r="147">
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2393366427844759</v>
+        <v>2.410033228478184</v>
       </c>
     </row>
     <row r="148">
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1.168349306728859</v>
       </c>
     </row>
     <row r="149">
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1.111038559998269</v>
       </c>
     </row>
     <row r="150">
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1.051108830411789</v>
       </c>
     </row>
     <row r="151">
@@ -2277,7 +2277,7 @@
         <v>2.324199999999997</v>
       </c>
       <c r="C167" t="n">
-        <v>1.561719136244821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -2288,7 +2288,7 @@
         <v>2.6</v>
       </c>
       <c r="C168" t="n">
-        <v>1.232184876668164</v>
+        <v>0.6443891222747739</v>
       </c>
     </row>
     <row r="169">
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1318803907736459</v>
+        <v>1.948807084926993</v>
       </c>
     </row>
     <row r="170">
@@ -2310,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="C170" t="n">
-        <v>2.890340375182223</v>
+        <v>1.893759952125692</v>
       </c>
     </row>
     <row r="171">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3215291650774721</v>
+        <v>1.557059888609232</v>
       </c>
     </row>
     <row r="172">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2629756287827896</v>
+        <v>1.409139244987263</v>
       </c>
     </row>
     <row r="173">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>0.4643404364564526</v>
       </c>
     </row>
     <row r="174">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>0.4798304352638291</v>
       </c>
     </row>
     <row r="175">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>0.7694506636997374</v>
       </c>
     </row>
     <row r="178">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1.203226749719797</v>
       </c>
     </row>
     <row r="190">
@@ -2706,7 +2706,7 @@
         <v>22.4</v>
       </c>
       <c r="C206" t="n">
-        <v>19.03472252769141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1.42997770898589</v>
+        <v>4.624846257587625</v>
       </c>
     </row>
     <row r="208">
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.3206143358874061</v>
+        <v>1.319868507915739</v>
       </c>
     </row>
     <row r="209">
@@ -2739,7 +2739,7 @@
         <v>48.7</v>
       </c>
       <c r="C209" t="n">
-        <v>42.47813576907429</v>
+        <v>1.363274409528301</v>
       </c>
     </row>
     <row r="210">
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>1.793982219579171</v>
+        <v>2.930735908350945</v>
       </c>
     </row>
     <row r="211">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1.273719678581868</v>
+        <v>0.9559928619653973</v>
       </c>
     </row>
     <row r="212">
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>0.5930652556372601</v>
       </c>
     </row>
     <row r="213">
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>0.6772398437660911</v>
       </c>
     </row>
     <row r="214">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>0.8358242054865815</v>
       </c>
     </row>
     <row r="215">
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1.950170461598995</v>
       </c>
     </row>
     <row r="216">
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>0.7245755294277818</v>
       </c>
     </row>
     <row r="217">
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1.456971581721808</v>
       </c>
     </row>
     <row r="220">
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1.46712450572868</v>
       </c>
     </row>
     <row r="221">
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="C221" t="n">
-        <v>1.344026007263776</v>
+        <v>13.6600669076235</v>
       </c>
     </row>
     <row r="222">
@@ -2882,7 +2882,7 @@
         <v>44.4</v>
       </c>
       <c r="C222" t="n">
-        <v>41.52472587142381</v>
+        <v>7.20717143057572</v>
       </c>
     </row>
     <row r="223">
@@ -2893,7 +2893,7 @@
         <v>55</v>
       </c>
       <c r="C223" t="n">
-        <v>23.22636590604153</v>
+        <v>4.906603077036241</v>
       </c>
     </row>
     <row r="224">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>2.755770689563129</v>
+        <v>1.775156384513691</v>
       </c>
     </row>
     <row r="225">
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0.4747468042449155</v>
+        <v>0.6748238942565846</v>
       </c>
     </row>
     <row r="226">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>0.9422741327420879</v>
       </c>
     </row>
     <row r="227">
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>0.3750060144791527</v>
+        <v>0.8651546595948727</v>
       </c>
     </row>
     <row r="228">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>0.2840385974588847</v>
       </c>
     </row>
     <row r="229">
@@ -2959,7 +2959,7 @@
         <v>0.0032</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>0.1778128416412616</v>
       </c>
     </row>
     <row r="230">
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>0.57924719981757</v>
       </c>
     </row>
     <row r="231">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1.230131398781104</v>
       </c>
     </row>
     <row r="232">
@@ -2992,7 +2992,7 @@
         <v>0.05840000000000001</v>
       </c>
       <c r="C232" t="n">
-        <v>0.01770897584416606</v>
+        <v>1.823395139149507</v>
       </c>
     </row>
     <row r="233">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>0.03037895048656978</v>
+        <v>2.163793665727047</v>
       </c>
     </row>
     <row r="234">
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>0.6679305436323383</v>
       </c>
     </row>
     <row r="236">
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1.271026856536194</v>
       </c>
     </row>
     <row r="237">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>0.9467650806134312</v>
       </c>
     </row>
     <row r="238">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>0.1453965105879172</v>
       </c>
     </row>
     <row r="239">
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>0.3603638394012323</v>
       </c>
     </row>
     <row r="240">
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1.054067827472634</v>
       </c>
     </row>
     <row r="241">
@@ -3091,7 +3091,7 @@
         <v>2.2</v>
       </c>
       <c r="C241" t="n">
-        <v>0.9710195438308649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0.05439113043733142</v>
+        <v>0.962798335209894</v>
       </c>
     </row>
     <row r="243">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0.253696237166175</v>
+        <v>0.9369296902346507</v>
       </c>
     </row>
     <row r="244">
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>0.5386965440977145</v>
       </c>
     </row>
     <row r="245">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>0.5280240999890427</v>
       </c>
     </row>
     <row r="247">
@@ -3190,7 +3190,7 @@
         <v>46.6</v>
       </c>
       <c r="C250" t="n">
-        <v>27.85888882136117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -3201,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="C251" t="n">
-        <v>5.495089906007141</v>
+        <v>1.591173279763103</v>
       </c>
     </row>
     <row r="252">
@@ -3212,7 +3212,7 @@
         <v>7.6</v>
       </c>
       <c r="C252" t="n">
-        <v>5.153997647485515</v>
+        <v>7.786205414917847</v>
       </c>
     </row>
     <row r="253">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>0.4623430111606936</v>
+        <v>0.6717537468862651</v>
       </c>
     </row>
     <row r="254">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>0.4472773570764203</v>
+        <v>0.7234339312161078</v>
       </c>
     </row>
     <row r="255">
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>0.5349681510592124</v>
       </c>
     </row>
     <row r="256">
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1.604617840085989</v>
       </c>
     </row>
     <row r="257">
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>0.7263534127569512</v>
       </c>
     </row>
     <row r="258">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>0.588541836704639</v>
       </c>
     </row>
     <row r="259">
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1.053154690649698</v>
       </c>
     </row>
     <row r="260">
@@ -3300,7 +3300,7 @@
         <v>24.5</v>
       </c>
       <c r="C260" t="n">
-        <v>20.89834260307443</v>
+        <v>3.534206453898008</v>
       </c>
     </row>
     <row r="261">
@@ -3311,7 +3311,7 @@
         <v>18.4</v>
       </c>
       <c r="C261" t="n">
-        <v>17.33367834013766</v>
+        <v>4.035231956799235</v>
       </c>
     </row>
     <row r="262">
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1.245171479608732</v>
+        <v>4.173170006199873</v>
       </c>
     </row>
     <row r="263">
@@ -3333,7 +3333,7 @@
         <v>14.5</v>
       </c>
       <c r="C263" t="n">
-        <v>9.379288365197784</v>
+        <v>2.97776664522676</v>
       </c>
     </row>
     <row r="264">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>0.2847782915587904</v>
+        <v>0.8887367391820887</v>
       </c>
     </row>
     <row r="265">
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>0.3655851381228979</v>
+        <v>2.359983256567819</v>
       </c>
     </row>
     <row r="266">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>0.9662875618498139</v>
       </c>
     </row>
     <row r="267">
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1.475069260753914</v>
       </c>
     </row>
     <row r="268">
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1.433883388068895</v>
       </c>
     </row>
     <row r="269">
@@ -3399,7 +3399,7 @@
         <v>5.6</v>
       </c>
       <c r="C269" t="n">
-        <v>3.982998226857402</v>
+        <v>5.835248378497325</v>
       </c>
     </row>
     <row r="270">
@@ -3410,7 +3410,7 @@
         <v>1.2</v>
       </c>
       <c r="C270" t="n">
-        <v>0.49658904173352</v>
+        <v>2.378684344807116</v>
       </c>
     </row>
     <row r="271">
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>0.2884160067110173</v>
+        <v>1.463997811806216</v>
       </c>
     </row>
     <row r="272">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>0.08790212585829572</v>
+        <v>2.217410717272115</v>
       </c>
     </row>
     <row r="273">
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>0.3239880398008</v>
+        <v>0.7167813963965738</v>
       </c>
     </row>
     <row r="274">
@@ -3454,7 +3454,7 @@
         <v>7.2</v>
       </c>
       <c r="C274" t="n">
-        <v>6.27750153330837</v>
+        <v>3.778320819326287</v>
       </c>
     </row>
     <row r="275">
@@ -3465,7 +3465,7 @@
         <v>17.8</v>
       </c>
       <c r="C275" t="n">
-        <v>16.46143109936445</v>
+        <v>2.130904770381192</v>
       </c>
     </row>
     <row r="276">
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>0.9230442419126113</v>
+        <v>3.771623293152937</v>
       </c>
     </row>
     <row r="277">
@@ -3487,7 +3487,7 @@
         <v>8</v>
       </c>
       <c r="C277" t="n">
-        <v>4.987727003643408</v>
+        <v>3.510183174329905</v>
       </c>
     </row>
     <row r="278">
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>0.3597143183352305</v>
+        <v>3.202052838966415</v>
       </c>
     </row>
     <row r="279">
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1.028308106914072</v>
+        <v>2.976700204585483</v>
       </c>
     </row>
     <row r="280">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1.855604947043688</v>
       </c>
     </row>
     <row r="281">
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1.728533545546197</v>
       </c>
     </row>
     <row r="282">
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>2.998791313392884</v>
       </c>
     </row>
     <row r="283">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>2.469952898722645</v>
       </c>
     </row>
     <row r="284">
@@ -3564,7 +3564,7 @@
         <v>1.6</v>
       </c>
       <c r="C284" t="n">
-        <v>0.9627340968902265</v>
+        <v>3.12428970732915</v>
       </c>
     </row>
     <row r="285">
@@ -3575,7 +3575,7 @@
         <v>50</v>
       </c>
       <c r="C285" t="n">
-        <v>42.08621866275114</v>
+        <v>2.250219755059247</v>
       </c>
     </row>
     <row r="286">
@@ -3586,7 +3586,7 @@
         <v>0.6</v>
       </c>
       <c r="C286" t="n">
-        <v>1.604907529055162</v>
+        <v>1.4784589246715</v>
       </c>
     </row>
     <row r="287">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>1.621931165348038</v>
+        <v>3.233905800222194</v>
       </c>
     </row>
     <row r="288">
@@ -3608,7 +3608,7 @@
         <v>0.6</v>
       </c>
       <c r="C288" t="n">
-        <v>0.6712299684686843</v>
+        <v>1.061354091926654</v>
       </c>
     </row>
     <row r="289">
@@ -3619,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="C289" t="n">
-        <v>2.931282620277729</v>
+        <v>0.7199786735891648</v>
       </c>
     </row>
     <row r="290">
@@ -3630,7 +3630,7 @@
         <v>26</v>
       </c>
       <c r="C290" t="n">
-        <v>18.45751633854201</v>
+        <v>1.136576903192011</v>
       </c>
     </row>
     <row r="291">
@@ -3641,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="C291" t="n">
-        <v>3.077889628001635</v>
+        <v>5.437589331477032</v>
       </c>
     </row>
     <row r="292">
@@ -3652,7 +3652,7 @@
         <v>10.4</v>
       </c>
       <c r="C292" t="n">
-        <v>8.233392638017648</v>
+        <v>5.163840361610451</v>
       </c>
     </row>
     <row r="293">
@@ -3663,7 +3663,7 @@
         <v>48.2</v>
       </c>
       <c r="C293" t="n">
-        <v>44.56862780826425</v>
+        <v>7.398252121742344</v>
       </c>
     </row>
     <row r="294">
@@ -3674,7 +3674,7 @@
         <v>22.86099999999998</v>
       </c>
       <c r="C294" t="n">
-        <v>19.14047118950731</v>
+        <v>7.285085696988661</v>
       </c>
     </row>
     <row r="295">
@@ -3685,7 +3685,7 @@
         <v>30.4</v>
       </c>
       <c r="C295" t="n">
-        <v>27.68221157630722</v>
+        <v>7.793198013304516</v>
       </c>
     </row>
     <row r="296">
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>2.242862506286929</v>
+        <v>5.006504262269956</v>
       </c>
     </row>
     <row r="297">
@@ -3707,7 +3707,7 @@
         <v>26</v>
       </c>
       <c r="C297" t="n">
-        <v>20.58506811378585</v>
+        <v>4.592094331084906</v>
       </c>
     </row>
     <row r="298">
@@ -3718,7 +3718,7 @@
         <v>0.7</v>
       </c>
       <c r="C298" t="n">
-        <v>1.835088336516279</v>
+        <v>1.650414933809995</v>
       </c>
     </row>
     <row r="299">
@@ -3729,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>1.836595443665833</v>
+        <v>0.7638936789543814</v>
       </c>
     </row>
     <row r="300">
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>0.04557001922499279</v>
+        <v>0.6788610805074481</v>
       </c>
     </row>
     <row r="301">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>0.4442836899371124</v>
+        <v>1.834990867657425</v>
       </c>
     </row>
     <row r="302">
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>2.890217009203438</v>
       </c>
     </row>
     <row r="303">
@@ -3773,7 +3773,7 @@
         <v>18.5</v>
       </c>
       <c r="C303" t="n">
-        <v>16.91009744802886</v>
+        <v>4.910858384662158</v>
       </c>
     </row>
     <row r="304">
@@ -3784,7 +3784,7 @@
         <v>6.5</v>
       </c>
       <c r="C304" t="n">
-        <v>3.88064572439371</v>
+        <v>2.722370612757367</v>
       </c>
     </row>
     <row r="305">
@@ -3795,7 +3795,7 @@
         <v>10.02500000000002</v>
       </c>
       <c r="C305" t="n">
-        <v>7.641974339976432</v>
+        <v>4.350487824832109</v>
       </c>
     </row>
     <row r="306">
@@ -3806,7 +3806,7 @@
         <v>1.2</v>
       </c>
       <c r="C306" t="n">
-        <v>0.7727363666224208</v>
+        <v>1.904653702310072</v>
       </c>
     </row>
     <row r="307">
@@ -3817,7 +3817,7 @@
         <v>56</v>
       </c>
       <c r="C307" t="n">
-        <v>52.94532572995382</v>
+        <v>4.722349234639936</v>
       </c>
     </row>
     <row r="308">
@@ -3828,7 +3828,7 @@
         <v>10.2</v>
       </c>
       <c r="C308" t="n">
-        <v>7.841226813671784</v>
+        <v>4.567079807161194</v>
       </c>
     </row>
     <row r="309">
@@ -3839,7 +3839,7 @@
         <v>19</v>
       </c>
       <c r="C309" t="n">
-        <v>18.55103206342853</v>
+        <v>2.864233114880695</v>
       </c>
     </row>
     <row r="310">
@@ -3850,7 +3850,7 @@
         <v>43.8</v>
       </c>
       <c r="C310" t="n">
-        <v>34.89700895580976</v>
+        <v>6.750152406625764</v>
       </c>
     </row>
     <row r="311">
@@ -3861,7 +3861,7 @@
         <v>17</v>
       </c>
       <c r="C311" t="n">
-        <v>10.53977981722868</v>
+        <v>24.27504936120366</v>
       </c>
     </row>
     <row r="312">
@@ -3872,7 +3872,7 @@
         <v>3.4</v>
       </c>
       <c r="C312" t="n">
-        <v>5.701092947892421</v>
+        <v>3.757631376931263</v>
       </c>
     </row>
     <row r="313">
@@ -3883,7 +3883,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C313" t="n">
-        <v>4.351762904825677</v>
+        <v>6.681206882856746</v>
       </c>
     </row>
     <row r="314">
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>0.8491215428015569</v>
+        <v>0.8305611777115661</v>
       </c>
     </row>
     <row r="315">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.2454534054154261</v>
+        <v>3.263074809821251</v>
       </c>
     </row>
     <row r="316">
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>0.9556060516330331</v>
       </c>
     </row>
     <row r="317">
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0.607056786485893</v>
+        <v>1.481419014185766</v>
       </c>
     </row>
     <row r="318">
@@ -3938,7 +3938,7 @@
         <v>1.6</v>
       </c>
       <c r="C318" t="n">
-        <v>0.7301506240116171</v>
+        <v>2.957526308164541</v>
       </c>
     </row>
     <row r="319">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>0.08952742853309156</v>
+        <v>2.382742109336146</v>
       </c>
     </row>
     <row r="320">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>0.2183959019750192</v>
+        <v>3.624062115021224</v>
       </c>
     </row>
     <row r="321">
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>2.657207935813465</v>
       </c>
     </row>
     <row r="322">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>2.027455918898797</v>
       </c>
     </row>
     <row r="323">
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>0.8849815108813406</v>
       </c>
     </row>
     <row r="324">
@@ -4004,7 +4004,7 @@
         <v>18.4</v>
       </c>
       <c r="C324" t="n">
-        <v>16.14145439499359</v>
+        <v>4.693785391130187</v>
       </c>
     </row>
     <row r="325">
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>0.6332850975838504</v>
+        <v>2.354599285509309</v>
       </c>
     </row>
     <row r="326">
@@ -4026,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="C326" t="n">
-        <v>6.792558457222065</v>
+        <v>2.249493770290703</v>
       </c>
     </row>
     <row r="327">
@@ -4037,7 +4037,7 @@
         <v>71</v>
       </c>
       <c r="C327" t="n">
-        <v>77.31880982417084</v>
+        <v>6.104434437948073</v>
       </c>
     </row>
     <row r="328">
@@ -4048,7 +4048,7 @@
         <v>6.5</v>
       </c>
       <c r="C328" t="n">
-        <v>6.507545647751337</v>
+        <v>7.51867053276212</v>
       </c>
     </row>
     <row r="329">
@@ -4059,7 +4059,7 @@
         <v>23.2</v>
       </c>
       <c r="C329" t="n">
-        <v>19.07597483105292</v>
+        <v>2.167498511028365</v>
       </c>
     </row>
     <row r="330">
@@ -4070,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="C330" t="n">
-        <v>1.37743333569209</v>
+        <v>3.337000817337256</v>
       </c>
     </row>
     <row r="331">
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>0.8949960798920488</v>
+        <v>0.7760397887409141</v>
       </c>
     </row>
     <row r="332">
@@ -4092,7 +4092,7 @@
         <v>29.2</v>
       </c>
       <c r="C332" t="n">
-        <v>13.56448019271543</v>
+        <v>2.844305356177996</v>
       </c>
     </row>
     <row r="333">
@@ -4103,7 +4103,7 @@
         <v>18</v>
       </c>
       <c r="C333" t="n">
-        <v>9.295634571708355</v>
+        <v>9.68360426497188</v>
       </c>
     </row>
     <row r="334">
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1.525554813849824</v>
+        <v>3.630830461232248</v>
       </c>
     </row>
     <row r="335">
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>0.405306025391147</v>
+        <v>1.588662094136509</v>
       </c>
     </row>
     <row r="336">
@@ -4136,7 +4136,7 @@
         <v>38.5</v>
       </c>
       <c r="C336" t="n">
-        <v>43.26891095069099</v>
+        <v>3.608524860628912</v>
       </c>
     </row>
     <row r="337">
@@ -4147,7 +4147,7 @@
         <v>6.4</v>
       </c>
       <c r="C337" t="n">
-        <v>4.074085872761978</v>
+        <v>6.562352397206183</v>
       </c>
     </row>
     <row r="338">
@@ -4158,7 +4158,7 @@
         <v>29.2</v>
       </c>
       <c r="C338" t="n">
-        <v>29.80672885202029</v>
+        <v>1.813725476949297</v>
       </c>
     </row>
     <row r="339">
@@ -4169,7 +4169,7 @@
         <v>60</v>
       </c>
       <c r="C339" t="n">
-        <v>46.03799646589688</v>
+        <v>37.60228729004395</v>
       </c>
     </row>
     <row r="340">
@@ -4180,7 +4180,7 @@
         <v>22.1</v>
       </c>
       <c r="C340" t="n">
-        <v>24.00625891528487</v>
+        <v>9.13545947507474</v>
       </c>
     </row>
     <row r="341">
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>3.543909216701193</v>
+        <v>6.676876892369509</v>
       </c>
     </row>
     <row r="342">
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>2.915838068254042</v>
+        <v>2.400397815071689</v>
       </c>
     </row>
     <row r="343">
@@ -4213,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="C343" t="n">
-        <v>1.30055490737055</v>
+        <v>3.581202743742137</v>
       </c>
     </row>
     <row r="344">
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>0.444198917395814</v>
+        <v>5.053249574631265</v>
       </c>
     </row>
     <row r="345">
@@ -4235,7 +4235,7 @@
         <v>0.5</v>
       </c>
       <c r="C345" t="n">
-        <v>0.7838560711433958</v>
+        <v>7.056504129865669</v>
       </c>
     </row>
     <row r="346">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>0.171003297478605</v>
+        <v>5.644316101278501</v>
       </c>
     </row>
     <row r="347">
@@ -4257,7 +4257,7 @@
         <v>184.8</v>
       </c>
       <c r="C347" t="n">
-        <v>165.7413189663575</v>
+        <v>12.52461171317625</v>
       </c>
     </row>
     <row r="348">
@@ -4268,7 +4268,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="C348" t="n">
-        <v>16.25565176785572</v>
+        <v>16.69338005708475</v>
       </c>
     </row>
     <row r="349">
@@ -4279,7 +4279,7 @@
         <v>9.5</v>
       </c>
       <c r="C349" t="n">
-        <v>18.42410316024349</v>
+        <v>7.289809142277604</v>
       </c>
     </row>
     <row r="350">
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>3.563204748419143</v>
+        <v>12.92210998208168</v>
       </c>
     </row>
     <row r="351">
@@ -4301,7 +4301,7 @@
         <v>1.3</v>
       </c>
       <c r="C351" t="n">
-        <v>5.32491062177347</v>
+        <v>5.287343445443945</v>
       </c>
     </row>
     <row r="352">
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>0.2058316262282203</v>
+        <v>7.127175960412723</v>
       </c>
     </row>
     <row r="353">
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>0.5760313849751294</v>
+        <v>2.599994195079349</v>
       </c>
     </row>
     <row r="354">
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0.8551239474195153</v>
+        <v>6.544034958718292</v>
       </c>
     </row>
     <row r="355">
@@ -4345,7 +4345,7 @@
         <v>13.8</v>
       </c>
       <c r="C355" t="n">
-        <v>9.010422933095773</v>
+        <v>4.955568742299691</v>
       </c>
     </row>
     <row r="356">
@@ -4356,7 +4356,7 @@
         <v>8.4</v>
       </c>
       <c r="C356" t="n">
-        <v>5.587890011077007</v>
+        <v>2.969115180173201</v>
       </c>
     </row>
     <row r="357">
@@ -4367,7 +4367,7 @@
         <v>75.3</v>
       </c>
       <c r="C357" t="n">
-        <v>82.4317384373924</v>
+        <v>2.793415476409352</v>
       </c>
     </row>
     <row r="358">
@@ -4378,7 +4378,7 @@
         <v>0.3</v>
       </c>
       <c r="C358" t="n">
-        <v>2.231647635822449</v>
+        <v>3.758528044290073</v>
       </c>
     </row>
     <row r="359">
@@ -4389,7 +4389,7 @@
         <v>1.7</v>
       </c>
       <c r="C359" t="n">
-        <v>2.241971422221583</v>
+        <v>1.557899926496936</v>
       </c>
     </row>
     <row r="360">
@@ -4400,7 +4400,7 @@
         <v>1.1</v>
       </c>
       <c r="C360" t="n">
-        <v>1.849088641601695</v>
+        <v>5.193458777080919</v>
       </c>
     </row>
     <row r="361">
@@ -4411,7 +4411,7 @@
         <v>0.8</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9710428150394389</v>
+        <v>2.337124400704791</v>
       </c>
     </row>
     <row r="362">
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>0.2939572954506143</v>
+        <v>3.531059555298726</v>
       </c>
     </row>
     <row r="363">
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>0.2721754772356318</v>
+        <v>0.3499251628214523</v>
       </c>
     </row>
     <row r="364">
@@ -4441,10 +4441,10 @@
         <v>45703</v>
       </c>
       <c r="B364" t="n">
-        <v>1.216000000000001</v>
+        <v>1.216</v>
       </c>
       <c r="C364" t="n">
-        <v>0.5800068998285882</v>
+        <v>1.14243902386273</v>
       </c>
     </row>
     <row r="365">
@@ -4455,7 +4455,7 @@
         <v>1.6</v>
       </c>
       <c r="C365" t="n">
-        <v>0.7529391346911546</v>
+        <v>2.338571791996555</v>
       </c>
     </row>
     <row r="366">
@@ -4466,7 +4466,7 @@
         <v>0.6</v>
       </c>
       <c r="C366" t="n">
-        <v>0.506392565551506</v>
+        <v>2.731647915335079</v>
       </c>
     </row>
     <row r="367">
@@ -4477,7 +4477,7 @@
         <v>27.9</v>
       </c>
       <c r="C367" t="n">
-        <v>26.61860326103116</v>
+        <v>19.75453946262325</v>
       </c>
     </row>
     <row r="368">
@@ -4488,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="C368" t="n">
-        <v>3.422680306233731</v>
+        <v>8.746520796504525</v>
       </c>
     </row>
     <row r="369">
@@ -4499,7 +4499,7 @@
         <v>18.6</v>
       </c>
       <c r="C369" t="n">
-        <v>14.60663283396978</v>
+        <v>10.48243345757262</v>
       </c>
     </row>
     <row r="370">
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0.9600342283044742</v>
+        <v>7.236026281639208</v>
       </c>
     </row>
     <row r="371">
@@ -4521,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="C371" t="n">
-        <v>1.355850700257291</v>
+        <v>3.894089525366619</v>
       </c>
     </row>
     <row r="372">
@@ -4532,7 +4532,7 @@
         <v>5.5</v>
       </c>
       <c r="C372" t="n">
-        <v>2.416516623700797</v>
+        <v>12.02301247591091</v>
       </c>
     </row>
     <row r="373">
@@ -4543,7 +4543,7 @@
         <v>87.7</v>
       </c>
       <c r="C373" t="n">
-        <v>81.23392955717704</v>
+        <v>7.307757213168244</v>
       </c>
     </row>
     <row r="374">
@@ -4554,7 +4554,7 @@
         <v>0.2</v>
       </c>
       <c r="C374" t="n">
-        <v>2.366394728920156</v>
+        <v>8.801264744234956</v>
       </c>
     </row>
     <row r="375">
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>3.422405019568459</v>
+        <v>6.043788287670578</v>
       </c>
     </row>
     <row r="376">
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>0.9000637291636452</v>
+        <v>6.657127360525255</v>
       </c>
     </row>
     <row r="377">
@@ -4587,7 +4587,7 @@
         <v>8.4</v>
       </c>
       <c r="C377" t="n">
-        <v>5.223814283626638</v>
+        <v>5.599386152102259</v>
       </c>
     </row>
     <row r="378">
@@ -4598,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="C378" t="n">
-        <v>0.6050067784458325</v>
+        <v>3.092734895047549</v>
       </c>
     </row>
     <row r="379">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>0.2581198235111491</v>
+        <v>2.136312651891937</v>
       </c>
     </row>
     <row r="380">
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>0.4458327837090991</v>
+        <v>5.407764804122804</v>
       </c>
     </row>
     <row r="381">
@@ -4631,7 +4631,7 @@
         <v>40.5</v>
       </c>
       <c r="C381" t="n">
-        <v>42.2974253023508</v>
+        <v>4.185670225758725</v>
       </c>
     </row>
     <row r="382">
@@ -4642,7 +4642,7 @@
         <v>11.31319999999999</v>
       </c>
       <c r="C382" t="n">
-        <v>6.859186667520731</v>
+        <v>6.664192438415573</v>
       </c>
     </row>
     <row r="383">
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>0.8747218990637218</v>
+        <v>1.136608202309502</v>
       </c>
     </row>
     <row r="384">
@@ -4661,10 +4661,10 @@
         <v>45723</v>
       </c>
       <c r="B384" t="n">
-        <v>6.252</v>
+        <v>6.252000000000001</v>
       </c>
       <c r="C384" t="n">
-        <v>3.748126556426752</v>
+        <v>1.289302826964132</v>
       </c>
     </row>
     <row r="385">
@@ -4675,7 +4675,7 @@
         <v>2.266599999999998</v>
       </c>
       <c r="C385" t="n">
-        <v>0.7884804770922533</v>
+        <v>1.247109493699591</v>
       </c>
     </row>
     <row r="386">
@@ -4686,7 +4686,7 @@
         <v>1.857600000000001</v>
       </c>
       <c r="C386" t="n">
-        <v>1.240181925242024</v>
+        <v>4.596192570781065</v>
       </c>
     </row>
     <row r="387">
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>0.6302420655724978</v>
+        <v>3.521328705371026</v>
       </c>
     </row>
     <row r="388">
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>0.3203703618194015</v>
+        <v>3.919477636115882</v>
       </c>
     </row>
     <row r="389">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>6.813964116836029</v>
       </c>
     </row>
     <row r="390">
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>2.210585453726462</v>
       </c>
     </row>
     <row r="391">
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>4.777063669166029</v>
       </c>
     </row>
     <row r="392">
@@ -4752,7 +4752,7 @@
         <v>1.3</v>
       </c>
       <c r="C392" t="n">
-        <v>0.5175549088131306</v>
+        <v>1.743446107450432</v>
       </c>
     </row>
     <row r="393">
@@ -4763,7 +4763,7 @@
         <v>0.6</v>
       </c>
       <c r="C393" t="n">
-        <v>0.3328535841109526</v>
+        <v>1.01305269186809</v>
       </c>
     </row>
     <row r="394">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1.095841718111187</v>
       </c>
     </row>
     <row r="395">
@@ -4785,7 +4785,7 @@
         <v>23.1</v>
       </c>
       <c r="C395" t="n">
-        <v>20.38754700810591</v>
+        <v>2.703525649802887</v>
       </c>
     </row>
     <row r="396">
@@ -4796,7 +4796,7 @@
         <v>1.3</v>
       </c>
       <c r="C396" t="n">
-        <v>1.555575624666147</v>
+        <v>4.900231240820764</v>
       </c>
     </row>
     <row r="397">
@@ -4807,7 +4807,7 @@
         <v>6</v>
       </c>
       <c r="C397" t="n">
-        <v>3.975608582964921</v>
+        <v>0.8038660449564111</v>
       </c>
     </row>
     <row r="398">
@@ -4818,7 +4818,7 @@
         <v>1.4</v>
       </c>
       <c r="C398" t="n">
-        <v>0.6022862605400658</v>
+        <v>2.930044747150087</v>
       </c>
     </row>
     <row r="399">
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>0.4724066086000415</v>
+        <v>1.396980523608688</v>
       </c>
     </row>
     <row r="400">
@@ -4840,7 +4840,7 @@
         <v>20.3</v>
       </c>
       <c r="C400" t="n">
-        <v>13.63577005587508</v>
+        <v>4.521031889741503</v>
       </c>
     </row>
     <row r="401">
@@ -4851,7 +4851,7 @@
         <v>1.2</v>
       </c>
       <c r="C401" t="n">
-        <v>1.69446489311879</v>
+        <v>3.809996237284516</v>
       </c>
     </row>
     <row r="402">
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1.087004540687561</v>
+        <v>2.711777922941836</v>
       </c>
     </row>
     <row r="403">
@@ -4873,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0.7281507769894945</v>
+        <v>2.327176130041233</v>
       </c>
     </row>
     <row r="404">
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>0.2688819340021832</v>
+        <v>3.39867334235778</v>
       </c>
     </row>
     <row r="405">
@@ -4895,7 +4895,7 @@
         <v>5.4</v>
       </c>
       <c r="C405" t="n">
-        <v>3.45966997818256</v>
+        <v>7.779772375046905</v>
       </c>
     </row>
     <row r="406">
@@ -4906,7 +4906,7 @@
         <v>0.3</v>
       </c>
       <c r="C406" t="n">
-        <v>0.4473927979008638</v>
+        <v>8.946227871170612</v>
       </c>
     </row>
     <row r="407">
@@ -4914,10 +4914,10 @@
         <v>45746</v>
       </c>
       <c r="B407" t="n">
-        <v>8.857200000000002</v>
+        <v>8.857200000000001</v>
       </c>
       <c r="C407" t="n">
-        <v>6.943014356141123</v>
+        <v>1.73028605533779</v>
       </c>
     </row>
     <row r="408">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>0.2848970066361801</v>
+        <v>0.960637603631178</v>
       </c>
     </row>
     <row r="409">
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0.7121999444439068</v>
+        <v>1.134243510936991</v>
       </c>
     </row>
     <row r="410">
@@ -4950,7 +4950,7 @@
         <v>5.8</v>
       </c>
       <c r="C410" t="n">
-        <v>5.243367739247883</v>
+        <v>4.77010084817688</v>
       </c>
     </row>
     <row r="411">
@@ -4961,7 +4961,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C411" t="n">
-        <v>7.26067671438221</v>
+        <v>8.258988565132347</v>
       </c>
     </row>
     <row r="412">
@@ -4972,7 +4972,7 @@
         <v>5.9</v>
       </c>
       <c r="C412" t="n">
-        <v>4.063788765672195</v>
+        <v>2.055271414790745</v>
       </c>
     </row>
     <row r="413">
@@ -4983,7 +4983,7 @@
         <v>6.650999999999996</v>
       </c>
       <c r="C413" t="n">
-        <v>7.156261783346226</v>
+        <v>3.571661277489901</v>
       </c>
     </row>
     <row r="414">
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>0.661695414410578</v>
+        <v>4.076483273641156</v>
       </c>
     </row>
     <row r="415">
@@ -5005,7 +5005,7 @@
         <v>43</v>
       </c>
       <c r="C415" t="n">
-        <v>40.36526150872548</v>
+        <v>7.737258337753723</v>
       </c>
     </row>
     <row r="416">
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1.7557316041782</v>
+        <v>5.199200260003165</v>
       </c>
     </row>
     <row r="417">
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1.100000455546556</v>
+        <v>0.993429366603655</v>
       </c>
     </row>
     <row r="418">
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>0.9319680666843291</v>
       </c>
     </row>
     <row r="419">
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1.880211847049875</v>
       </c>
     </row>
     <row r="420">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>2.762798755744276</v>
       </c>
     </row>
     <row r="421">
@@ -5071,7 +5071,7 @@
         <v>11.1</v>
       </c>
       <c r="C421" t="n">
-        <v>5.879399782794679</v>
+        <v>2.208315092919057</v>
       </c>
     </row>
     <row r="422">
@@ -5082,7 +5082,7 @@
         <v>8.9</v>
       </c>
       <c r="C422" t="n">
-        <v>6.45503530401894</v>
+        <v>8.457859487068944</v>
       </c>
     </row>
     <row r="423">
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>0.6798151574457775</v>
+        <v>1.7567663173563</v>
       </c>
     </row>
     <row r="424">
@@ -5104,7 +5104,7 @@
         <v>2.5</v>
       </c>
       <c r="C424" t="n">
-        <v>1.646905832961423</v>
+        <v>1.428414596901728</v>
       </c>
     </row>
     <row r="425">
@@ -5115,7 +5115,7 @@
         <v>25.5</v>
       </c>
       <c r="C425" t="n">
-        <v>23.51700043894648</v>
+        <v>3.651009482046676</v>
       </c>
     </row>
     <row r="426">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1.433308381697623</v>
+        <v>7.722852862483706</v>
       </c>
     </row>
     <row r="427">
@@ -5137,7 +5137,7 @@
         <v>2.8</v>
       </c>
       <c r="C427" t="n">
-        <v>1.527355552288341</v>
+        <v>3.630350080612207</v>
       </c>
     </row>
     <row r="428">
@@ -5148,7 +5148,7 @@
         <v>2.1</v>
       </c>
       <c r="C428" t="n">
-        <v>1.130463063332012</v>
+        <v>1.893718991614582</v>
       </c>
     </row>
     <row r="429">
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>0.46735836399775</v>
+        <v>2.327478835562095</v>
       </c>
     </row>
     <row r="430">
@@ -5170,7 +5170,7 @@
         <v>7.5</v>
       </c>
       <c r="C430" t="n">
-        <v>4.522348212065269</v>
+        <v>4.944762088469177</v>
       </c>
     </row>
     <row r="431">
@@ -5181,7 +5181,7 @@
         <v>9.5</v>
       </c>
       <c r="C431" t="n">
-        <v>5.008031896212232</v>
+        <v>7.895058911354054</v>
       </c>
     </row>
     <row r="432">
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>0.8158059996157582</v>
+        <v>1.901692975546935</v>
       </c>
     </row>
     <row r="433">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>0.1397176148035108</v>
+        <v>1.761935779258225</v>
       </c>
     </row>
     <row r="434">
@@ -5214,7 +5214,7 @@
         <v>1.069600000000002</v>
       </c>
       <c r="C434" t="n">
-        <v>0.471757101071501</v>
+        <v>5.476250734385693</v>
       </c>
     </row>
     <row r="435">
@@ -5225,7 +5225,7 @@
         <v>25</v>
       </c>
       <c r="C435" t="n">
-        <v>21.37373264871466</v>
+        <v>5.396397135770109</v>
       </c>
     </row>
     <row r="436">
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>0.548234054636657</v>
+        <v>2.022233367637674</v>
       </c>
     </row>
     <row r="437">
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0.3958945985022667</v>
+        <v>1.38891812915872</v>
       </c>
     </row>
     <row r="438">
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1.601485995802179</v>
       </c>
     </row>
     <row r="439">
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>0.3927904134008147</v>
       </c>
     </row>
     <row r="440">
@@ -5280,7 +5280,7 @@
         <v>0.0326</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>2.788575278181488</v>
       </c>
     </row>
     <row r="441">
@@ -5291,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="C441" t="n">
-        <v>1.664847624256457</v>
+        <v>1.819068101052941</v>
       </c>
     </row>
     <row r="442">
@@ -5302,7 +5302,7 @@
         <v>42.2</v>
       </c>
       <c r="C442" t="n">
-        <v>29.20812451672818</v>
+        <v>1.876913221193373</v>
       </c>
     </row>
     <row r="443">
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1.796245925793523</v>
+        <v>2.671038139574424</v>
       </c>
     </row>
     <row r="444">
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1.006652161603085</v>
+        <v>2.002634655954112</v>
       </c>
     </row>
     <row r="445">
@@ -5335,7 +5335,7 @@
         <v>3</v>
       </c>
       <c r="C445" t="n">
-        <v>1.299635151329146</v>
+        <v>1.67175663370889</v>
       </c>
     </row>
     <row r="446">
@@ -5346,7 +5346,7 @@
         <v>3.7</v>
       </c>
       <c r="C446" t="n">
-        <v>1.93221228402571</v>
+        <v>2.672491759043668</v>
       </c>
     </row>
     <row r="447">
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>0.4420144143197058</v>
+        <v>3.921533149916983</v>
       </c>
     </row>
     <row r="448">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>0.2068015092160317</v>
+        <v>0.4375239859330339</v>
       </c>
     </row>
     <row r="449">
@@ -5379,7 +5379,7 @@
         <v>0.8</v>
       </c>
       <c r="C449" t="n">
-        <v>0.3283021914828265</v>
+        <v>3.8210515677023</v>
       </c>
     </row>
     <row r="450">
@@ -5390,7 +5390,7 @@
         <v>27</v>
       </c>
       <c r="C450" t="n">
-        <v>22.60009240696493</v>
+        <v>3.901923388770217</v>
       </c>
     </row>
     <row r="451">
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>0.5246410327482645</v>
+        <v>1.317899828363799</v>
       </c>
     </row>
     <row r="452">
@@ -5412,7 +5412,7 @@
         <v>55.2</v>
       </c>
       <c r="C452" t="n">
-        <v>48.03981899907607</v>
+        <v>2.172035682259939</v>
       </c>
     </row>
     <row r="453">
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>1.437309697612794</v>
+        <v>3.183735627361569</v>
       </c>
     </row>
     <row r="454">
@@ -5434,7 +5434,7 @@
         <v>37.2</v>
       </c>
       <c r="C454" t="n">
-        <v>27.73298948660102</v>
+        <v>1.070457861775205</v>
       </c>
     </row>
     <row r="455">
@@ -5445,7 +5445,7 @@
         <v>2.1</v>
       </c>
       <c r="C455" t="n">
-        <v>2.935065542425779</v>
+        <v>7.987829667355948</v>
       </c>
     </row>
     <row r="456">
@@ -5456,7 +5456,7 @@
         <v>5.7</v>
       </c>
       <c r="C456" t="n">
-        <v>4.652376689610014</v>
+        <v>6.283608458070296</v>
       </c>
     </row>
     <row r="457">
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>1.364165356610261</v>
+        <v>8.615620468228435</v>
       </c>
     </row>
     <row r="458">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>0.5233364169127069</v>
+        <v>2.686908980050758</v>
       </c>
     </row>
     <row r="459">
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>0.3327683270732344</v>
+        <v>2.962837217874805</v>
       </c>
     </row>
     <row r="460">
@@ -5500,7 +5500,7 @@
         <v>40.4</v>
       </c>
       <c r="C460" t="n">
-        <v>38.41423922170056</v>
+        <v>11.38630684260205</v>
       </c>
     </row>
     <row r="461">
@@ -5511,7 +5511,7 @@
         <v>4.9</v>
       </c>
       <c r="C461" t="n">
-        <v>3.441052130024563</v>
+        <v>6.279086187069937</v>
       </c>
     </row>
     <row r="462">
@@ -5522,7 +5522,7 @@
         <v>7.5</v>
       </c>
       <c r="C462" t="n">
-        <v>4.623484733534116</v>
+        <v>22.96511352934025</v>
       </c>
     </row>
     <row r="463">
@@ -5533,7 +5533,7 @@
         <v>0.5</v>
       </c>
       <c r="C463" t="n">
-        <v>0.8819966356814986</v>
+        <v>3.240758047771013</v>
       </c>
     </row>
     <row r="464">
@@ -5544,7 +5544,7 @@
         <v>33</v>
       </c>
       <c r="C464" t="n">
-        <v>31.68231730597519</v>
+        <v>13.50835751906306</v>
       </c>
     </row>
     <row r="465">
@@ -5555,7 +5555,7 @@
         <v>21.3</v>
       </c>
       <c r="C465" t="n">
-        <v>10.76799627507797</v>
+        <v>8.600400062077716</v>
       </c>
     </row>
     <row r="466">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>0.9747953636289008</v>
+        <v>2.145140500814473</v>
       </c>
     </row>
     <row r="467">
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>0.3955240403993672</v>
+        <v>1.725461149450843</v>
       </c>
     </row>
     <row r="468">
@@ -5588,7 +5588,7 @@
         <v>20</v>
       </c>
       <c r="C468" t="n">
-        <v>17.1699335446806</v>
+        <v>0.892223762189339</v>
       </c>
     </row>
     <row r="469">
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>2.018021645451425</v>
+        <v>2.494822873481528</v>
       </c>
     </row>
     <row r="470">
@@ -5610,7 +5610,7 @@
         <v>1.6</v>
       </c>
       <c r="C470" t="n">
-        <v>0.7659338376882201</v>
+        <v>3.385373215365042</v>
       </c>
     </row>
     <row r="471">
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>0.3019048245925645</v>
+        <v>2.2386924101835</v>
       </c>
     </row>
     <row r="472">
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1.781478107352229</v>
       </c>
     </row>
     <row r="473">
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1.869246710477342</v>
       </c>
     </row>
     <row r="474">
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>0.5033528760244073</v>
       </c>
     </row>
     <row r="475">
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>0.2827682677470488</v>
       </c>
     </row>
     <row r="476">
@@ -5676,7 +5676,7 @@
         <v>1.283799999999998</v>
       </c>
       <c r="C476" t="n">
-        <v>0.5653907633681236</v>
+        <v>0.7364943169784587</v>
       </c>
     </row>
     <row r="477">
@@ -5687,7 +5687,7 @@
         <v>16.5</v>
       </c>
       <c r="C477" t="n">
-        <v>15.30524885663226</v>
+        <v>2.665928423585283</v>
       </c>
     </row>
     <row r="478">
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>0.5920851903706816</v>
+        <v>0.5534688282108524</v>
       </c>
     </row>
     <row r="479">
@@ -5709,7 +5709,7 @@
         <v>27.3</v>
       </c>
       <c r="C479" t="n">
-        <v>23.31246210176969</v>
+        <v>1.855296989786895</v>
       </c>
     </row>
     <row r="480">
@@ -5720,7 +5720,7 @@
         <v>30.5</v>
       </c>
       <c r="C480" t="n">
-        <v>19.49000025847497</v>
+        <v>4.628436211541772</v>
       </c>
     </row>
     <row r="481">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>0.7807765319352092</v>
+        <v>0.8383974360852341</v>
       </c>
     </row>
     <row r="482">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>0.6533975959089854</v>
+        <v>1.479864554153089</v>
       </c>
     </row>
     <row r="483">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>0.2132916598898426</v>
+        <v>0.718066940580296</v>
       </c>
     </row>
     <row r="484">
@@ -5764,7 +5764,7 @@
         <v>10.6</v>
       </c>
       <c r="C484" t="n">
-        <v>6.94136225878557</v>
+        <v>2.460795545749928</v>
       </c>
     </row>
     <row r="485">
@@ -5775,7 +5775,7 @@
         <v>1.858200000000002</v>
       </c>
       <c r="C485" t="n">
-        <v>0.7316093938278028</v>
+        <v>1.742982299747402</v>
       </c>
     </row>
     <row r="486">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>0.02343577632652129</v>
+        <v>1.597061303768124</v>
       </c>
     </row>
     <row r="487">
@@ -5797,7 +5797,7 @@
         <v>41.5</v>
       </c>
       <c r="C487" t="n">
-        <v>40.25116668785215</v>
+        <v>1.989565329214857</v>
       </c>
     </row>
     <row r="488">
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="C488" t="n">
-        <v>3.862366599872866</v>
+        <v>7.857635645380161</v>
       </c>
     </row>
     <row r="489">
@@ -5819,7 +5819,7 @@
         <v>8.499200000000007</v>
       </c>
       <c r="C489" t="n">
-        <v>5.693699102142182</v>
+        <v>3.360474742083413</v>
       </c>
     </row>
     <row r="490">
@@ -5830,7 +5830,7 @@
         <v>10.9</v>
       </c>
       <c r="C490" t="n">
-        <v>12.62861651662147</v>
+        <v>4.274076282668896</v>
       </c>
     </row>
     <row r="491">
@@ -5841,7 +5841,7 @@
         <v>6.841000000000012</v>
       </c>
       <c r="C491" t="n">
-        <v>6.061290989553927</v>
+        <v>5.566239980954758</v>
       </c>
     </row>
     <row r="492">
@@ -5852,7 +5852,7 @@
         <v>1.878199999999999</v>
       </c>
       <c r="C492" t="n">
-        <v>0.6047143326902545</v>
+        <v>2.262423548550122</v>
       </c>
     </row>
     <row r="493">
@@ -5863,7 +5863,7 @@
         <v>0.4</v>
       </c>
       <c r="C493" t="n">
-        <v>0.3382848379536616</v>
+        <v>5.937042528084008</v>
       </c>
     </row>
     <row r="494">
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>0.514325983759233</v>
+        <v>8.947226918157376</v>
       </c>
     </row>
     <row r="495">
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0.1311842974722765</v>
+        <v>5.410592938104833</v>
       </c>
     </row>
     <row r="496">
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1.446255060577417</v>
       </c>
     </row>
     <row r="497">
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>1.381589021480499</v>
       </c>
     </row>
     <row r="498">
@@ -5918,7 +5918,7 @@
         <v>5.7</v>
       </c>
       <c r="C498" t="n">
-        <v>4.64310152226304</v>
+        <v>1.141870862539702</v>
       </c>
     </row>
     <row r="499">
@@ -5929,7 +5929,7 @@
         <v>2.1</v>
       </c>
       <c r="C499" t="n">
-        <v>1.595722937480398</v>
+        <v>12.73150883389542</v>
       </c>
     </row>
     <row r="500">
@@ -5940,7 +5940,7 @@
         <v>17.9</v>
       </c>
       <c r="C500" t="n">
-        <v>15.27069974391138</v>
+        <v>3.741926265633608</v>
       </c>
     </row>
     <row r="501">
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>0.8659447566392856</v>
+        <v>2.996193687259463</v>
       </c>
     </row>
     <row r="502">
@@ -5962,7 +5962,7 @@
         <v>13</v>
       </c>
       <c r="C502" t="n">
-        <v>11.37606628489249</v>
+        <v>4.179884418904946</v>
       </c>
     </row>
     <row r="503">
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>0.6711756811837754</v>
+        <v>2.166524945937224</v>
       </c>
     </row>
     <row r="504">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>0.2578496640643543</v>
+        <v>4.556147714093487</v>
       </c>
     </row>
     <row r="505">
@@ -5995,7 +5995,7 @@
         <v>35.2</v>
       </c>
       <c r="C505" t="n">
-        <v>32.13977758871032</v>
+        <v>1.922398998861671</v>
       </c>
     </row>
     <row r="506">
@@ -6006,7 +6006,7 @@
         <v>26.4</v>
       </c>
       <c r="C506" t="n">
-        <v>18.80055362460602</v>
+        <v>4.749206641022678</v>
       </c>
     </row>
     <row r="507">
@@ -6017,7 +6017,7 @@
         <v>72.7</v>
       </c>
       <c r="C507" t="n">
-        <v>44.30585582909337</v>
+        <v>2.958032287224153</v>
       </c>
     </row>
     <row r="508">
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>3.078461978574615</v>
+        <v>3.974714545386068</v>
       </c>
     </row>
     <row r="509">
@@ -6039,7 +6039,7 @@
         <v>2.2</v>
       </c>
       <c r="C509" t="n">
-        <v>3.239582571905705</v>
+        <v>2.726914742012312</v>
       </c>
     </row>
     <row r="510">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>0.7905152026906228</v>
+        <v>2.776359473979069</v>
       </c>
     </row>
     <row r="511">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>0.5769784767688425</v>
+        <v>1.050182575860989</v>
       </c>
     </row>
     <row r="512">
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>2.304757494136045</v>
       </c>
     </row>
     <row r="513">
@@ -6083,7 +6083,7 @@
         <v>5.4</v>
       </c>
       <c r="C513" t="n">
-        <v>3.107899505109778</v>
+        <v>0.7830551825974583</v>
       </c>
     </row>
     <row r="514">
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>0.5810717621514164</v>
+        <v>2.342615357959473</v>
       </c>
     </row>
     <row r="515">
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>0.1771395975770688</v>
+        <v>2.064553912884038</v>
       </c>
     </row>
     <row r="516">
@@ -6116,7 +6116,7 @@
         <v>80</v>
       </c>
       <c r="C516" t="n">
-        <v>70.75125081337686</v>
+        <v>0.9115868885103843</v>
       </c>
     </row>
     <row r="517">
@@ -6127,7 +6127,7 @@
         <v>1.4</v>
       </c>
       <c r="C517" t="n">
-        <v>4.493770187100197</v>
+        <v>2.892111657652184</v>
       </c>
     </row>
     <row r="518">
@@ -6138,7 +6138,7 @@
         <v>0.2</v>
       </c>
       <c r="C518" t="n">
-        <v>2.727268691339476</v>
+        <v>1.35323314165455</v>
       </c>
     </row>
     <row r="519">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>0.7042332914568887</v>
+        <v>2.75115620761452</v>
       </c>
     </row>
     <row r="520">
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>0.3009639929943725</v>
+        <v>0.9477813971852461</v>
       </c>
     </row>
     <row r="521">
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1.693788272082056</v>
       </c>
     </row>
     <row r="522">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1.259551438701245</v>
       </c>
     </row>
     <row r="523">
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>0.637576212316965</v>
       </c>
     </row>
     <row r="524">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>0.85127903089876</v>
       </c>
     </row>
     <row r="526">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>2.11949281129524</v>
       </c>
     </row>
     <row r="528">
@@ -6248,7 +6248,7 @@
         <v>47</v>
       </c>
       <c r="C528" t="n">
-        <v>32.69100449135301</v>
+        <v>2.097941632103057</v>
       </c>
     </row>
     <row r="529">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1.429065831061695</v>
+        <v>1.391135300731772</v>
       </c>
     </row>
     <row r="530">
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>0.8699973855804124</v>
+        <v>1.482165348199305</v>
       </c>
     </row>
     <row r="531">
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1.580446174904417</v>
       </c>
     </row>
     <row r="532">
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>0.8039462925467862</v>
       </c>
     </row>
     <row r="533">
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>0.5900720300423493</v>
       </c>
     </row>
     <row r="534">
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>2.671320476544785</v>
       </c>
     </row>
     <row r="535">
@@ -6325,7 +6325,7 @@
         <v>0.4</v>
       </c>
       <c r="C535" t="n">
-        <v>0.2145491689927835</v>
+        <v>2.926900599461554</v>
       </c>
     </row>
     <row r="536">
@@ -6336,7 +6336,7 @@
         <v>4</v>
       </c>
       <c r="C536" t="n">
-        <v>2.939492401834701</v>
+        <v>1.548827860658714</v>
       </c>
     </row>
     <row r="537">
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>0.2704049219257982</v>
+        <v>1.319590664951661</v>
       </c>
     </row>
     <row r="538">
@@ -6358,7 +6358,7 @@
         <v>3.6</v>
       </c>
       <c r="C538" t="n">
-        <v>2.885276333177531</v>
+        <v>1.042047568011898</v>
       </c>
     </row>
     <row r="539">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>0.1765779490520438</v>
+        <v>3.559166602457685</v>
       </c>
     </row>
     <row r="540">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>0.2656134885925259</v>
+        <v>0.6687292457848942</v>
       </c>
     </row>
     <row r="541">
@@ -6391,7 +6391,7 @@
         <v>34.5</v>
       </c>
       <c r="C541" t="n">
-        <v>33.13841477898661</v>
+        <v>1.968197680525807</v>
       </c>
     </row>
     <row r="542">
@@ -6402,7 +6402,7 @@
         <v>29.1</v>
       </c>
       <c r="C542" t="n">
-        <v>19.30203095842443</v>
+        <v>2.972716733968415</v>
       </c>
     </row>
     <row r="543">
@@ -6413,7 +6413,7 @@
         <v>60.8</v>
       </c>
       <c r="C543" t="n">
-        <v>57.40063961806967</v>
+        <v>12.23887580709277</v>
       </c>
     </row>
     <row r="544">
@@ -6424,7 +6424,7 @@
         <v>0.9495999999999994</v>
       </c>
       <c r="C544" t="n">
-        <v>2.095079143804735</v>
+        <v>3.991694816716665</v>
       </c>
     </row>
     <row r="545">
@@ -6435,7 +6435,7 @@
         <v>1.2</v>
       </c>
       <c r="C545" t="n">
-        <v>2.126460430703832</v>
+        <v>1.367573722320847</v>
       </c>
     </row>
     <row r="546">
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>0.6092557885008357</v>
+        <v>0.7879533627118558</v>
       </c>
     </row>
     <row r="547">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>0.7082936141575894</v>
+        <v>0.5280179225160384</v>
       </c>
     </row>
     <row r="548">
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>0.2917044103468023</v>
       </c>
     </row>
     <row r="549">
@@ -6479,7 +6479,7 @@
         <v>7.7</v>
       </c>
       <c r="C549" t="n">
-        <v>4.698904144050316</v>
+        <v>1.517936950215925</v>
       </c>
     </row>
     <row r="550">
@@ -6490,7 +6490,7 @@
         <v>4.4</v>
       </c>
       <c r="C550" t="n">
-        <v>3.133043707755224</v>
+        <v>4.820874607388492</v>
       </c>
     </row>
     <row r="551">
@@ -6501,7 +6501,7 @@
         <v>2.6</v>
       </c>
       <c r="C551" t="n">
-        <v>2.622201183467996</v>
+        <v>7.278381087824017</v>
       </c>
     </row>
     <row r="552">
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>0.2439192309837425</v>
+        <v>4.374458248863491</v>
       </c>
     </row>
     <row r="553">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>0.1739891156716719</v>
+        <v>2.949834697445069</v>
       </c>
     </row>
     <row r="554">
@@ -6534,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>2.424315356820335</v>
       </c>
     </row>
     <row r="555">
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1.907355209391065</v>
       </c>
     </row>
     <row r="556">
@@ -6556,7 +6556,7 @@
         <v>10.4</v>
       </c>
       <c r="C556" t="n">
-        <v>8.476015136976429</v>
+        <v>3.550053626679535</v>
       </c>
     </row>
     <row r="557">
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>0.4548032136426667</v>
+        <v>1.630468718491809</v>
       </c>
     </row>
     <row r="558">
@@ -6578,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="C558" t="n">
-        <v>1.114170485899804</v>
+        <v>0.271104832156542</v>
       </c>
     </row>
     <row r="559">
@@ -6589,7 +6589,7 @@
         <v>57.4</v>
       </c>
       <c r="C559" t="n">
-        <v>48.46193868703352</v>
+        <v>0.3850402514208016</v>
       </c>
     </row>
     <row r="560">
@@ -6600,7 +6600,7 @@
         <v>0.2</v>
       </c>
       <c r="C560" t="n">
-        <v>1.90809593739486</v>
+        <v>2.961083501053831</v>
       </c>
     </row>
     <row r="561">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>1.042546991383301</v>
+        <v>1.805085775071806</v>
       </c>
     </row>
     <row r="562">
@@ -6622,7 +6622,7 @@
         <v>7.3</v>
       </c>
       <c r="C562" t="n">
-        <v>2.103587869947362</v>
+        <v>4.314694351819047</v>
       </c>
     </row>
     <row r="563">
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>0.487358330616912</v>
+        <v>1.309716307968259</v>
       </c>
     </row>
     <row r="564">
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>0.2890495467751685</v>
+        <v>0.5956906646334478</v>
       </c>
     </row>
     <row r="565">
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>0.6433953567779985</v>
       </c>
     </row>
     <row r="566">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1.057930601139518</v>
       </c>
     </row>
     <row r="567">
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1.597476928966163</v>
       </c>
     </row>
     <row r="568">
@@ -6688,7 +6688,7 @@
         <v>0.4</v>
       </c>
       <c r="C568" t="n">
-        <v>0.1392391891355016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>0.6148452359966106</v>
       </c>
     </row>
     <row r="570">
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1.123301783966454</v>
       </c>
     </row>
     <row r="571">
@@ -6721,7 +6721,7 @@
         <v>27.7</v>
       </c>
       <c r="C571" t="n">
-        <v>23.79213722527965</v>
+        <v>6.913664900724666</v>
       </c>
     </row>
     <row r="572">
@@ -6732,7 +6732,7 @@
         <v>0.4</v>
       </c>
       <c r="C572" t="n">
-        <v>0.7644996301487028</v>
+        <v>2.057915862759153</v>
       </c>
     </row>
     <row r="573">
@@ -6743,7 +6743,7 @@
         <v>0.8</v>
       </c>
       <c r="C573" t="n">
-        <v>1.300393761436622</v>
+        <v>1.66018365906309</v>
       </c>
     </row>
     <row r="574">
@@ -6754,7 +6754,7 @@
         <v>2.4</v>
       </c>
       <c r="C574" t="n">
-        <v>1.560137637213845</v>
+        <v>7.070292412367195</v>
       </c>
     </row>
     <row r="575">
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>0.3080898377825396</v>
+        <v>1.631209257678055</v>
       </c>
     </row>
     <row r="576">
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>0.8745128487296665</v>
       </c>
     </row>
     <row r="577">
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1.168965494614799</v>
       </c>
     </row>
     <row r="578">
@@ -6798,7 +6798,7 @@
         <v>0.0458</v>
       </c>
       <c r="C578" t="n">
-        <v>0.01187508434548461</v>
+        <v>1.338586832204369</v>
       </c>
     </row>
     <row r="579">
@@ -6809,7 +6809,7 @@
         <v>9</v>
       </c>
       <c r="C579" t="n">
-        <v>8.480100840608095</v>
+        <v>4.335448816069004</v>
       </c>
     </row>
     <row r="580">
@@ -6820,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>0.6919517179757205</v>
+        <v>3.306736280940471</v>
       </c>
     </row>
     <row r="581">
@@ -6831,7 +6831,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="C581" t="n">
-        <v>7.417902319175122</v>
+        <v>3.399612868510368</v>
       </c>
     </row>
     <row r="582">
@@ -6842,7 +6842,7 @@
         <v>1.2</v>
       </c>
       <c r="C582" t="n">
-        <v>0.5743964131941819</v>
+        <v>6.158239091552359</v>
       </c>
     </row>
     <row r="583">
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>0.4431665173003117</v>
+        <v>3.827129845785478</v>
       </c>
     </row>
     <row r="584">
@@ -6864,7 +6864,7 @@
         <v>6.6</v>
       </c>
       <c r="C584" t="n">
-        <v>3.675330061468653</v>
+        <v>2.009976470644867</v>
       </c>
     </row>
     <row r="585">
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>0.1306457329133771</v>
+        <v>2.846581684866494</v>
       </c>
     </row>
     <row r="586">
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>0.2095238638841395</v>
+        <v>0.7434728110825329</v>
       </c>
     </row>
     <row r="587">
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>0.8862726722868318</v>
       </c>
     </row>
     <row r="588">
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>0.4684558248775012</v>
       </c>
     </row>
     <row r="589">
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>0.5512614130934163</v>
       </c>
     </row>
     <row r="590">
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>0.4179588696303604</v>
       </c>
     </row>
     <row r="591">
@@ -6941,7 +6941,7 @@
         <v>8.1</v>
       </c>
       <c r="C591" t="n">
-        <v>6.977915833480513</v>
+        <v>6.592820713155588</v>
       </c>
     </row>
     <row r="592">
@@ -6952,7 +6952,7 @@
         <v>21.2</v>
       </c>
       <c r="C592" t="n">
-        <v>17.98954235943178</v>
+        <v>2.373627812231067</v>
       </c>
     </row>
     <row r="593">
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>0.9137617942479246</v>
+        <v>3.151004318530295</v>
       </c>
     </row>
     <row r="594">
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>0.4605900833487495</v>
+        <v>1.771958682220941</v>
       </c>
     </row>
     <row r="595">
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>0.7929754236978834</v>
       </c>
     </row>
     <row r="596">
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>0.8785120690618452</v>
       </c>
     </row>
     <row r="597">
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>0.5346615513321646</v>
       </c>
     </row>
     <row r="598">
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>0.155793324830101</v>
       </c>
     </row>
     <row r="599">
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>2.145704406143202</v>
       </c>
     </row>
     <row r="600">
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>0.7814286379202724</v>
       </c>
     </row>
     <row r="601">
@@ -7095,7 +7095,7 @@
         <v>2.5</v>
       </c>
       <c r="C605" t="n">
-        <v>1.002115607230844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>0.1351221548246486</v>
+        <v>0.6448391947415502</v>
       </c>
     </row>
     <row r="607">
@@ -7117,7 +7117,7 @@
         <v>0.9</v>
       </c>
       <c r="C607" t="n">
-        <v>0.3627977114574352</v>
+        <v>1.610519261617942</v>
       </c>
     </row>
     <row r="608">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>0.06389580844303541</v>
+        <v>0.4079831492649612</v>
       </c>
     </row>
     <row r="609">
@@ -7139,7 +7139,7 @@
         <v>1.9</v>
       </c>
       <c r="C609" t="n">
-        <v>0.8816576117899484</v>
+        <v>0.612141775137671</v>
       </c>
     </row>
     <row r="610">
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>0.1159480072970416</v>
+        <v>1.483278317346289</v>
       </c>
     </row>
     <row r="611">
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>0.1698938830525221</v>
+        <v>0.8596018935041514</v>
       </c>
     </row>
     <row r="612">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>0.7722282332079591</v>
       </c>
     </row>
     <row r="613">
@@ -7183,7 +7183,7 @@
         <v>13.6</v>
       </c>
       <c r="C613" t="n">
-        <v>11.15577718758824</v>
+        <v>0.8373098827918953</v>
       </c>
     </row>
     <row r="614">
@@ -7194,7 +7194,7 @@
         <v>68</v>
       </c>
       <c r="C614" t="n">
-        <v>49.64999392065973</v>
+        <v>5.530688590417665</v>
       </c>
     </row>
     <row r="615">
@@ -7205,7 +7205,7 @@
         <v>8.9</v>
       </c>
       <c r="C615" t="n">
-        <v>4.113397817792724</v>
+        <v>2.212947991156039</v>
       </c>
     </row>
     <row r="616">
@@ -7216,7 +7216,7 @@
         <v>4.5</v>
       </c>
       <c r="C616" t="n">
-        <v>4.605340658060032</v>
+        <v>4.524827680787134</v>
       </c>
     </row>
     <row r="617">
@@ -7227,7 +7227,7 @@
         <v>0.7</v>
       </c>
       <c r="C617" t="n">
-        <v>1.600728411984423</v>
+        <v>1.455189033549299</v>
       </c>
     </row>
     <row r="618">
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>0.7909692056020446</v>
+        <v>2.834428428850268</v>
       </c>
     </row>
     <row r="619">
@@ -7249,7 +7249,7 @@
         <v>2.4</v>
       </c>
       <c r="C619" t="n">
-        <v>1.752546415790499</v>
+        <v>3.063756707284358</v>
       </c>
     </row>
     <row r="620">
@@ -7260,7 +7260,7 @@
         <v>1.5</v>
       </c>
       <c r="C620" t="n">
-        <v>0.9728425117097176</v>
+        <v>4.182521586234166</v>
       </c>
     </row>
     <row r="621">
@@ -7271,7 +7271,7 @@
         <v>67</v>
       </c>
       <c r="C621" t="n">
-        <v>55.89339352338972</v>
+        <v>2.315872826808793</v>
       </c>
     </row>
     <row r="622">
@@ -7282,7 +7282,7 @@
         <v>16</v>
       </c>
       <c r="C622" t="n">
-        <v>11.78789815719173</v>
+        <v>2.049101256064199</v>
       </c>
     </row>
     <row r="623">
@@ -7293,7 +7293,7 @@
         <v>43.6</v>
       </c>
       <c r="C623" t="n">
-        <v>29.02700831894984</v>
+        <v>0.585938729911899</v>
       </c>
     </row>
     <row r="624">
@@ -7304,7 +7304,7 @@
         <v>43.6</v>
       </c>
       <c r="C624" t="n">
-        <v>17.37378678375962</v>
+        <v>0.7065881360375628</v>
       </c>
     </row>
     <row r="625">
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>2.696753217500451</v>
+        <v>1.019270327168296</v>
       </c>
     </row>
     <row r="626">
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>3.249736445191451</v>
+        <v>1.380849344303394</v>
       </c>
     </row>
     <row r="627">
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>0</v>
+        <v>0.9817804486397983</v>
       </c>
     </row>
     <row r="628">
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>0</v>
+        <v>0.4582714740817431</v>
       </c>
     </row>
     <row r="629">
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>0.9865676824728794</v>
       </c>
     </row>
     <row r="630">
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1.668921296296121</v>
       </c>
     </row>
     <row r="631">
@@ -7381,7 +7381,7 @@
         <v>4.2</v>
       </c>
       <c r="C631" t="n">
-        <v>2.266715741407111</v>
+        <v>1.789695676952215</v>
       </c>
     </row>
     <row r="632">
@@ -7392,7 +7392,7 @@
         <v>4.2</v>
       </c>
       <c r="C632" t="n">
-        <v>1.971606610107733</v>
+        <v>1.275728972150729</v>
       </c>
     </row>
     <row r="633">
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>0.2598402488126449</v>
+        <v>2.069822644285923</v>
       </c>
     </row>
     <row r="634">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>0.18393241419791</v>
+        <v>2.31071748473881</v>
       </c>
     </row>
     <row r="635">
@@ -7425,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="C635" t="n">
-        <v>0</v>
+        <v>1.713965486393389</v>
       </c>
     </row>
     <row r="636">
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>3.466548429550497</v>
       </c>
     </row>
     <row r="637">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>3.187652790531154</v>
       </c>
     </row>
     <row r="638">
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>0</v>
+        <v>5.052723062867216</v>
       </c>
     </row>
     <row r="639">
@@ -7469,7 +7469,7 @@
         <v>12.4</v>
       </c>
       <c r="C639" t="n">
-        <v>7.484632380468849</v>
+        <v>8.706433420867235</v>
       </c>
     </row>
     <row r="640">
@@ -7480,7 +7480,7 @@
         <v>12.4</v>
       </c>
       <c r="C640" t="n">
-        <v>5.531016831197447</v>
+        <v>1.223499987815333</v>
       </c>
     </row>
     <row r="641">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>0.4192070563729896</v>
+        <v>1.172224621315327</v>
       </c>
     </row>
     <row r="642">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>0.4123489613958663</v>
+        <v>0.8622469760529843</v>
       </c>
     </row>
     <row r="643">
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>0</v>
+        <v>0.6292714354218732</v>
       </c>
     </row>
     <row r="644">
@@ -7524,7 +7524,7 @@
         <v>0.9</v>
       </c>
       <c r="C644" t="n">
-        <v>0.5960946666777224</v>
+        <v>3.60568894808566</v>
       </c>
     </row>
     <row r="645">
@@ -7535,7 +7535,7 @@
         <v>1.679</v>
       </c>
       <c r="C645" t="n">
-        <v>0.6161650941310369</v>
+        <v>4.8762282861471</v>
       </c>
     </row>
     <row r="646">
@@ -7546,7 +7546,7 @@
         <v>3.5</v>
       </c>
       <c r="C646" t="n">
-        <v>1.86795956159612</v>
+        <v>1.164931183337101</v>
       </c>
     </row>
     <row r="647">
@@ -7557,7 +7557,7 @@
         <v>26.7</v>
       </c>
       <c r="C647" t="n">
-        <v>24.95787112727118</v>
+        <v>4.158774200338377</v>
       </c>
     </row>
     <row r="648">
@@ -7568,7 +7568,7 @@
         <v>3.2</v>
       </c>
       <c r="C648" t="n">
-        <v>1.957269191391233</v>
+        <v>7.090719418115138</v>
       </c>
     </row>
     <row r="649">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>0.3722281049423229</v>
+        <v>0.6708389792995113</v>
       </c>
     </row>
     <row r="650">
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>0.8591262623577655</v>
+        <v>0.8460601103178408</v>
       </c>
     </row>
     <row r="651">
@@ -7601,7 +7601,7 @@
         <v>41</v>
       </c>
       <c r="C651" t="n">
-        <v>40.81692308551816</v>
+        <v>4.428786809487402</v>
       </c>
     </row>
     <row r="652">
@@ -7612,7 +7612,7 @@
         <v>2.5</v>
       </c>
       <c r="C652" t="n">
-        <v>2.408293764602516</v>
+        <v>1.847286952838638</v>
       </c>
     </row>
     <row r="653">
@@ -7623,7 +7623,7 @@
         <v>15.3</v>
       </c>
       <c r="C653" t="n">
-        <v>8.757543071385447</v>
+        <v>1.917789812126495</v>
       </c>
     </row>
     <row r="654">
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>0.6831403831736811</v>
+        <v>0.8498548216707145</v>
       </c>
     </row>
     <row r="655">
@@ -7645,7 +7645,7 @@
         <v>0.2</v>
       </c>
       <c r="C655" t="n">
-        <v>0.96735427046513</v>
+        <v>1.875978909773898</v>
       </c>
     </row>
     <row r="656">
@@ -7656,7 +7656,7 @@
         <v>0.4</v>
       </c>
       <c r="C656" t="n">
-        <v>0.2259806731022162</v>
+        <v>1.576949148407403</v>
       </c>
     </row>
     <row r="657">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>0.2301098759375534</v>
+        <v>2.826094416140573</v>
       </c>
     </row>
     <row r="658">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>0.1308680691615992</v>
+        <v>0.7635735736122028</v>
       </c>
     </row>
     <row r="659">
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>0.5606995267242085</v>
       </c>
     </row>
     <row r="660">
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>0.672856910748112</v>
       </c>
     </row>
     <row r="661">
@@ -7722,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>0.4393401490597353</v>
+        <v>0.6884513418293554</v>
       </c>
     </row>
     <row r="663">
@@ -7733,7 +7733,7 @@
         <v>0.8</v>
       </c>
       <c r="C663" t="n">
-        <v>0.4037770805911375</v>
+        <v>0.9427373632590464</v>
       </c>
     </row>
     <row r="664">
@@ -7744,7 +7744,7 @@
         <v>0.0196</v>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>1.557464706153527</v>
       </c>
     </row>
     <row r="665">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1.04399752758908</v>
       </c>
     </row>
     <row r="666">
@@ -7766,7 +7766,7 @@
         <v>25.9</v>
       </c>
       <c r="C666" t="n">
-        <v>20.67040351707564</v>
+        <v>1.354444760771007</v>
       </c>
     </row>
     <row r="667">
@@ -7777,7 +7777,7 @@
         <v>47.5</v>
       </c>
       <c r="C667" t="n">
-        <v>41.74175360227402</v>
+        <v>7.390473293366536</v>
       </c>
     </row>
     <row r="668">
@@ -7788,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="C668" t="n">
-        <v>2.708909170639092</v>
+        <v>1.995854744507118</v>
       </c>
     </row>
     <row r="669">
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>0.5840911448107228</v>
+        <v>3.829764406041824</v>
       </c>
     </row>
   </sheetData>
